--- a/data/Index Comp Shortlist.xlsx
+++ b/data/Index Comp Shortlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikna\Desktop\Politics of Routing\indexes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFEF304-69D0-4B51-BDEE-89D0FEE9DC70}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEE066B-77F5-4FDA-AF91-F2954D931583}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" tabRatio="658" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MalRout2019" sheetId="11" r:id="rId1"/>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6658616-28D4-44A9-A3DA-9C68A8010E59}">
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -697,8 +697,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <f>B2+1</f>
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -706,8 +705,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B66" si="0">B3+1</f>
-        <v>3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -715,8 +713,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -724,8 +721,7 @@
         <v>78</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -733,8 +729,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -742,8 +737,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -751,8 +745,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -760,8 +753,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -769,8 +761,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -778,8 +769,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -787,8 +777,7 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -796,8 +785,7 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -805,8 +793,7 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,8 +801,7 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -823,8 +809,7 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -832,8 +817,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -841,8 +825,7 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -850,8 +833,7 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -859,8 +841,7 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -868,8 +849,7 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -877,8 +857,7 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -886,8 +865,7 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -895,8 +873,7 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -904,8 +881,7 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -913,8 +889,7 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -922,8 +897,7 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -931,8 +905,7 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -940,8 +913,7 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -949,8 +921,7 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -958,8 +929,7 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -967,8 +937,7 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -976,8 +945,7 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -985,8 +953,7 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -994,8 +961,7 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1003,8 +969,7 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1012,8 +977,7 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1021,7 +985,6 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -1030,8 +993,7 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1039,8 +1001,7 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1048,8 +1009,7 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1057,8 +1017,7 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1066,7 +1025,6 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
@@ -1075,8 +1033,7 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1084,8 +1041,7 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,8 +1049,7 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1102,8 +1057,7 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <f t="shared" si="0"/>
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1111,8 +1065,7 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1120,8 +1073,7 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1129,8 +1081,7 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1138,8 +1089,7 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1147,8 +1097,7 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1156,8 +1105,7 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <f t="shared" si="0"/>
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1165,8 +1113,7 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <f t="shared" si="0"/>
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1174,8 +1121,7 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <f t="shared" si="0"/>
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1183,8 +1129,7 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1192,8 +1137,7 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1201,8 +1145,7 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <f t="shared" si="0"/>
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1210,8 +1153,7 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1219,8 +1161,7 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1228,8 +1169,7 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <f t="shared" si="0"/>
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1237,8 +1177,7 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <f t="shared" si="0"/>
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1246,8 +1185,7 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1255,8 +1193,7 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <f t="shared" si="0"/>
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1264,8 +1201,7 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <f t="shared" si="0"/>
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1278,8 +1214,8 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,15 +1285,15 @@
       </c>
       <c r="H2">
         <f>IFERROR(VLOOKUP(A2,MalRout2019!A:B,2,0), )</f>
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I2">
         <f>G2-H2</f>
-        <v>-16</v>
+        <v>-56</v>
       </c>
       <c r="J2">
         <f>I2^2</f>
-        <v>256</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1384,15 +1320,15 @@
       </c>
       <c r="H3">
         <f>IFERROR(VLOOKUP(A3,MalRout2019!A:B,2,0), )</f>
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" si="0">G3-H3</f>
-        <v>-22</v>
+        <v>-60</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J66" si="1">I3^2</f>
-        <v>484</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1419,15 +1355,15 @@
       </c>
       <c r="H4">
         <f>IFERROR(VLOOKUP(A4,MalRout2019!A:B,2,0), )</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1454,15 +1390,15 @@
       </c>
       <c r="H5">
         <f>IFERROR(VLOOKUP(A5,MalRout2019!A:B,2,0), )</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1489,15 +1425,15 @@
       </c>
       <c r="H6">
         <f>IFERROR(VLOOKUP(A6,MalRout2019!A:B,2,0), )</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1524,15 +1460,15 @@
       </c>
       <c r="H7">
         <f>IFERROR(VLOOKUP(A7,MalRout2019!A:B,2,0), )</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>-54</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>2916</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1559,15 +1495,15 @@
       </c>
       <c r="H8">
         <f>IFERROR(VLOOKUP(A8,MalRout2019!A:B,2,0), )</f>
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>-52</v>
+        <v>-6</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>2704</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1594,15 +1530,15 @@
       </c>
       <c r="H9">
         <f>IFERROR(VLOOKUP(A9,MalRout2019!A:B,2,0), )</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1629,15 +1565,15 @@
       </c>
       <c r="H10">
         <f>IFERROR(VLOOKUP(A10,MalRout2019!A:B,2,0), )</f>
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>-25</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1664,15 +1600,15 @@
       </c>
       <c r="H11">
         <f>IFERROR(VLOOKUP(A11,MalRout2019!A:B,2,0), )</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1699,15 +1635,15 @@
       </c>
       <c r="H12">
         <f>IFERROR(VLOOKUP(A12,MalRout2019!A:B,2,0), )</f>
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>-9</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1734,15 +1670,15 @@
       </c>
       <c r="H13">
         <f>IFERROR(VLOOKUP(A13,MalRout2019!A:B,2,0), )</f>
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>-36</v>
+        <v>-13</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>1296</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1769,15 +1705,15 @@
       </c>
       <c r="H14">
         <f>IFERROR(VLOOKUP(A14,MalRout2019!A:B,2,0), )</f>
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>-51</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1804,15 +1740,15 @@
       </c>
       <c r="H15">
         <f>IFERROR(VLOOKUP(A15,MalRout2019!A:B,2,0), )</f>
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>-44</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1839,15 +1775,15 @@
       </c>
       <c r="H16">
         <f>IFERROR(VLOOKUP(A16,MalRout2019!A:B,2,0), )</f>
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>-38</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1874,15 +1810,15 @@
       </c>
       <c r="H17">
         <f>IFERROR(VLOOKUP(A17,MalRout2019!A:B,2,0), )</f>
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>-13</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1909,15 +1845,15 @@
       </c>
       <c r="H18">
         <f>IFERROR(VLOOKUP(A18,MalRout2019!A:B,2,0), )</f>
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>-30</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>900</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1979,15 +1915,15 @@
       </c>
       <c r="H20">
         <f>IFERROR(VLOOKUP(A20,MalRout2019!A:B,2,0), )</f>
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>-29</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>841</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2014,15 +1950,15 @@
       </c>
       <c r="H21">
         <f>IFERROR(VLOOKUP(A21,MalRout2019!A:B,2,0), )</f>
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>-29</v>
+        <v>-22</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>841</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2049,15 +1985,15 @@
       </c>
       <c r="H22">
         <f>IFERROR(VLOOKUP(A22,MalRout2019!A:B,2,0), )</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2084,15 +2020,15 @@
       </c>
       <c r="H23">
         <f>IFERROR(VLOOKUP(A23,MalRout2019!A:B,2,0), )</f>
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>15</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2119,15 +2055,15 @@
       </c>
       <c r="H24">
         <f>IFERROR(VLOOKUP(A24,MalRout2019!A:B,2,0), )</f>
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>-31</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>961</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2154,15 +2090,15 @@
       </c>
       <c r="H25">
         <f>IFERROR(VLOOKUP(A25,MalRout2019!A:B,2,0), )</f>
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>-36</v>
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2189,15 +2125,15 @@
       </c>
       <c r="H26">
         <f>IFERROR(VLOOKUP(A26,MalRout2019!A:B,2,0), )</f>
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>-20</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
-        <v>576</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2224,15 +2160,15 @@
       </c>
       <c r="H27">
         <f>IFERROR(VLOOKUP(A27,MalRout2019!A:B,2,0), )</f>
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>-39</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2294,15 +2230,15 @@
       </c>
       <c r="H29">
         <f>IFERROR(VLOOKUP(A29,MalRout2019!A:B,2,0), )</f>
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>-19</v>
+        <v>14</v>
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
-        <v>361</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2329,15 +2265,15 @@
       </c>
       <c r="H30">
         <f>IFERROR(VLOOKUP(A30,MalRout2019!A:B,2,0), )</f>
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>-27</v>
+        <v>-20</v>
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
-        <v>729</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2364,15 +2300,15 @@
       </c>
       <c r="H31">
         <f>IFERROR(VLOOKUP(A31,MalRout2019!A:B,2,0), )</f>
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>-34</v>
+        <v>-24</v>
       </c>
       <c r="J31">
         <f t="shared" si="1"/>
-        <v>1156</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2399,15 +2335,15 @@
       </c>
       <c r="H32">
         <f>IFERROR(VLOOKUP(A32,MalRout2019!A:B,2,0), )</f>
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="J32">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>784</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2434,15 +2370,15 @@
       </c>
       <c r="H33">
         <f>IFERROR(VLOOKUP(A33,MalRout2019!A:B,2,0), )</f>
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-31</v>
       </c>
       <c r="J33">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>961</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2469,15 +2405,15 @@
       </c>
       <c r="H34">
         <f>IFERROR(VLOOKUP(A34,MalRout2019!A:B,2,0), )</f>
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>9</v>
       </c>
       <c r="J34">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2504,15 +2440,15 @@
       </c>
       <c r="H35">
         <f>IFERROR(VLOOKUP(A35,MalRout2019!A:B,2,0), )</f>
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>-23</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <f t="shared" si="1"/>
-        <v>529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2539,15 +2475,15 @@
       </c>
       <c r="H36">
         <f>IFERROR(VLOOKUP(A36,MalRout2019!A:B,2,0), )</f>
+        <v>9</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="I36">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
       <c r="J36">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>676</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2574,15 +2510,15 @@
       </c>
       <c r="H37">
         <f>IFERROR(VLOOKUP(A37,MalRout2019!A:B,2,0), )</f>
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>-25</v>
       </c>
       <c r="J37">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>625</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2609,15 +2545,15 @@
       </c>
       <c r="H38">
         <f>IFERROR(VLOOKUP(A38,MalRout2019!A:B,2,0), )</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="J38">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2644,15 +2580,15 @@
       </c>
       <c r="H39">
         <f>IFERROR(VLOOKUP(A39,MalRout2019!A:B,2,0), )</f>
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="J39">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>729</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2679,15 +2615,15 @@
       </c>
       <c r="H40">
         <f>IFERROR(VLOOKUP(A40,MalRout2019!A:B,2,0), )</f>
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>-13</v>
       </c>
       <c r="J40">
         <f t="shared" si="1"/>
-        <v>1024</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2714,15 +2650,15 @@
       </c>
       <c r="H41">
         <f>IFERROR(VLOOKUP(A41,MalRout2019!A:B,2,0), )</f>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I41">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J41">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2749,15 +2685,15 @@
       </c>
       <c r="H42">
         <f>IFERROR(VLOOKUP(A42,MalRout2019!A:B,2,0), )</f>
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
-        <v>-24</v>
+        <v>-10</v>
       </c>
       <c r="J42">
         <f t="shared" si="1"/>
-        <v>576</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2784,15 +2720,15 @@
       </c>
       <c r="H43">
         <f>IFERROR(VLOOKUP(A43,MalRout2019!A:B,2,0), )</f>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I43">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="J43">
         <f t="shared" si="1"/>
-        <v>1024</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2819,15 +2755,15 @@
       </c>
       <c r="H44">
         <f>IFERROR(VLOOKUP(A44,MalRout2019!A:B,2,0), )</f>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I44">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J44">
         <f t="shared" si="1"/>
-        <v>529</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2854,15 +2790,15 @@
       </c>
       <c r="H45">
         <f>IFERROR(VLOOKUP(A45,MalRout2019!A:B,2,0), )</f>
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>42</v>
       </c>
       <c r="J45">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2924,15 +2860,15 @@
       </c>
       <c r="H47">
         <f>IFERROR(VLOOKUP(A47,MalRout2019!A:B,2,0), )</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I47">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J47">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2959,15 +2895,15 @@
       </c>
       <c r="H48">
         <f>IFERROR(VLOOKUP(A48,MalRout2019!A:B,2,0), )</f>
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="I48">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="J48">
         <f t="shared" si="1"/>
-        <v>1521</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2994,15 +2930,15 @@
       </c>
       <c r="H49">
         <f>IFERROR(VLOOKUP(A49,MalRout2019!A:B,2,0), )</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I49">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J49">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -3029,15 +2965,15 @@
       </c>
       <c r="H50">
         <f>IFERROR(VLOOKUP(A50,MalRout2019!A:B,2,0), )</f>
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I50">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="J50">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3064,15 +3000,15 @@
       </c>
       <c r="H51">
         <f>IFERROR(VLOOKUP(A51,MalRout2019!A:B,2,0), )</f>
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="I51">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>40</v>
       </c>
       <c r="J51">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3099,15 +3035,15 @@
       </c>
       <c r="H52">
         <f>IFERROR(VLOOKUP(A52,MalRout2019!A:B,2,0), )</f>
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="I52">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>43</v>
       </c>
       <c r="J52">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3134,15 +3070,15 @@
       </c>
       <c r="H53">
         <f>IFERROR(VLOOKUP(A53,MalRout2019!A:B,2,0), )</f>
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="I53">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>12</v>
       </c>
       <c r="J53">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3169,15 +3105,15 @@
       </c>
       <c r="H54">
         <f>IFERROR(VLOOKUP(A54,MalRout2019!A:B,2,0), )</f>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I54">
         <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
         <v>9</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="1"/>
-        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3204,15 +3140,15 @@
       </c>
       <c r="H55">
         <f>IFERROR(VLOOKUP(A55,MalRout2019!A:B,2,0), )</f>
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I55">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>33</v>
       </c>
       <c r="J55">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3239,15 +3175,15 @@
       </c>
       <c r="H56">
         <f>IFERROR(VLOOKUP(A56,MalRout2019!A:B,2,0), )</f>
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="J56">
         <f t="shared" si="1"/>
-        <v>2401</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3274,15 +3210,15 @@
       </c>
       <c r="H57">
         <f>IFERROR(VLOOKUP(A57,MalRout2019!A:B,2,0), )</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I57">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J57">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3309,15 +3245,15 @@
       </c>
       <c r="H58">
         <f>IFERROR(VLOOKUP(A58,MalRout2019!A:B,2,0), )</f>
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J58">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3344,15 +3280,15 @@
       </c>
       <c r="H59">
         <f>IFERROR(VLOOKUP(A59,MalRout2019!A:B,2,0), )</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I59">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J59">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3379,15 +3315,15 @@
       </c>
       <c r="H60">
         <f>IFERROR(VLOOKUP(A60,MalRout2019!A:B,2,0), )</f>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I60">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J60">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3414,15 +3350,15 @@
       </c>
       <c r="H61">
         <f>IFERROR(VLOOKUP(A61,MalRout2019!A:B,2,0), )</f>
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="I61">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>54</v>
       </c>
       <c r="J61">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -3449,15 +3385,15 @@
       </c>
       <c r="H62">
         <f>IFERROR(VLOOKUP(A62,MalRout2019!A:B,2,0), )</f>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I62">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="J62">
         <f t="shared" si="1"/>
-        <v>2209</v>
+        <v>900</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3484,15 +3420,15 @@
       </c>
       <c r="H63">
         <f>IFERROR(VLOOKUP(A63,MalRout2019!A:B,2,0), )</f>
+        <v>44</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="I63">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
       <c r="J63">
         <f t="shared" si="1"/>
-        <v>1936</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3519,15 +3455,15 @@
       </c>
       <c r="H64">
         <f>IFERROR(VLOOKUP(A64,MalRout2019!A:B,2,0), )</f>
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="I64">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="J64">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3554,15 +3490,15 @@
       </c>
       <c r="H65">
         <f>IFERROR(VLOOKUP(A65,MalRout2019!A:B,2,0), )</f>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I65">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J65">
         <f t="shared" si="1"/>
-        <v>1369</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3589,21 +3525,21 @@
       </c>
       <c r="H66">
         <f>IFERROR(VLOOKUP(A66,MalRout2019!A:B,2,0), )</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J66">
         <f t="shared" si="1"/>
-        <v>2809</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J67">
         <f>SUM(J2:J66)</f>
-        <v>36667</v>
+        <v>52170</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3615,7 +3551,7 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J69">
         <f>1-((6*J67)/J68)</f>
-        <v>0.19871066433566431</v>
+        <v>-0.14007867132867124</v>
       </c>
     </row>
   </sheetData>
@@ -3632,7 +3568,7 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3673,15 +3609,15 @@
       </c>
       <c r="D2">
         <f>IFERROR(VLOOKUP(A2,MalRout2019!A:B,2,0), )</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <f>C2-D2</f>
-        <v>-3</v>
+        <v>-11</v>
       </c>
       <c r="F2">
         <f>E2^2</f>
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3696,15 +3632,15 @@
       </c>
       <c r="D3">
         <f>IFERROR(VLOOKUP(A3,MalRout2019!A:B,2,0), )</f>
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">C3-D3</f>
-        <v>-57</v>
+        <v>-11</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="1">E3^2</f>
-        <v>3249</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3719,15 +3655,15 @@
       </c>
       <c r="D4">
         <f>IFERROR(VLOOKUP(A4,MalRout2019!A:B,2,0), )</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3742,15 +3678,15 @@
       </c>
       <c r="D5">
         <f>IFERROR(VLOOKUP(A5,MalRout2019!A:B,2,0), )</f>
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>-53</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3765,15 +3701,15 @@
       </c>
       <c r="D6">
         <f>IFERROR(VLOOKUP(A6,MalRout2019!A:B,2,0), )</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>-17</v>
+        <v>-11</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>289</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3788,15 +3724,15 @@
       </c>
       <c r="D7">
         <f>IFERROR(VLOOKUP(A7,MalRout2019!A:B,2,0), )</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>-54</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>2916</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3811,15 +3747,15 @@
       </c>
       <c r="D8">
         <f>IFERROR(VLOOKUP(A8,MalRout2019!A:B,2,0), )</f>
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>-7</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3834,15 +3770,15 @@
       </c>
       <c r="D9">
         <f>IFERROR(VLOOKUP(A9,MalRout2019!A:B,2,0), )</f>
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>-21</v>
+        <v>-12</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3857,15 +3793,15 @@
       </c>
       <c r="D10">
         <f>IFERROR(VLOOKUP(A10,MalRout2019!A:B,2,0), )</f>
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-53</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3880,15 +3816,15 @@
       </c>
       <c r="D11">
         <f>IFERROR(VLOOKUP(A11,MalRout2019!A:B,2,0), )</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3903,15 +3839,15 @@
       </c>
       <c r="D12">
         <f>IFERROR(VLOOKUP(A12,MalRout2019!A:B,2,0), )</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>289</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3926,15 +3862,15 @@
       </c>
       <c r="D13">
         <f>IFERROR(VLOOKUP(A13,MalRout2019!A:B,2,0), )</f>
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-22</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3949,15 +3885,15 @@
       </c>
       <c r="D14">
         <f>IFERROR(VLOOKUP(A14,MalRout2019!A:B,2,0), )</f>
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3972,15 +3908,15 @@
       </c>
       <c r="D15">
         <f>IFERROR(VLOOKUP(A15,MalRout2019!A:B,2,0), )</f>
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>-50</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3995,15 +3931,15 @@
       </c>
       <c r="D16">
         <f>IFERROR(VLOOKUP(A16,MalRout2019!A:B,2,0), )</f>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-20</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4018,15 +3954,15 @@
       </c>
       <c r="D17">
         <f>IFERROR(VLOOKUP(A17,MalRout2019!A:B,2,0), )</f>
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>-29</v>
+        <v>14</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>841</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4041,15 +3977,15 @@
       </c>
       <c r="D18">
         <f>IFERROR(VLOOKUP(A18,MalRout2019!A:B,2,0), )</f>
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>-31</v>
+        <v>-8</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>961</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4110,15 +4046,15 @@
       </c>
       <c r="D21">
         <f>IFERROR(VLOOKUP(A21,MalRout2019!A:B,2,0), )</f>
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4133,15 +4069,15 @@
       </c>
       <c r="D22">
         <f>IFERROR(VLOOKUP(A22,MalRout2019!A:B,2,0), )</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -4156,15 +4092,15 @@
       </c>
       <c r="D23">
         <f>IFERROR(VLOOKUP(A23,MalRout2019!A:B,2,0), )</f>
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>13</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4179,15 +4115,15 @@
       </c>
       <c r="D24">
         <f>IFERROR(VLOOKUP(A24,MalRout2019!A:B,2,0), )</f>
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>-32</v>
+        <v>15</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>1024</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4202,15 +4138,15 @@
       </c>
       <c r="D25">
         <f>IFERROR(VLOOKUP(A25,MalRout2019!A:B,2,0), )</f>
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -4225,15 +4161,15 @@
       </c>
       <c r="D26">
         <f>IFERROR(VLOOKUP(A26,MalRout2019!A:B,2,0), )</f>
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>-40</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -4248,15 +4184,15 @@
       </c>
       <c r="D27">
         <f>IFERROR(VLOOKUP(A27,MalRout2019!A:B,2,0), )</f>
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>-22</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>484</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -4271,15 +4207,15 @@
       </c>
       <c r="D28">
         <f>IFERROR(VLOOKUP(A28,MalRout2019!A:B,2,0), )</f>
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-33</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4294,15 +4230,15 @@
       </c>
       <c r="D29">
         <f>IFERROR(VLOOKUP(A29,MalRout2019!A:B,2,0), )</f>
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>-19</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -4317,15 +4253,15 @@
       </c>
       <c r="D30">
         <f>IFERROR(VLOOKUP(A30,MalRout2019!A:B,2,0), )</f>
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>-27</v>
+        <v>-20</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>729</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -4340,15 +4276,15 @@
       </c>
       <c r="D31">
         <f>IFERROR(VLOOKUP(A31,MalRout2019!A:B,2,0), )</f>
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-33</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -4363,15 +4299,15 @@
       </c>
       <c r="D32">
         <f>IFERROR(VLOOKUP(A32,MalRout2019!A:B,2,0), )</f>
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>784</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -4386,15 +4322,15 @@
       </c>
       <c r="D33">
         <f>IFERROR(VLOOKUP(A33,MalRout2019!A:B,2,0), )</f>
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-21</v>
+        <v>22</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>484</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -4409,15 +4345,15 @@
       </c>
       <c r="D34">
         <f>IFERROR(VLOOKUP(A34,MalRout2019!A:B,2,0), )</f>
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>-25</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>961</v>
+        <v>625</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -4432,15 +4368,15 @@
       </c>
       <c r="D35">
         <f>IFERROR(VLOOKUP(A35,MalRout2019!A:B,2,0), )</f>
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-27</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>729</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -4455,15 +4391,15 @@
       </c>
       <c r="D36">
         <f>IFERROR(VLOOKUP(A36,MalRout2019!A:B,2,0), )</f>
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>-19</v>
+        <v>13</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>361</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -4478,15 +4414,15 @@
       </c>
       <c r="D37">
         <f>IFERROR(VLOOKUP(A37,MalRout2019!A:B,2,0), )</f>
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>784</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -4501,15 +4437,15 @@
       </c>
       <c r="D38">
         <f>IFERROR(VLOOKUP(A38,MalRout2019!A:B,2,0), )</f>
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>-21</v>
+        <v>16</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -4524,15 +4460,15 @@
       </c>
       <c r="D39">
         <f>IFERROR(VLOOKUP(A39,MalRout2019!A:B,2,0), )</f>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -4547,15 +4483,15 @@
       </c>
       <c r="D40">
         <f>IFERROR(VLOOKUP(A40,MalRout2019!A:B,2,0), )</f>
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -4570,15 +4506,15 @@
       </c>
       <c r="D41">
         <f>IFERROR(VLOOKUP(A41,MalRout2019!A:B,2,0), )</f>
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -4593,15 +4529,15 @@
       </c>
       <c r="D42">
         <f>IFERROR(VLOOKUP(A42,MalRout2019!A:B,2,0), )</f>
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>-22</v>
+        <v>35</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -4616,15 +4552,15 @@
       </c>
       <c r="D43">
         <f>IFERROR(VLOOKUP(A43,MalRout2019!A:B,2,0), )</f>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-14</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -4662,15 +4598,15 @@
       </c>
       <c r="D45">
         <f>IFERROR(VLOOKUP(A45,MalRout2019!A:B,2,0), )</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>1024</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -4685,11 +4621,11 @@
       </c>
       <c r="D46">
         <f>IFERROR(VLOOKUP(A46,MalRout2019!A:B,2,0), )</f>
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
@@ -4708,15 +4644,15 @@
       </c>
       <c r="D47">
         <f>IFERROR(VLOOKUP(A47,MalRout2019!A:B,2,0), )</f>
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>-6</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>1521</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -4731,15 +4667,15 @@
       </c>
       <c r="D48">
         <f>IFERROR(VLOOKUP(A48,MalRout2019!A:B,2,0), )</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -4754,11 +4690,11 @@
       </c>
       <c r="D49">
         <f>IFERROR(VLOOKUP(A49,MalRout2019!A:B,2,0), )</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
@@ -4777,15 +4713,15 @@
       </c>
       <c r="D50">
         <f>IFERROR(VLOOKUP(A50,MalRout2019!A:B,2,0), )</f>
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -4800,15 +4736,15 @@
       </c>
       <c r="D51">
         <f>IFERROR(VLOOKUP(A51,MalRout2019!A:B,2,0), )</f>
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>2401</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -4823,15 +4759,15 @@
       </c>
       <c r="D52">
         <f>IFERROR(VLOOKUP(A52,MalRout2019!A:B,2,0), )</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -4846,15 +4782,15 @@
       </c>
       <c r="D53">
         <f>IFERROR(VLOOKUP(A53,MalRout2019!A:B,2,0), )</f>
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>1</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -4869,15 +4805,15 @@
       </c>
       <c r="D54">
         <f>IFERROR(VLOOKUP(A54,MalRout2019!A:B,2,0), )</f>
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>1225</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -4892,15 +4828,15 @@
       </c>
       <c r="D55">
         <f>IFERROR(VLOOKUP(A55,MalRout2019!A:B,2,0), )</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -4915,15 +4851,15 @@
       </c>
       <c r="D56">
         <f>IFERROR(VLOOKUP(A56,MalRout2019!A:B,2,0), )</f>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
-        <v>784</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -4938,15 +4874,15 @@
       </c>
       <c r="D57">
         <f>IFERROR(VLOOKUP(A57,MalRout2019!A:B,2,0), )</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -4961,15 +4897,15 @@
       </c>
       <c r="D58">
         <f>IFERROR(VLOOKUP(A58,MalRout2019!A:B,2,0), )</f>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>961</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -4984,15 +4920,15 @@
       </c>
       <c r="D59">
         <f>IFERROR(VLOOKUP(A59,MalRout2019!A:B,2,0), )</f>
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>18</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -5007,15 +4943,15 @@
       </c>
       <c r="D60">
         <f>IFERROR(VLOOKUP(A60,MalRout2019!A:B,2,0), )</f>
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -5027,15 +4963,15 @@
       </c>
       <c r="D61">
         <f>IFERROR(VLOOKUP(A61,MalRout2019!A:B,2,0), )</f>
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>-37</v>
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -5047,15 +4983,15 @@
       </c>
       <c r="D62">
         <f>IFERROR(VLOOKUP(A62,MalRout2019!A:B,2,0), )</f>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>-31</v>
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>961</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -5067,15 +5003,15 @@
       </c>
       <c r="D63">
         <f>IFERROR(VLOOKUP(A63,MalRout2019!A:B,2,0), )</f>
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>-33</v>
+        <v>-7</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>1089</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -5087,15 +5023,15 @@
       </c>
       <c r="D64">
         <f>IFERROR(VLOOKUP(A64,MalRout2019!A:B,2,0), )</f>
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>-49</v>
+        <v>-42</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>2401</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -5107,15 +5043,15 @@
       </c>
       <c r="D65">
         <f>IFERROR(VLOOKUP(A65,MalRout2019!A:B,2,0), )</f>
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>-51</v>
+        <v>-36</v>
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
-        <v>2601</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -5127,21 +5063,21 @@
       </c>
       <c r="D66">
         <f>IFERROR(VLOOKUP(A66,MalRout2019!A:B,2,0), )</f>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>-61</v>
+        <v>-59</v>
       </c>
       <c r="F66">
         <f t="shared" si="1"/>
-        <v>3721</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F67">
         <f>SUM(F2:F66)</f>
-        <v>41580</v>
+        <v>43805</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -5153,7 +5089,7 @@
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F69">
         <f>1-((6*F67)/F68)</f>
-        <v>9.1346153846153855E-2</v>
+        <v>4.2722902097902082E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5168,8 +5104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF605CC-9EE5-4C48-93E1-3851DF986E29}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1048576"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5210,15 +5146,15 @@
       </c>
       <c r="D2">
         <f>IFERROR(VLOOKUP(A2,MalRout2019!A:B,2,0), )</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <f>C2-D2</f>
-        <v>-3</v>
+        <v>-11</v>
       </c>
       <c r="F2">
         <f>E2^2</f>
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5233,15 +5169,15 @@
       </c>
       <c r="D3">
         <f>IFERROR(VLOOKUP(A3,MalRout2019!A:B,2,0), )</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">C3-D3</f>
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="1">E3^2</f>
-        <v>81</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5256,15 +5192,15 @@
       </c>
       <c r="D4">
         <f>IFERROR(VLOOKUP(A4,MalRout2019!A:B,2,0), )</f>
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>-56</v>
+        <v>-10</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>3136</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5279,15 +5215,15 @@
       </c>
       <c r="D5">
         <f>IFERROR(VLOOKUP(A5,MalRout2019!A:B,2,0), )</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5302,15 +5238,15 @@
       </c>
       <c r="D6">
         <f>IFERROR(VLOOKUP(A6,MalRout2019!A:B,2,0), )</f>
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>-52</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5325,15 +5261,15 @@
       </c>
       <c r="D7">
         <f>IFERROR(VLOOKUP(A7,MalRout2019!A:B,2,0), )</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>-54</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>2916</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5348,15 +5284,15 @@
       </c>
       <c r="D8">
         <f>IFERROR(VLOOKUP(A8,MalRout2019!A:B,2,0), )</f>
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>-7</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5371,15 +5307,15 @@
       </c>
       <c r="D9">
         <f>IFERROR(VLOOKUP(A9,MalRout2019!A:B,2,0), )</f>
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>-16</v>
+        <v>-54</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5394,15 +5330,15 @@
       </c>
       <c r="D10">
         <f>IFERROR(VLOOKUP(A10,MalRout2019!A:B,2,0), )</f>
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-11</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -5417,15 +5353,15 @@
       </c>
       <c r="D11">
         <f>IFERROR(VLOOKUP(A11,MalRout2019!A:B,2,0), )</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5440,15 +5376,15 @@
       </c>
       <c r="D12">
         <f>IFERROR(VLOOKUP(A12,MalRout2019!A:B,2,0), )</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>289</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5463,15 +5399,15 @@
       </c>
       <c r="D13">
         <f>IFERROR(VLOOKUP(A13,MalRout2019!A:B,2,0), )</f>
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-22</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5486,15 +5422,15 @@
       </c>
       <c r="D14">
         <f>IFERROR(VLOOKUP(A14,MalRout2019!A:B,2,0), )</f>
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5509,15 +5445,15 @@
       </c>
       <c r="D15">
         <f>IFERROR(VLOOKUP(A15,MalRout2019!A:B,2,0), )</f>
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>-50</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5532,15 +5468,15 @@
       </c>
       <c r="D16">
         <f>IFERROR(VLOOKUP(A16,MalRout2019!A:B,2,0), )</f>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-20</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5555,15 +5491,15 @@
       </c>
       <c r="D17">
         <f>IFERROR(VLOOKUP(A17,MalRout2019!A:B,2,0), )</f>
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>-32</v>
+        <v>-9</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>1024</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5578,15 +5514,15 @@
       </c>
       <c r="D18">
         <f>IFERROR(VLOOKUP(A18,MalRout2019!A:B,2,0), )</f>
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>-28</v>
+        <v>15</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>784</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5624,15 +5560,15 @@
       </c>
       <c r="D20">
         <f>IFERROR(VLOOKUP(A20,MalRout2019!A:B,2,0), )</f>
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>-4</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5647,15 +5583,15 @@
       </c>
       <c r="D21">
         <f>IFERROR(VLOOKUP(A21,MalRout2019!A:B,2,0), )</f>
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5693,15 +5629,15 @@
       </c>
       <c r="D23">
         <f>IFERROR(VLOOKUP(A23,MalRout2019!A:B,2,0), )</f>
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-26</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>676</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5716,15 +5652,15 @@
       </c>
       <c r="D24">
         <f>IFERROR(VLOOKUP(A24,MalRout2019!A:B,2,0), )</f>
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>-42</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5739,15 +5675,15 @@
       </c>
       <c r="D25">
         <f>IFERROR(VLOOKUP(A25,MalRout2019!A:B,2,0), )</f>
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>15</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5762,15 +5698,15 @@
       </c>
       <c r="D26">
         <f>IFERROR(VLOOKUP(A26,MalRout2019!A:B,2,0), )</f>
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>-31</v>
+        <v>-24</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>961</v>
+        <v>576</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5785,15 +5721,15 @@
       </c>
       <c r="D27">
         <f>IFERROR(VLOOKUP(A27,MalRout2019!A:B,2,0), )</f>
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>-21</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5808,15 +5744,15 @@
       </c>
       <c r="D28">
         <f>IFERROR(VLOOKUP(A28,MalRout2019!A:B,2,0), )</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -5831,15 +5767,15 @@
       </c>
       <c r="D29">
         <f>IFERROR(VLOOKUP(A29,MalRout2019!A:B,2,0), )</f>
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>-33</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -5854,15 +5790,15 @@
       </c>
       <c r="D30">
         <f>IFERROR(VLOOKUP(A30,MalRout2019!A:B,2,0), )</f>
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-31</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>961</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -5877,15 +5813,15 @@
       </c>
       <c r="D31">
         <f>IFERROR(VLOOKUP(A31,MalRout2019!A:B,2,0), )</f>
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>-23</v>
+        <v>20</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>529</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5900,15 +5836,15 @@
       </c>
       <c r="D32">
         <f>IFERROR(VLOOKUP(A32,MalRout2019!A:B,2,0), )</f>
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>-27</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>841</v>
+        <v>729</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -5923,15 +5859,15 @@
       </c>
       <c r="D33">
         <f>IFERROR(VLOOKUP(A33,MalRout2019!A:B,2,0), )</f>
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-23</v>
+        <v>24</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>529</v>
+        <v>576</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -5946,15 +5882,15 @@
       </c>
       <c r="D34">
         <f>IFERROR(VLOOKUP(A34,MalRout2019!A:B,2,0), )</f>
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>-21</v>
+        <v>11</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5969,15 +5905,15 @@
       </c>
       <c r="D35">
         <f>IFERROR(VLOOKUP(A35,MalRout2019!A:B,2,0), )</f>
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>961</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5992,15 +5928,15 @@
       </c>
       <c r="D36">
         <f>IFERROR(VLOOKUP(A36,MalRout2019!A:B,2,0), )</f>
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-28</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>784</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -6015,15 +5951,15 @@
       </c>
       <c r="D37">
         <f>IFERROR(VLOOKUP(A37,MalRout2019!A:B,2,0), )</f>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -6038,15 +5974,15 @@
       </c>
       <c r="D38">
         <f>IFERROR(VLOOKUP(A38,MalRout2019!A:B,2,0), )</f>
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>-27</v>
+        <v>-17</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>729</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -6061,15 +5997,15 @@
       </c>
       <c r="D39">
         <f>IFERROR(VLOOKUP(A39,MalRout2019!A:B,2,0), )</f>
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>17</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -6084,15 +6020,15 @@
       </c>
       <c r="D40">
         <f>IFERROR(VLOOKUP(A40,MalRout2019!A:B,2,0), )</f>
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>6</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -6107,15 +6043,15 @@
       </c>
       <c r="D41">
         <f>IFERROR(VLOOKUP(A41,MalRout2019!A:B,2,0), )</f>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-16</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -6130,15 +6066,15 @@
       </c>
       <c r="D42">
         <f>IFERROR(VLOOKUP(A42,MalRout2019!A:B,2,0), )</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -6153,15 +6089,15 @@
       </c>
       <c r="D43">
         <f>IFERROR(VLOOKUP(A43,MalRout2019!A:B,2,0), )</f>
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>1089</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -6176,15 +6112,15 @@
       </c>
       <c r="D44">
         <f>IFERROR(VLOOKUP(A44,MalRout2019!A:B,2,0), )</f>
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>37</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6199,15 +6135,15 @@
       </c>
       <c r="D45">
         <f>IFERROR(VLOOKUP(A45,MalRout2019!A:B,2,0), )</f>
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -6222,15 +6158,15 @@
       </c>
       <c r="D46">
         <f>IFERROR(VLOOKUP(A46,MalRout2019!A:B,2,0), )</f>
+        <v>37</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E46">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>1369</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -6268,15 +6204,15 @@
       </c>
       <c r="D48">
         <f>IFERROR(VLOOKUP(A48,MalRout2019!A:B,2,0), )</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -6291,15 +6227,15 @@
       </c>
       <c r="D49">
         <f>IFERROR(VLOOKUP(A49,MalRout2019!A:B,2,0), )</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
-        <v>1296</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -6314,15 +6250,15 @@
       </c>
       <c r="D50">
         <f>IFERROR(VLOOKUP(A50,MalRout2019!A:B,2,0), )</f>
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>-3</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>1764</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -6337,15 +6273,15 @@
       </c>
       <c r="D51">
         <f>IFERROR(VLOOKUP(A51,MalRout2019!A:B,2,0), )</f>
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>-5</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6360,15 +6296,15 @@
       </c>
       <c r="D52">
         <f>IFERROR(VLOOKUP(A52,MalRout2019!A:B,2,0), )</f>
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -6383,15 +6319,15 @@
       </c>
       <c r="D53">
         <f>IFERROR(VLOOKUP(A53,MalRout2019!A:B,2,0), )</f>
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>1</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -6406,15 +6342,15 @@
       </c>
       <c r="D54">
         <f>IFERROR(VLOOKUP(A54,MalRout2019!A:B,2,0), )</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -6429,15 +6365,15 @@
       </c>
       <c r="D55">
         <f>IFERROR(VLOOKUP(A55,MalRout2019!A:B,2,0), )</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -6452,15 +6388,15 @@
       </c>
       <c r="D56">
         <f>IFERROR(VLOOKUP(A56,MalRout2019!A:B,2,0), )</f>
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
-        <v>1369</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -6475,15 +6411,15 @@
       </c>
       <c r="D57">
         <f>IFERROR(VLOOKUP(A57,MalRout2019!A:B,2,0), )</f>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>841</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -6498,15 +6434,15 @@
       </c>
       <c r="D58">
         <f>IFERROR(VLOOKUP(A58,MalRout2019!A:B,2,0), )</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>1681</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -6521,15 +6457,15 @@
       </c>
       <c r="D59">
         <f>IFERROR(VLOOKUP(A59,MalRout2019!A:B,2,0), )</f>
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>484</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -6544,15 +6480,15 @@
       </c>
       <c r="D60">
         <f>IFERROR(VLOOKUP(A60,MalRout2019!A:B,2,0), )</f>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>576</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -6567,15 +6503,15 @@
       </c>
       <c r="D61">
         <f>IFERROR(VLOOKUP(A61,MalRout2019!A:B,2,0), )</f>
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -6590,15 +6526,15 @@
       </c>
       <c r="D62">
         <f>IFERROR(VLOOKUP(A62,MalRout2019!A:B,2,0), )</f>
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -6610,15 +6546,15 @@
       </c>
       <c r="D63">
         <f>IFERROR(VLOOKUP(A63,MalRout2019!A:B,2,0), )</f>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>-31</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>961</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -6630,15 +6566,15 @@
       </c>
       <c r="D64">
         <f>IFERROR(VLOOKUP(A64,MalRout2019!A:B,2,0), )</f>
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>-33</v>
+        <v>-7</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>1089</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -6650,15 +6586,15 @@
       </c>
       <c r="D65">
         <f>IFERROR(VLOOKUP(A65,MalRout2019!A:B,2,0), )</f>
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>-49</v>
+        <v>-42</v>
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
-        <v>2401</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -6670,21 +6606,21 @@
       </c>
       <c r="D66">
         <f>IFERROR(VLOOKUP(A66,MalRout2019!A:B,2,0), )</f>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>-61</v>
+        <v>-59</v>
       </c>
       <c r="F66">
         <f t="shared" si="1"/>
-        <v>3721</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F67">
         <f>SUM(F2:F66)</f>
-        <v>41265</v>
+        <v>44224</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -6696,7 +6632,7 @@
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F69">
         <f>1-((6*F67)/F68)</f>
-        <v>9.8229895104895104E-2</v>
+        <v>3.3566433566433518E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6711,8 +6647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073D67BF-D262-42C5-A66A-4BB41376A9E7}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6753,15 +6689,15 @@
       </c>
       <c r="D2">
         <f>IFERROR(VLOOKUP(A2,MalRout2019!A:B,2,0), )</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <f>C2-D2</f>
-        <v>-3</v>
+        <v>-11</v>
       </c>
       <c r="F2">
         <f>E2^2</f>
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6776,15 +6712,15 @@
       </c>
       <c r="D3">
         <f>IFERROR(VLOOKUP(A3,MalRout2019!A:B,2,0), )</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">C3-D3</f>
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="1">E3^2</f>
-        <v>81</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6799,15 +6735,15 @@
       </c>
       <c r="D4">
         <f>IFERROR(VLOOKUP(A4,MalRout2019!A:B,2,0), )</f>
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>-54</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6822,15 +6758,15 @@
       </c>
       <c r="D5">
         <f>IFERROR(VLOOKUP(A5,MalRout2019!A:B,2,0), )</f>
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>-55</v>
+        <v>-9</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>3025</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6845,15 +6781,15 @@
       </c>
       <c r="D6">
         <f>IFERROR(VLOOKUP(A6,MalRout2019!A:B,2,0), )</f>
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>-19</v>
+        <v>-57</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>361</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6868,15 +6804,15 @@
       </c>
       <c r="D7">
         <f>IFERROR(VLOOKUP(A7,MalRout2019!A:B,2,0), )</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6891,15 +6827,15 @@
       </c>
       <c r="D8">
         <f>IFERROR(VLOOKUP(A8,MalRout2019!A:B,2,0), )</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>-53</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>2809</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6914,15 +6850,15 @@
       </c>
       <c r="D9">
         <f>IFERROR(VLOOKUP(A9,MalRout2019!A:B,2,0), )</f>
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>-21</v>
+        <v>-12</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6937,15 +6873,15 @@
       </c>
       <c r="D10">
         <f>IFERROR(VLOOKUP(A10,MalRout2019!A:B,2,0), )</f>
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>-33</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6960,15 +6896,15 @@
       </c>
       <c r="D11">
         <f>IFERROR(VLOOKUP(A11,MalRout2019!A:B,2,0), )</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -6983,15 +6919,15 @@
       </c>
       <c r="D12">
         <f>IFERROR(VLOOKUP(A12,MalRout2019!A:B,2,0), )</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7006,15 +6942,15 @@
       </c>
       <c r="D13">
         <f>IFERROR(VLOOKUP(A13,MalRout2019!A:B,2,0), )</f>
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>-35</v>
+        <v>-2</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>1225</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7029,15 +6965,15 @@
       </c>
       <c r="D14">
         <f>IFERROR(VLOOKUP(A14,MalRout2019!A:B,2,0), )</f>
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>-21</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7052,15 +6988,15 @@
       </c>
       <c r="D15">
         <f>IFERROR(VLOOKUP(A15,MalRout2019!A:B,2,0), )</f>
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-39</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7075,15 +7011,15 @@
       </c>
       <c r="D16">
         <f>IFERROR(VLOOKUP(A16,MalRout2019!A:B,2,0), )</f>
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>-33</v>
+        <v>-10</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>1089</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -7121,15 +7057,15 @@
       </c>
       <c r="D18">
         <f>IFERROR(VLOOKUP(A18,MalRout2019!A:B,2,0), )</f>
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>-47</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -7144,15 +7080,15 @@
       </c>
       <c r="D19">
         <f>IFERROR(VLOOKUP(A19,MalRout2019!A:B,2,0), )</f>
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>-36</v>
+        <v>-4</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>1296</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7167,11 +7103,11 @@
       </c>
       <c r="D20">
         <f>IFERROR(VLOOKUP(A20,MalRout2019!A:B,2,0), )</f>
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
@@ -7190,15 +7126,15 @@
       </c>
       <c r="D21">
         <f>IFERROR(VLOOKUP(A21,MalRout2019!A:B,2,0), )</f>
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>17</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -7213,15 +7149,15 @@
       </c>
       <c r="D22">
         <f>IFERROR(VLOOKUP(A22,MalRout2019!A:B,2,0), )</f>
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>-37</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>361</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -7236,15 +7172,15 @@
       </c>
       <c r="D23">
         <f>IFERROR(VLOOKUP(A23,MalRout2019!A:B,2,0), )</f>
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>13</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -7282,15 +7218,15 @@
       </c>
       <c r="D25">
         <f>IFERROR(VLOOKUP(A25,MalRout2019!A:B,2,0), )</f>
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>-23</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -7305,15 +7241,15 @@
       </c>
       <c r="D26">
         <f>IFERROR(VLOOKUP(A26,MalRout2019!A:B,2,0), )</f>
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>-38</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -7328,15 +7264,15 @@
       </c>
       <c r="D27">
         <f>IFERROR(VLOOKUP(A27,MalRout2019!A:B,2,0), )</f>
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>-35</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -7351,15 +7287,15 @@
       </c>
       <c r="D28">
         <f>IFERROR(VLOOKUP(A28,MalRout2019!A:B,2,0), )</f>
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>1369</v>
+        <v>729</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -7374,15 +7310,15 @@
       </c>
       <c r="D29">
         <f>IFERROR(VLOOKUP(A29,MalRout2019!A:B,2,0), )</f>
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-20</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -7397,15 +7333,15 @@
       </c>
       <c r="D30">
         <f>IFERROR(VLOOKUP(A30,MalRout2019!A:B,2,0), )</f>
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -7420,15 +7356,15 @@
       </c>
       <c r="D31">
         <f>IFERROR(VLOOKUP(A31,MalRout2019!A:B,2,0), )</f>
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>-30</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>900</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -7443,15 +7379,15 @@
       </c>
       <c r="D32">
         <f>IFERROR(VLOOKUP(A32,MalRout2019!A:B,2,0), )</f>
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>625</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -7466,15 +7402,15 @@
       </c>
       <c r="D33">
         <f>IFERROR(VLOOKUP(A33,MalRout2019!A:B,2,0), )</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>-14</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -7489,15 +7425,15 @@
       </c>
       <c r="D34">
         <f>IFERROR(VLOOKUP(A34,MalRout2019!A:B,2,0), )</f>
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>23</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>529</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -7512,15 +7448,15 @@
       </c>
       <c r="D35">
         <f>IFERROR(VLOOKUP(A35,MalRout2019!A:B,2,0), )</f>
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>-31</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>361</v>
+        <v>961</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -7535,15 +7471,15 @@
       </c>
       <c r="D36">
         <f>IFERROR(VLOOKUP(A36,MalRout2019!A:B,2,0), )</f>
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>-22</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -7558,15 +7494,15 @@
       </c>
       <c r="D37">
         <f>IFERROR(VLOOKUP(A37,MalRout2019!A:B,2,0), )</f>
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>-22</v>
+        <v>15</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -7581,15 +7517,15 @@
       </c>
       <c r="D38">
         <f>IFERROR(VLOOKUP(A38,MalRout2019!A:B,2,0), )</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -7604,15 +7540,15 @@
       </c>
       <c r="D39">
         <f>IFERROR(VLOOKUP(A39,MalRout2019!A:B,2,0), )</f>
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -7627,15 +7563,15 @@
       </c>
       <c r="D40">
         <f>IFERROR(VLOOKUP(A40,MalRout2019!A:B,2,0), )</f>
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>37</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -7650,15 +7586,15 @@
       </c>
       <c r="D41">
         <f>IFERROR(VLOOKUP(A41,MalRout2019!A:B,2,0), )</f>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -7673,15 +7609,15 @@
       </c>
       <c r="D42">
         <f>IFERROR(VLOOKUP(A42,MalRout2019!A:B,2,0), )</f>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>961</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -7696,15 +7632,15 @@
       </c>
       <c r="D43">
         <f>IFERROR(VLOOKUP(A43,MalRout2019!A:B,2,0), )</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -7719,15 +7655,15 @@
       </c>
       <c r="D44">
         <f>IFERROR(VLOOKUP(A44,MalRout2019!A:B,2,0), )</f>
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>-9</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
-        <v>1296</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -7742,15 +7678,15 @@
       </c>
       <c r="D45">
         <f>IFERROR(VLOOKUP(A45,MalRout2019!A:B,2,0), )</f>
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>36</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -7765,15 +7701,15 @@
       </c>
       <c r="D46">
         <f>IFERROR(VLOOKUP(A46,MalRout2019!A:B,2,0), )</f>
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -7788,15 +7724,15 @@
       </c>
       <c r="D47">
         <f>IFERROR(VLOOKUP(A47,MalRout2019!A:B,2,0), )</f>
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>529</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -7811,15 +7747,15 @@
       </c>
       <c r="D48">
         <f>IFERROR(VLOOKUP(A48,MalRout2019!A:B,2,0), )</f>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>-9</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -7834,15 +7770,15 @@
       </c>
       <c r="D49">
         <f>IFERROR(VLOOKUP(A49,MalRout2019!A:B,2,0), )</f>
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -7857,15 +7793,15 @@
       </c>
       <c r="D50">
         <f>IFERROR(VLOOKUP(A50,MalRout2019!A:B,2,0), )</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -7880,15 +7816,15 @@
       </c>
       <c r="D51">
         <f>IFERROR(VLOOKUP(A51,MalRout2019!A:B,2,0), )</f>
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -7926,15 +7862,15 @@
       </c>
       <c r="D53">
         <f>IFERROR(VLOOKUP(A53,MalRout2019!A:B,2,0), )</f>
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>46</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -7949,15 +7885,15 @@
       </c>
       <c r="D54">
         <f>IFERROR(VLOOKUP(A54,MalRout2019!A:B,2,0), )</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>1681</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -7972,15 +7908,15 @@
       </c>
       <c r="D55">
         <f>IFERROR(VLOOKUP(A55,MalRout2019!A:B,2,0), )</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>1444</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -7995,15 +7931,15 @@
       </c>
       <c r="D56">
         <f>IFERROR(VLOOKUP(A56,MalRout2019!A:B,2,0), )</f>
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
-        <v>2916</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -8018,15 +7954,15 @@
       </c>
       <c r="D57">
         <f>IFERROR(VLOOKUP(A57,MalRout2019!A:B,2,0), )</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -8041,15 +7977,15 @@
       </c>
       <c r="D58">
         <f>IFERROR(VLOOKUP(A58,MalRout2019!A:B,2,0), )</f>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -8064,15 +8000,15 @@
       </c>
       <c r="D59">
         <f>IFERROR(VLOOKUP(A59,MalRout2019!A:B,2,0), )</f>
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -8087,15 +8023,15 @@
       </c>
       <c r="D60">
         <f>IFERROR(VLOOKUP(A60,MalRout2019!A:B,2,0), )</f>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>1024</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -8110,15 +8046,15 @@
       </c>
       <c r="D61">
         <f>IFERROR(VLOOKUP(A61,MalRout2019!A:B,2,0), )</f>
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>576</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -8133,15 +8069,15 @@
       </c>
       <c r="D62">
         <f>IFERROR(VLOOKUP(A62,MalRout2019!A:B,2,0), )</f>
+        <v>26</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="E62">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
       <c r="F62">
         <f t="shared" si="1"/>
-        <v>676</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -8156,15 +8092,15 @@
       </c>
       <c r="D63">
         <f>IFERROR(VLOOKUP(A63,MalRout2019!A:B,2,0), )</f>
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>484</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -8179,15 +8115,15 @@
       </c>
       <c r="D64">
         <f>IFERROR(VLOOKUP(A64,MalRout2019!A:B,2,0), )</f>
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -8199,15 +8135,15 @@
       </c>
       <c r="D65">
         <f>IFERROR(VLOOKUP(A65,MalRout2019!A:B,2,0), )</f>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>-31</v>
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>961</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -8219,21 +8155,21 @@
       </c>
       <c r="D66">
         <f>IFERROR(VLOOKUP(A66,MalRout2019!A:B,2,0), )</f>
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>-33</v>
+        <v>-7</v>
       </c>
       <c r="F66">
         <f t="shared" si="1"/>
-        <v>1089</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F67">
         <f>SUM(F2:F66)</f>
-        <v>39144</v>
+        <v>44451</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -8245,7 +8181,7 @@
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F69">
         <f>1-((6*F67)/F68)</f>
-        <v>0.14458041958041956</v>
+        <v>2.8605769230769185E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8260,8 +8196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A68DFB-8B47-450C-9DB6-0E1F407E96C6}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8302,15 +8238,15 @@
       </c>
       <c r="D2">
         <f>IFERROR(VLOOKUP(A2,MalRout2019!A:B,2,0), )</f>
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E2">
         <f>C2-D2</f>
-        <v>-23</v>
+        <v>-61</v>
       </c>
       <c r="F2">
         <f>E2^2</f>
-        <v>529</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8325,15 +8261,15 @@
       </c>
       <c r="D3">
         <f>IFERROR(VLOOKUP(A3,MalRout2019!A:B,2,0), )</f>
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">C3-D3</f>
-        <v>-15</v>
+        <v>-55</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="1">E3^2</f>
-        <v>225</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8348,15 +8284,15 @@
       </c>
       <c r="D4">
         <f>IFERROR(VLOOKUP(A4,MalRout2019!A:B,2,0), )</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8371,15 +8307,15 @@
       </c>
       <c r="D5">
         <f>IFERROR(VLOOKUP(A5,MalRout2019!A:B,2,0), )</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8394,15 +8330,15 @@
       </c>
       <c r="D6">
         <f>IFERROR(VLOOKUP(A6,MalRout2019!A:B,2,0), )</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8417,15 +8353,15 @@
       </c>
       <c r="D7">
         <f>IFERROR(VLOOKUP(A7,MalRout2019!A:B,2,0), )</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>-54</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>2916</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8440,15 +8376,15 @@
       </c>
       <c r="D8">
         <f>IFERROR(VLOOKUP(A8,MalRout2019!A:B,2,0), )</f>
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>-52</v>
+        <v>-6</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>2704</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8463,15 +8399,15 @@
       </c>
       <c r="D9">
         <f>IFERROR(VLOOKUP(A9,MalRout2019!A:B,2,0), )</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8486,15 +8422,15 @@
       </c>
       <c r="D10">
         <f>IFERROR(VLOOKUP(A10,MalRout2019!A:B,2,0), )</f>
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-11</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8509,15 +8445,15 @@
       </c>
       <c r="D11">
         <f>IFERROR(VLOOKUP(A11,MalRout2019!A:B,2,0), )</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8532,15 +8468,15 @@
       </c>
       <c r="D12">
         <f>IFERROR(VLOOKUP(A12,MalRout2019!A:B,2,0), )</f>
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>-38</v>
+        <v>-31</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>1444</v>
+        <v>961</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8555,15 +8491,15 @@
       </c>
       <c r="D13">
         <f>IFERROR(VLOOKUP(A13,MalRout2019!A:B,2,0), )</f>
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>-36</v>
+        <v>-13</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>1296</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8578,15 +8514,15 @@
       </c>
       <c r="D14">
         <f>IFERROR(VLOOKUP(A14,MalRout2019!A:B,2,0), )</f>
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>10</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8601,15 +8537,15 @@
       </c>
       <c r="D15">
         <f>IFERROR(VLOOKUP(A15,MalRout2019!A:B,2,0), )</f>
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-39</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8647,15 +8583,15 @@
       </c>
       <c r="D17">
         <f>IFERROR(VLOOKUP(A17,MalRout2019!A:B,2,0), )</f>
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-44</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8670,15 +8606,15 @@
       </c>
       <c r="D18">
         <f>IFERROR(VLOOKUP(A18,MalRout2019!A:B,2,0), )</f>
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>-41</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8693,15 +8629,15 @@
       </c>
       <c r="D19">
         <f>IFERROR(VLOOKUP(A19,MalRout2019!A:B,2,0), )</f>
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>-11</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8716,15 +8652,15 @@
       </c>
       <c r="D20">
         <f>IFERROR(VLOOKUP(A20,MalRout2019!A:B,2,0), )</f>
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>10</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8739,15 +8675,15 @@
       </c>
       <c r="D21">
         <f>IFERROR(VLOOKUP(A21,MalRout2019!A:B,2,0), )</f>
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-14</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8762,15 +8698,15 @@
       </c>
       <c r="D22">
         <f>IFERROR(VLOOKUP(A22,MalRout2019!A:B,2,0), )</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8785,15 +8721,15 @@
       </c>
       <c r="D23">
         <f>IFERROR(VLOOKUP(A23,MalRout2019!A:B,2,0), )</f>
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>-35</v>
+        <v>-11</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>1225</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -8808,15 +8744,15 @@
       </c>
       <c r="D24">
         <f>IFERROR(VLOOKUP(A24,MalRout2019!A:B,2,0), )</f>
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>-31</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>961</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -8831,15 +8767,15 @@
       </c>
       <c r="D25">
         <f>IFERROR(VLOOKUP(A25,MalRout2019!A:B,2,0), )</f>
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-37</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8854,15 +8790,15 @@
       </c>
       <c r="D26">
         <f>IFERROR(VLOOKUP(A26,MalRout2019!A:B,2,0), )</f>
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>-22</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -8877,15 +8813,15 @@
       </c>
       <c r="D27">
         <f>IFERROR(VLOOKUP(A27,MalRout2019!A:B,2,0), )</f>
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>-22</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>484</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8900,15 +8836,15 @@
       </c>
       <c r="D28">
         <f>IFERROR(VLOOKUP(A28,MalRout2019!A:B,2,0), )</f>
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>-29</v>
+        <v>-22</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>841</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -8923,15 +8859,15 @@
       </c>
       <c r="D29">
         <f>IFERROR(VLOOKUP(A29,MalRout2019!A:B,2,0), )</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>-22</v>
+        <v>-18</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -8946,15 +8882,15 @@
       </c>
       <c r="D30">
         <f>IFERROR(VLOOKUP(A30,MalRout2019!A:B,2,0), )</f>
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>-23</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8969,15 +8905,15 @@
       </c>
       <c r="D31">
         <f>IFERROR(VLOOKUP(A31,MalRout2019!A:B,2,0), )</f>
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>-34</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>729</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -8992,15 +8928,15 @@
       </c>
       <c r="D32">
         <f>IFERROR(VLOOKUP(A32,MalRout2019!A:B,2,0), )</f>
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>-33</v>
+        <v>-23</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>1089</v>
+        <v>529</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -9038,15 +8974,15 @@
       </c>
       <c r="D34">
         <f>IFERROR(VLOOKUP(A34,MalRout2019!A:B,2,0), )</f>
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-22</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>484</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -9061,15 +8997,15 @@
       </c>
       <c r="D35">
         <f>IFERROR(VLOOKUP(A35,MalRout2019!A:B,2,0), )</f>
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>-31</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>361</v>
+        <v>961</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -9084,15 +9020,15 @@
       </c>
       <c r="D36">
         <f>IFERROR(VLOOKUP(A36,MalRout2019!A:B,2,0), )</f>
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>11</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -9107,15 +9043,15 @@
       </c>
       <c r="D37">
         <f>IFERROR(VLOOKUP(A37,MalRout2019!A:B,2,0), )</f>
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>841</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -9130,15 +9066,15 @@
       </c>
       <c r="D38">
         <f>IFERROR(VLOOKUP(A38,MalRout2019!A:B,2,0), )</f>
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>23</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>529</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -9153,15 +9089,15 @@
       </c>
       <c r="D39">
         <f>IFERROR(VLOOKUP(A39,MalRout2019!A:B,2,0), )</f>
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>729</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -9176,15 +9112,15 @@
       </c>
       <c r="D40">
         <f>IFERROR(VLOOKUP(A40,MalRout2019!A:B,2,0), )</f>
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>-24</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>576</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -9199,15 +9135,15 @@
       </c>
       <c r="D41">
         <f>IFERROR(VLOOKUP(A41,MalRout2019!A:B,2,0), )</f>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -9222,15 +9158,15 @@
       </c>
       <c r="D42">
         <f>IFERROR(VLOOKUP(A42,MalRout2019!A:B,2,0), )</f>
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>-4</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -9245,15 +9181,15 @@
       </c>
       <c r="D43">
         <f>IFERROR(VLOOKUP(A43,MalRout2019!A:B,2,0), )</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -9268,15 +9204,15 @@
       </c>
       <c r="D44">
         <f>IFERROR(VLOOKUP(A44,MalRout2019!A:B,2,0), )</f>
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>-22</v>
+        <v>-8</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -9291,15 +9227,15 @@
       </c>
       <c r="D45">
         <f>IFERROR(VLOOKUP(A45,MalRout2019!A:B,2,0), )</f>
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>36</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -9314,15 +9250,15 @@
       </c>
       <c r="D46">
         <f>IFERROR(VLOOKUP(A46,MalRout2019!A:B,2,0), )</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>841</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -9337,15 +9273,15 @@
       </c>
       <c r="D47">
         <f>IFERROR(VLOOKUP(A47,MalRout2019!A:B,2,0), )</f>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -9360,15 +9296,15 @@
       </c>
       <c r="D48">
         <f>IFERROR(VLOOKUP(A48,MalRout2019!A:B,2,0), )</f>
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>37</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -9383,15 +9319,15 @@
       </c>
       <c r="D49">
         <f>IFERROR(VLOOKUP(A49,MalRout2019!A:B,2,0), )</f>
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>27</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>729</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -9406,15 +9342,15 @@
       </c>
       <c r="D50">
         <f>IFERROR(VLOOKUP(A50,MalRout2019!A:B,2,0), )</f>
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -9429,15 +9365,15 @@
       </c>
       <c r="D51">
         <f>IFERROR(VLOOKUP(A51,MalRout2019!A:B,2,0), )</f>
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>10</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -9452,15 +9388,15 @@
       </c>
       <c r="D52">
         <f>IFERROR(VLOOKUP(A52,MalRout2019!A:B,2,0), )</f>
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
-        <v>1849</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -9475,15 +9411,15 @@
       </c>
       <c r="D53">
         <f>IFERROR(VLOOKUP(A53,MalRout2019!A:B,2,0), )</f>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>-4</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -9498,15 +9434,15 @@
       </c>
       <c r="D54">
         <f>IFERROR(VLOOKUP(A54,MalRout2019!A:B,2,0), )</f>
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>47</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -9521,15 +9457,15 @@
       </c>
       <c r="D55">
         <f>IFERROR(VLOOKUP(A55,MalRout2019!A:B,2,0), )</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>529</v>
+        <v>484</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -9544,15 +9480,15 @@
       </c>
       <c r="D56">
         <f>IFERROR(VLOOKUP(A56,MalRout2019!A:B,2,0), )</f>
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
-        <v>1369</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -9567,15 +9503,15 @@
       </c>
       <c r="D57">
         <f>IFERROR(VLOOKUP(A57,MalRout2019!A:B,2,0), )</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -9590,15 +9526,15 @@
       </c>
       <c r="D58">
         <f>IFERROR(VLOOKUP(A58,MalRout2019!A:B,2,0), )</f>
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -9613,15 +9549,15 @@
       </c>
       <c r="D59">
         <f>IFERROR(VLOOKUP(A59,MalRout2019!A:B,2,0), )</f>
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>2704</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -9636,15 +9572,15 @@
       </c>
       <c r="D60">
         <f>IFERROR(VLOOKUP(A60,MalRout2019!A:B,2,0), )</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>2209</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -9659,15 +9595,15 @@
       </c>
       <c r="D61">
         <f>IFERROR(VLOOKUP(A61,MalRout2019!A:B,2,0), )</f>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -9705,15 +9641,15 @@
       </c>
       <c r="D63">
         <f>IFERROR(VLOOKUP(A63,MalRout2019!A:B,2,0), )</f>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>1225</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -9728,15 +9664,15 @@
       </c>
       <c r="D64">
         <f>IFERROR(VLOOKUP(A64,MalRout2019!A:B,2,0), )</f>
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -9751,15 +9687,15 @@
       </c>
       <c r="D65">
         <f>IFERROR(VLOOKUP(A65,MalRout2019!A:B,2,0), )</f>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -9774,21 +9710,21 @@
       </c>
       <c r="D66">
         <f>IFERROR(VLOOKUP(A66,MalRout2019!A:B,2,0), )</f>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F66">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F67">
         <f>SUM(F2:F66)</f>
-        <v>41787</v>
+        <v>50986</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -9800,7 +9736,7 @@
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F69">
         <f>1-((6*F67)/F68)</f>
-        <v>8.6822552447552437E-2</v>
+        <v>-0.1142045454545455</v>
       </c>
     </row>
   </sheetData>
@@ -9812,15 +9748,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Project Document" ma:contentTypeID="0x010100B72D5037F2EA664DBFC5187AA8D6B65C00A3340CEDB5DA7E4B9BB96631FD89FF21" ma:contentTypeVersion="7" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="bd1ef9963cf2a2e7e91ecbe90abdc46d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bbeb8e2e-daad-4c9b-b304-1c3eab47a3c8" xmlns:ns3="c35e2d04-db00-4c32-92ef-5c850c76cd43" xmlns:ns4="83dd29aa-65c1-4a57-8a59-44e3dbcdc3a0" xmlns:ns5="34c09e02-ee14-4df8-b4da-da82f6bef5e6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c4316eafdb6baf2714cef7a8594a8608" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="bbeb8e2e-daad-4c9b-b304-1c3eab47a3c8"/>
@@ -10035,6 +9962,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -10046,14 +9982,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E44E48-64AF-4C77-9A9D-F8B314961EB6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09F63946-DBCD-497D-A66C-7D2FAB518D56}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10074,6 +10002,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E44E48-64AF-4C77-9A9D-F8B314961EB6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6230D5F0-77D7-4D96-AA50-17E5A7AA5F87}">
   <ds:schemaRefs>

--- a/data/Index Comp Shortlist.xlsx
+++ b/data/Index Comp Shortlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikna\Desktop\Politics of Routing\indexes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEE066B-77F5-4FDA-AF91-F2954D931583}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB047EA-52D3-4FC3-B306-B36A5B3E3836}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" tabRatio="658" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" tabRatio="658" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MalRout2019" sheetId="11" r:id="rId1"/>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6658616-28D4-44A9-A3DA-9C68A8010E59}">
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -697,7 +697,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -705,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -713,7 +713,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -721,7 +721,7 @@
         <v>78</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -729,7 +729,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -753,7 +753,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -761,7 +761,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -769,7 +769,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -777,7 +777,7 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -785,7 +785,7 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -793,7 +793,7 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -801,7 +801,7 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -809,7 +809,7 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -817,7 +817,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -825,7 +825,7 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -833,7 +833,7 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -841,7 +841,7 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -849,7 +849,7 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -857,7 +857,7 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -865,7 +865,7 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -873,7 +873,7 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>62</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -881,7 +881,7 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -889,7 +889,7 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -905,7 +905,7 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -913,7 +913,7 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -921,7 +921,7 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -929,7 +929,7 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -937,7 +937,7 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -945,7 +945,7 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -953,7 +953,7 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -961,7 +961,7 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -969,7 +969,7 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -977,7 +977,7 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -985,7 +985,7 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -993,7 +993,7 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1001,7 +1001,7 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1009,7 +1009,7 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1017,7 +1017,7 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1025,7 +1025,7 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1033,7 +1033,7 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1041,7 +1041,7 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1049,7 +1049,7 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1057,7 +1057,7 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1065,7 +1065,7 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1073,7 +1073,7 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1081,7 +1081,7 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1089,7 +1089,7 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1097,7 +1097,7 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1105,7 +1105,7 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1113,7 +1113,7 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1121,7 +1121,7 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1145,7 +1145,7 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1153,7 +1153,7 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1161,7 +1161,7 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1169,7 +1169,7 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1177,7 +1177,7 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1185,7 +1185,7 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1193,7 +1193,7 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1201,7 +1201,7 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1214,8 +1214,8 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J69" sqref="J69"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,15 +1285,15 @@
       </c>
       <c r="H2">
         <f>IFERROR(VLOOKUP(A2,MalRout2019!A:B,2,0), )</f>
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="I2">
         <f>G2-H2</f>
-        <v>-56</v>
+        <v>-8</v>
       </c>
       <c r="J2">
         <f>I2^2</f>
-        <v>3136</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1320,15 +1320,15 @@
       </c>
       <c r="H3">
         <f>IFERROR(VLOOKUP(A3,MalRout2019!A:B,2,0), )</f>
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" si="0">G3-H3</f>
-        <v>-60</v>
+        <v>-2</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J66" si="1">I3^2</f>
-        <v>3600</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1355,15 +1355,15 @@
       </c>
       <c r="H4">
         <f>IFERROR(VLOOKUP(A4,MalRout2019!A:B,2,0), )</f>
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>-48</v>
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1390,15 +1390,15 @@
       </c>
       <c r="H5">
         <f>IFERROR(VLOOKUP(A5,MalRout2019!A:B,2,0), )</f>
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>-46</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1425,15 +1425,15 @@
       </c>
       <c r="H6">
         <f>IFERROR(VLOOKUP(A6,MalRout2019!A:B,2,0), )</f>
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-49</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1460,15 +1460,15 @@
       </c>
       <c r="H7">
         <f>IFERROR(VLOOKUP(A7,MalRout2019!A:B,2,0), )</f>
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-55</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="H8">
         <f>IFERROR(VLOOKUP(A8,MalRout2019!A:B,2,0), )</f>
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>-46</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1530,15 +1530,15 @@
       </c>
       <c r="H9">
         <f>IFERROR(VLOOKUP(A9,MalRout2019!A:B,2,0), )</f>
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-41</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1565,15 +1565,15 @@
       </c>
       <c r="H10">
         <f>IFERROR(VLOOKUP(A10,MalRout2019!A:B,2,0), )</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>-23</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>625</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1600,15 +1600,15 @@
       </c>
       <c r="H11">
         <f>IFERROR(VLOOKUP(A11,MalRout2019!A:B,2,0), )</f>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>-17</v>
+        <v>-29</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>289</v>
+        <v>841</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1635,15 +1635,15 @@
       </c>
       <c r="H12">
         <f>IFERROR(VLOOKUP(A12,MalRout2019!A:B,2,0), )</f>
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-35</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1670,15 +1670,15 @@
       </c>
       <c r="H13">
         <f>IFERROR(VLOOKUP(A13,MalRout2019!A:B,2,0), )</f>
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>-29</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>841</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1705,15 +1705,15 @@
       </c>
       <c r="H14">
         <f>IFERROR(VLOOKUP(A14,MalRout2019!A:B,2,0), )</f>
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>-51</v>
+        <v>11</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>2601</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1740,15 +1740,15 @@
       </c>
       <c r="H15">
         <f>IFERROR(VLOOKUP(A15,MalRout2019!A:B,2,0), )</f>
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>-44</v>
+        <v>6</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>1936</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1775,15 +1775,15 @@
       </c>
       <c r="H16">
         <f>IFERROR(VLOOKUP(A16,MalRout2019!A:B,2,0), )</f>
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>-38</v>
+        <v>2</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>1444</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1810,15 +1810,15 @@
       </c>
       <c r="H17">
         <f>IFERROR(VLOOKUP(A17,MalRout2019!A:B,2,0), )</f>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>-21</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1845,15 +1845,15 @@
       </c>
       <c r="H18">
         <f>IFERROR(VLOOKUP(A18,MalRout2019!A:B,2,0), )</f>
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>-2</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1880,15 +1880,15 @@
       </c>
       <c r="H19">
         <f>IFERROR(VLOOKUP(A19,MalRout2019!A:B,2,0), )</f>
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>-5</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>625</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1915,15 +1915,15 @@
       </c>
       <c r="H20">
         <f>IFERROR(VLOOKUP(A20,MalRout2019!A:B,2,0), )</f>
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>-29</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>841</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1950,15 +1950,15 @@
       </c>
       <c r="H21">
         <f>IFERROR(VLOOKUP(A21,MalRout2019!A:B,2,0), )</f>
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>-22</v>
+        <v>-4</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1985,15 +1985,15 @@
       </c>
       <c r="H22">
         <f>IFERROR(VLOOKUP(A22,MalRout2019!A:B,2,0), )</f>
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>-6</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2020,15 +2020,15 @@
       </c>
       <c r="H23">
         <f>IFERROR(VLOOKUP(A23,MalRout2019!A:B,2,0), )</f>
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>-37</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2055,15 +2055,15 @@
       </c>
       <c r="H24">
         <f>IFERROR(VLOOKUP(A24,MalRout2019!A:B,2,0), )</f>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-21</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2090,15 +2090,15 @@
       </c>
       <c r="H25">
         <f>IFERROR(VLOOKUP(A25,MalRout2019!A:B,2,0), )</f>
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>-36</v>
+        <v>18</v>
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
-        <v>1296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2125,15 +2125,15 @@
       </c>
       <c r="H26">
         <f>IFERROR(VLOOKUP(A26,MalRout2019!A:B,2,0), )</f>
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>4</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2160,15 +2160,15 @@
       </c>
       <c r="H27">
         <f>IFERROR(VLOOKUP(A27,MalRout2019!A:B,2,0), )</f>
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>-39</v>
+        <v>25</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>1521</v>
+        <v>625</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2195,15 +2195,15 @@
       </c>
       <c r="H28">
         <f>IFERROR(VLOOKUP(A28,MalRout2019!A:B,2,0), )</f>
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>-1</v>
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2230,15 +2230,15 @@
       </c>
       <c r="H29">
         <f>IFERROR(VLOOKUP(A29,MalRout2019!A:B,2,0), )</f>
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>-24</v>
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>576</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2265,15 +2265,15 @@
       </c>
       <c r="H30">
         <f>IFERROR(VLOOKUP(A30,MalRout2019!A:B,2,0), )</f>
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>12</v>
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2300,15 +2300,15 @@
       </c>
       <c r="H31">
         <f>IFERROR(VLOOKUP(A31,MalRout2019!A:B,2,0), )</f>
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>-24</v>
+        <v>18</v>
       </c>
       <c r="J31">
         <f t="shared" si="1"/>
-        <v>576</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2335,15 +2335,15 @@
       </c>
       <c r="H32">
         <f>IFERROR(VLOOKUP(A32,MalRout2019!A:B,2,0), )</f>
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>-32</v>
       </c>
       <c r="J32">
         <f t="shared" si="1"/>
-        <v>784</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2370,15 +2370,15 @@
       </c>
       <c r="H33">
         <f>IFERROR(VLOOKUP(A33,MalRout2019!A:B,2,0), )</f>
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>-31</v>
+        <v>29</v>
       </c>
       <c r="J33">
         <f t="shared" si="1"/>
-        <v>961</v>
+        <v>841</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2405,11 +2405,11 @@
       </c>
       <c r="H34">
         <f>IFERROR(VLOOKUP(A34,MalRout2019!A:B,2,0), )</f>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="J34">
         <f t="shared" si="1"/>
@@ -2475,15 +2475,15 @@
       </c>
       <c r="H36">
         <f>IFERROR(VLOOKUP(A36,MalRout2019!A:B,2,0), )</f>
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>-22</v>
       </c>
       <c r="J36">
         <f t="shared" si="1"/>
-        <v>676</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2510,15 +2510,15 @@
       </c>
       <c r="H37">
         <f>IFERROR(VLOOKUP(A37,MalRout2019!A:B,2,0), )</f>
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>31</v>
       </c>
       <c r="J37">
         <f t="shared" si="1"/>
-        <v>625</v>
+        <v>961</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2545,15 +2545,15 @@
       </c>
       <c r="H38">
         <f>IFERROR(VLOOKUP(A38,MalRout2019!A:B,2,0), )</f>
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>17</v>
       </c>
       <c r="J38">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2580,15 +2580,15 @@
       </c>
       <c r="H39">
         <f>IFERROR(VLOOKUP(A39,MalRout2019!A:B,2,0), )</f>
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>-17</v>
       </c>
       <c r="J39">
         <f t="shared" si="1"/>
-        <v>729</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2615,15 +2615,15 @@
       </c>
       <c r="H40">
         <f>IFERROR(VLOOKUP(A40,MalRout2019!A:B,2,0), )</f>
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>25</v>
       </c>
       <c r="J40">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>625</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2650,15 +2650,15 @@
       </c>
       <c r="H41">
         <f>IFERROR(VLOOKUP(A41,MalRout2019!A:B,2,0), )</f>
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I41">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2685,15 +2685,15 @@
       </c>
       <c r="H42">
         <f>IFERROR(VLOOKUP(A42,MalRout2019!A:B,2,0), )</f>
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>26</v>
       </c>
       <c r="J42">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>676</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2720,15 +2720,15 @@
       </c>
       <c r="H43">
         <f>IFERROR(VLOOKUP(A43,MalRout2019!A:B,2,0), )</f>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I43">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J43">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2755,15 +2755,15 @@
       </c>
       <c r="H44">
         <f>IFERROR(VLOOKUP(A44,MalRout2019!A:B,2,0), )</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I44">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J44">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2790,15 +2790,15 @@
       </c>
       <c r="H45">
         <f>IFERROR(VLOOKUP(A45,MalRout2019!A:B,2,0), )</f>
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>-20</v>
       </c>
       <c r="J45">
         <f t="shared" si="1"/>
-        <v>1764</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2860,15 +2860,15 @@
       </c>
       <c r="H47">
         <f>IFERROR(VLOOKUP(A47,MalRout2019!A:B,2,0), )</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I47">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J47">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2895,15 +2895,15 @@
       </c>
       <c r="H48">
         <f>IFERROR(VLOOKUP(A48,MalRout2019!A:B,2,0), )</f>
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I48">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J48">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2930,15 +2930,15 @@
       </c>
       <c r="H49">
         <f>IFERROR(VLOOKUP(A49,MalRout2019!A:B,2,0), )</f>
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I49">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J49">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>529</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2965,15 +2965,15 @@
       </c>
       <c r="H50">
         <f>IFERROR(VLOOKUP(A50,MalRout2019!A:B,2,0), )</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I50">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J50">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3000,15 +3000,15 @@
       </c>
       <c r="H51">
         <f>IFERROR(VLOOKUP(A51,MalRout2019!A:B,2,0), )</f>
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="I51">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>-6</v>
       </c>
       <c r="J51">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3035,15 +3035,15 @@
       </c>
       <c r="H52">
         <f>IFERROR(VLOOKUP(A52,MalRout2019!A:B,2,0), )</f>
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="I52">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>-7</v>
       </c>
       <c r="J52">
         <f t="shared" si="1"/>
-        <v>1849</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3070,15 +3070,15 @@
       </c>
       <c r="H53">
         <f>IFERROR(VLOOKUP(A53,MalRout2019!A:B,2,0), )</f>
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I53">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J53">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>676</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3105,15 +3105,15 @@
       </c>
       <c r="H54">
         <f>IFERROR(VLOOKUP(A54,MalRout2019!A:B,2,0), )</f>
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="I54">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>43</v>
       </c>
       <c r="J54">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3140,15 +3140,15 @@
       </c>
       <c r="H55">
         <f>IFERROR(VLOOKUP(A55,MalRout2019!A:B,2,0), )</f>
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I55">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="J55">
         <f t="shared" si="1"/>
-        <v>1089</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="H56">
         <f>IFERROR(VLOOKUP(A56,MalRout2019!A:B,2,0), )</f>
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="J56">
         <f t="shared" si="1"/>
-        <v>1024</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3210,15 +3210,15 @@
       </c>
       <c r="H57">
         <f>IFERROR(VLOOKUP(A57,MalRout2019!A:B,2,0), )</f>
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="I57">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>-6</v>
       </c>
       <c r="J57">
         <f t="shared" si="1"/>
-        <v>2704</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3245,15 +3245,15 @@
       </c>
       <c r="H58">
         <f>IFERROR(VLOOKUP(A58,MalRout2019!A:B,2,0), )</f>
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="J58">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3280,15 +3280,15 @@
       </c>
       <c r="H59">
         <f>IFERROR(VLOOKUP(A59,MalRout2019!A:B,2,0), )</f>
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I59">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="J59">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3315,15 +3315,15 @@
       </c>
       <c r="H60">
         <f>IFERROR(VLOOKUP(A60,MalRout2019!A:B,2,0), )</f>
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="I60">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J60">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3350,15 +3350,15 @@
       </c>
       <c r="H61">
         <f>IFERROR(VLOOKUP(A61,MalRout2019!A:B,2,0), )</f>
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="I61">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="J61">
         <f t="shared" si="1"/>
-        <v>2916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -3385,15 +3385,15 @@
       </c>
       <c r="H62">
         <f>IFERROR(VLOOKUP(A62,MalRout2019!A:B,2,0), )</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I62">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J62">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>676</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3420,15 +3420,15 @@
       </c>
       <c r="H63">
         <f>IFERROR(VLOOKUP(A63,MalRout2019!A:B,2,0), )</f>
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I63">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="J63">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3455,15 +3455,15 @@
       </c>
       <c r="H64">
         <f>IFERROR(VLOOKUP(A64,MalRout2019!A:B,2,0), )</f>
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="I64">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="J64">
         <f t="shared" si="1"/>
-        <v>1936</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3490,15 +3490,15 @@
       </c>
       <c r="H65">
         <f>IFERROR(VLOOKUP(A65,MalRout2019!A:B,2,0), )</f>
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I65">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="J65">
         <f t="shared" si="1"/>
-        <v>2116</v>
+        <v>256</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3525,21 +3525,21 @@
       </c>
       <c r="H66">
         <f>IFERROR(VLOOKUP(A66,MalRout2019!A:B,2,0), )</f>
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="I66">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J66">
         <f t="shared" si="1"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J67">
         <f>SUM(J2:J66)</f>
-        <v>52170</v>
+        <v>43094</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3551,7 +3551,7 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J69">
         <f>1-((6*J67)/J68)</f>
-        <v>-0.14007867132867124</v>
+        <v>5.8260489510489566E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3567,7 +3567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36198A2-45F7-4E2D-AF04-87EC7C6E0C80}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
@@ -3609,15 +3609,15 @@
       </c>
       <c r="D2">
         <f>IFERROR(VLOOKUP(A2,MalRout2019!A:B,2,0), )</f>
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <f>C2-D2</f>
-        <v>-11</v>
+        <v>-53</v>
       </c>
       <c r="F2">
         <f>E2^2</f>
-        <v>121</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3632,15 +3632,15 @@
       </c>
       <c r="D3">
         <f>IFERROR(VLOOKUP(A3,MalRout2019!A:B,2,0), )</f>
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">C3-D3</f>
-        <v>-11</v>
+        <v>-51</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="1">E3^2</f>
-        <v>121</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="D4">
         <f>IFERROR(VLOOKUP(A4,MalRout2019!A:B,2,0), )</f>
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>-48</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3678,15 +3678,15 @@
       </c>
       <c r="D5">
         <f>IFERROR(VLOOKUP(A5,MalRout2019!A:B,2,0), )</f>
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>-53</v>
+        <v>-5</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>2809</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3701,15 +3701,15 @@
       </c>
       <c r="D6">
         <f>IFERROR(VLOOKUP(A6,MalRout2019!A:B,2,0), )</f>
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>-45</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3724,15 +3724,15 @@
       </c>
       <c r="D7">
         <f>IFERROR(VLOOKUP(A7,MalRout2019!A:B,2,0), )</f>
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-55</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3747,15 +3747,15 @@
       </c>
       <c r="D8">
         <f>IFERROR(VLOOKUP(A8,MalRout2019!A:B,2,0), )</f>
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-45</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3770,15 +3770,15 @@
       </c>
       <c r="D9">
         <f>IFERROR(VLOOKUP(A9,MalRout2019!A:B,2,0), )</f>
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>-38</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3793,15 +3793,15 @@
       </c>
       <c r="D10">
         <f>IFERROR(VLOOKUP(A10,MalRout2019!A:B,2,0), )</f>
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>-53</v>
+        <v>5</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>2809</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3816,15 +3816,15 @@
       </c>
       <c r="D11">
         <f>IFERROR(VLOOKUP(A11,MalRout2019!A:B,2,0), )</f>
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-39</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3839,15 +3839,15 @@
       </c>
       <c r="D12">
         <f>IFERROR(VLOOKUP(A12,MalRout2019!A:B,2,0), )</f>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>-16</v>
+        <v>-28</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>784</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3862,15 +3862,15 @@
       </c>
       <c r="D13">
         <f>IFERROR(VLOOKUP(A13,MalRout2019!A:B,2,0), )</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>-22</v>
+        <v>-20</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3885,15 +3885,15 @@
       </c>
       <c r="D14">
         <f>IFERROR(VLOOKUP(A14,MalRout2019!A:B,2,0), )</f>
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3908,15 +3908,15 @@
       </c>
       <c r="D15">
         <f>IFERROR(VLOOKUP(A15,MalRout2019!A:B,2,0), )</f>
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>-50</v>
+        <v>12</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3931,15 +3931,15 @@
       </c>
       <c r="D16">
         <f>IFERROR(VLOOKUP(A16,MalRout2019!A:B,2,0), )</f>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-16</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3954,15 +3954,15 @@
       </c>
       <c r="D17">
         <f>IFERROR(VLOOKUP(A17,MalRout2019!A:B,2,0), )</f>
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>-48</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3977,15 +3977,15 @@
       </c>
       <c r="D18">
         <f>IFERROR(VLOOKUP(A18,MalRout2019!A:B,2,0), )</f>
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>-24</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4000,15 +4000,15 @@
       </c>
       <c r="D19">
         <f>IFERROR(VLOOKUP(A19,MalRout2019!A:B,2,0), )</f>
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>-5</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>625</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4023,15 +4023,15 @@
       </c>
       <c r="D20">
         <f>IFERROR(VLOOKUP(A20,MalRout2019!A:B,2,0), )</f>
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>-19</v>
+        <v>-9</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>361</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4046,15 +4046,15 @@
       </c>
       <c r="D21">
         <f>IFERROR(VLOOKUP(A21,MalRout2019!A:B,2,0), )</f>
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>-35</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4069,15 +4069,15 @@
       </c>
       <c r="D22">
         <f>IFERROR(VLOOKUP(A22,MalRout2019!A:B,2,0), )</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -4092,15 +4092,15 @@
       </c>
       <c r="D23">
         <f>IFERROR(VLOOKUP(A23,MalRout2019!A:B,2,0), )</f>
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>-35</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4115,15 +4115,15 @@
       </c>
       <c r="D24">
         <f>IFERROR(VLOOKUP(A24,MalRout2019!A:B,2,0), )</f>
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>-35</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4138,15 +4138,15 @@
       </c>
       <c r="D25">
         <f>IFERROR(VLOOKUP(A25,MalRout2019!A:B,2,0), )</f>
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-19</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -4161,15 +4161,15 @@
       </c>
       <c r="D26">
         <f>IFERROR(VLOOKUP(A26,MalRout2019!A:B,2,0), )</f>
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>24</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>576</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -4184,15 +4184,15 @@
       </c>
       <c r="D27">
         <f>IFERROR(VLOOKUP(A27,MalRout2019!A:B,2,0), )</f>
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>-22</v>
+        <v>8</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -4207,15 +4207,15 @@
       </c>
       <c r="D28">
         <f>IFERROR(VLOOKUP(A28,MalRout2019!A:B,2,0), )</f>
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>-33</v>
+        <v>21</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>1089</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4230,15 +4230,15 @@
       </c>
       <c r="D29">
         <f>IFERROR(VLOOKUP(A29,MalRout2019!A:B,2,0), )</f>
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>-19</v>
+        <v>9</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>361</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -4253,15 +4253,15 @@
       </c>
       <c r="D30">
         <f>IFERROR(VLOOKUP(A30,MalRout2019!A:B,2,0), )</f>
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>12</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -4276,15 +4276,15 @@
       </c>
       <c r="D31">
         <f>IFERROR(VLOOKUP(A31,MalRout2019!A:B,2,0), )</f>
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>-33</v>
+        <v>27</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>1089</v>
+        <v>729</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -4299,15 +4299,15 @@
       </c>
       <c r="D32">
         <f>IFERROR(VLOOKUP(A32,MalRout2019!A:B,2,0), )</f>
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>-32</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>784</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -4322,15 +4322,15 @@
       </c>
       <c r="D33">
         <f>IFERROR(VLOOKUP(A33,MalRout2019!A:B,2,0), )</f>
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>-24</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>576</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -4345,11 +4345,11 @@
       </c>
       <c r="D34">
         <f>IFERROR(VLOOKUP(A34,MalRout2019!A:B,2,0), )</f>
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
@@ -4368,15 +4368,15 @@
       </c>
       <c r="D35">
         <f>IFERROR(VLOOKUP(A35,MalRout2019!A:B,2,0), )</f>
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>-27</v>
+        <v>29</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>729</v>
+        <v>841</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -4391,15 +4391,15 @@
       </c>
       <c r="D36">
         <f>IFERROR(VLOOKUP(A36,MalRout2019!A:B,2,0), )</f>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>-9</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -4414,15 +4414,15 @@
       </c>
       <c r="D37">
         <f>IFERROR(VLOOKUP(A37,MalRout2019!A:B,2,0), )</f>
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>24</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>576</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -4437,15 +4437,15 @@
       </c>
       <c r="D38">
         <f>IFERROR(VLOOKUP(A38,MalRout2019!A:B,2,0), )</f>
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>-8</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -4460,15 +4460,15 @@
       </c>
       <c r="D39">
         <f>IFERROR(VLOOKUP(A39,MalRout2019!A:B,2,0), )</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -4483,15 +4483,15 @@
       </c>
       <c r="D40">
         <f>IFERROR(VLOOKUP(A40,MalRout2019!A:B,2,0), )</f>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -4506,15 +4506,15 @@
       </c>
       <c r="D41">
         <f>IFERROR(VLOOKUP(A41,MalRout2019!A:B,2,0), )</f>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -4529,15 +4529,15 @@
       </c>
       <c r="D42">
         <f>IFERROR(VLOOKUP(A42,MalRout2019!A:B,2,0), )</f>
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>-19</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>1225</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -4552,15 +4552,15 @@
       </c>
       <c r="D43">
         <f>IFERROR(VLOOKUP(A43,MalRout2019!A:B,2,0), )</f>
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>32</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -4598,15 +4598,15 @@
       </c>
       <c r="D45">
         <f>IFERROR(VLOOKUP(A45,MalRout2019!A:B,2,0), )</f>
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>-21</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>1849</v>
+        <v>441</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -4644,15 +4644,15 @@
       </c>
       <c r="D47">
         <f>IFERROR(VLOOKUP(A47,MalRout2019!A:B,2,0), )</f>
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>32</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -4667,15 +4667,15 @@
       </c>
       <c r="D48">
         <f>IFERROR(VLOOKUP(A48,MalRout2019!A:B,2,0), )</f>
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -4690,15 +4690,15 @@
       </c>
       <c r="D49">
         <f>IFERROR(VLOOKUP(A49,MalRout2019!A:B,2,0), )</f>
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>784</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -4713,15 +4713,15 @@
       </c>
       <c r="D50">
         <f>IFERROR(VLOOKUP(A50,MalRout2019!A:B,2,0), )</f>
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>38</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -4736,15 +4736,15 @@
       </c>
       <c r="D51">
         <f>IFERROR(VLOOKUP(A51,MalRout2019!A:B,2,0), )</f>
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>841</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="D52">
         <f>IFERROR(VLOOKUP(A52,MalRout2019!A:B,2,0), )</f>
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>676</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -4782,15 +4782,15 @@
       </c>
       <c r="D53">
         <f>IFERROR(VLOOKUP(A53,MalRout2019!A:B,2,0), )</f>
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -4805,15 +4805,15 @@
       </c>
       <c r="D54">
         <f>IFERROR(VLOOKUP(A54,MalRout2019!A:B,2,0), )</f>
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>961</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -4828,15 +4828,15 @@
       </c>
       <c r="D55">
         <f>IFERROR(VLOOKUP(A55,MalRout2019!A:B,2,0), )</f>
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -4851,15 +4851,15 @@
       </c>
       <c r="D56">
         <f>IFERROR(VLOOKUP(A56,MalRout2019!A:B,2,0), )</f>
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
-        <v>1369</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -4874,15 +4874,15 @@
       </c>
       <c r="D57">
         <f>IFERROR(VLOOKUP(A57,MalRout2019!A:B,2,0), )</f>
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>-6</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>2704</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -4897,15 +4897,15 @@
       </c>
       <c r="D58">
         <f>IFERROR(VLOOKUP(A58,MalRout2019!A:B,2,0), )</f>
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>961</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -4920,15 +4920,15 @@
       </c>
       <c r="D59">
         <f>IFERROR(VLOOKUP(A59,MalRout2019!A:B,2,0), )</f>
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -4943,15 +4943,15 @@
       </c>
       <c r="D60">
         <f>IFERROR(VLOOKUP(A60,MalRout2019!A:B,2,0), )</f>
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -4963,15 +4963,15 @@
       </c>
       <c r="D61">
         <f>IFERROR(VLOOKUP(A61,MalRout2019!A:B,2,0), )</f>
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>-37</v>
+        <v>-29</v>
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
-        <v>1369</v>
+        <v>841</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -4983,15 +4983,15 @@
       </c>
       <c r="D62">
         <f>IFERROR(VLOOKUP(A62,MalRout2019!A:B,2,0), )</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>-31</v>
+        <v>-35</v>
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
-        <v>961</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -5003,15 +5003,15 @@
       </c>
       <c r="D63">
         <f>IFERROR(VLOOKUP(A63,MalRout2019!A:B,2,0), )</f>
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-59</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -5023,15 +5023,15 @@
       </c>
       <c r="D64">
         <f>IFERROR(VLOOKUP(A64,MalRout2019!A:B,2,0), )</f>
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>-42</v>
+        <v>-24</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>1764</v>
+        <v>576</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -5043,15 +5043,15 @@
       </c>
       <c r="D65">
         <f>IFERROR(VLOOKUP(A65,MalRout2019!A:B,2,0), )</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>-36</v>
+        <v>-30</v>
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
-        <v>1296</v>
+        <v>900</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -5063,21 +5063,21 @@
       </c>
       <c r="D66">
         <f>IFERROR(VLOOKUP(A66,MalRout2019!A:B,2,0), )</f>
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>-59</v>
+        <v>-7</v>
       </c>
       <c r="F66">
         <f t="shared" si="1"/>
-        <v>3481</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F67">
         <f>SUM(F2:F66)</f>
-        <v>43805</v>
+        <v>53785</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -5089,7 +5089,7 @@
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F69">
         <f>1-((6*F67)/F68)</f>
-        <v>4.2722902097902082E-2</v>
+        <v>-0.17537150349650354</v>
       </c>
     </row>
   </sheetData>
@@ -5146,15 +5146,15 @@
       </c>
       <c r="D2">
         <f>IFERROR(VLOOKUP(A2,MalRout2019!A:B,2,0), )</f>
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <f>C2-D2</f>
-        <v>-11</v>
+        <v>-53</v>
       </c>
       <c r="F2">
         <f>E2^2</f>
-        <v>121</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5169,15 +5169,15 @@
       </c>
       <c r="D3">
         <f>IFERROR(VLOOKUP(A3,MalRout2019!A:B,2,0), )</f>
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">C3-D3</f>
-        <v>-13</v>
+        <v>-49</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="1">E3^2</f>
-        <v>169</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5192,15 +5192,15 @@
       </c>
       <c r="D4">
         <f>IFERROR(VLOOKUP(A4,MalRout2019!A:B,2,0), )</f>
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-50</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5215,15 +5215,15 @@
       </c>
       <c r="D5">
         <f>IFERROR(VLOOKUP(A5,MalRout2019!A:B,2,0), )</f>
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>-46</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5238,15 +5238,15 @@
       </c>
       <c r="D6">
         <f>IFERROR(VLOOKUP(A6,MalRout2019!A:B,2,0), )</f>
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>-52</v>
+        <v>-4</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>2704</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5261,15 +5261,15 @@
       </c>
       <c r="D7">
         <f>IFERROR(VLOOKUP(A7,MalRout2019!A:B,2,0), )</f>
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-55</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5284,15 +5284,15 @@
       </c>
       <c r="D8">
         <f>IFERROR(VLOOKUP(A8,MalRout2019!A:B,2,0), )</f>
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-45</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5307,15 +5307,15 @@
       </c>
       <c r="D9">
         <f>IFERROR(VLOOKUP(A9,MalRout2019!A:B,2,0), )</f>
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>-54</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>2916</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5330,15 +5330,15 @@
       </c>
       <c r="D10">
         <f>IFERROR(VLOOKUP(A10,MalRout2019!A:B,2,0), )</f>
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>-37</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -5353,15 +5353,15 @@
       </c>
       <c r="D11">
         <f>IFERROR(VLOOKUP(A11,MalRout2019!A:B,2,0), )</f>
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-39</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5376,15 +5376,15 @@
       </c>
       <c r="D12">
         <f>IFERROR(VLOOKUP(A12,MalRout2019!A:B,2,0), )</f>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>-16</v>
+        <v>-28</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>784</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5399,15 +5399,15 @@
       </c>
       <c r="D13">
         <f>IFERROR(VLOOKUP(A13,MalRout2019!A:B,2,0), )</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>-22</v>
+        <v>-20</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5422,15 +5422,15 @@
       </c>
       <c r="D14">
         <f>IFERROR(VLOOKUP(A14,MalRout2019!A:B,2,0), )</f>
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5445,15 +5445,15 @@
       </c>
       <c r="D15">
         <f>IFERROR(VLOOKUP(A15,MalRout2019!A:B,2,0), )</f>
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>-50</v>
+        <v>12</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5468,15 +5468,15 @@
       </c>
       <c r="D16">
         <f>IFERROR(VLOOKUP(A16,MalRout2019!A:B,2,0), )</f>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-16</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5491,15 +5491,15 @@
       </c>
       <c r="D17">
         <f>IFERROR(VLOOKUP(A17,MalRout2019!A:B,2,0), )</f>
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-25</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>625</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5514,15 +5514,15 @@
       </c>
       <c r="D18">
         <f>IFERROR(VLOOKUP(A18,MalRout2019!A:B,2,0), )</f>
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>-47</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5537,15 +5537,15 @@
       </c>
       <c r="D19">
         <f>IFERROR(VLOOKUP(A19,MalRout2019!A:B,2,0), )</f>
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>-5</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>625</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5560,15 +5560,15 @@
       </c>
       <c r="D20">
         <f>IFERROR(VLOOKUP(A20,MalRout2019!A:B,2,0), )</f>
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-24</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5583,15 +5583,15 @@
       </c>
       <c r="D21">
         <f>IFERROR(VLOOKUP(A21,MalRout2019!A:B,2,0), )</f>
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>-35</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5606,15 +5606,15 @@
       </c>
       <c r="D22">
         <f>IFERROR(VLOOKUP(A22,MalRout2019!A:B,2,0), )</f>
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>-17</v>
+        <v>-7</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>289</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5629,15 +5629,15 @@
       </c>
       <c r="D23">
         <f>IFERROR(VLOOKUP(A23,MalRout2019!A:B,2,0), )</f>
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>-26</v>
+        <v>4</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>676</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5652,15 +5652,15 @@
       </c>
       <c r="D24">
         <f>IFERROR(VLOOKUP(A24,MalRout2019!A:B,2,0), )</f>
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>-42</v>
+        <v>22</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>1764</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5675,15 +5675,15 @@
       </c>
       <c r="D25">
         <f>IFERROR(VLOOKUP(A25,MalRout2019!A:B,2,0), )</f>
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>-33</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5698,15 +5698,15 @@
       </c>
       <c r="D26">
         <f>IFERROR(VLOOKUP(A26,MalRout2019!A:B,2,0), )</f>
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>-24</v>
+        <v>8</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>576</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5721,15 +5721,15 @@
       </c>
       <c r="D27">
         <f>IFERROR(VLOOKUP(A27,MalRout2019!A:B,2,0), )</f>
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>-21</v>
+        <v>7</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5744,15 +5744,15 @@
       </c>
       <c r="D28">
         <f>IFERROR(VLOOKUP(A28,MalRout2019!A:B,2,0), )</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="D29">
         <f>IFERROR(VLOOKUP(A29,MalRout2019!A:B,2,0), )</f>
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>-33</v>
+        <v>23</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>1089</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -5790,15 +5790,15 @@
       </c>
       <c r="D30">
         <f>IFERROR(VLOOKUP(A30,MalRout2019!A:B,2,0), )</f>
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>-31</v>
+        <v>23</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>961</v>
+        <v>529</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -5813,15 +5813,15 @@
       </c>
       <c r="D31">
         <f>IFERROR(VLOOKUP(A31,MalRout2019!A:B,2,0), )</f>
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>-26</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>676</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5836,15 +5836,15 @@
       </c>
       <c r="D32">
         <f>IFERROR(VLOOKUP(A32,MalRout2019!A:B,2,0), )</f>
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>-27</v>
+        <v>23</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>729</v>
+        <v>529</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -5859,15 +5859,15 @@
       </c>
       <c r="D33">
         <f>IFERROR(VLOOKUP(A33,MalRout2019!A:B,2,0), )</f>
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>-26</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>576</v>
+        <v>676</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -5882,11 +5882,11 @@
       </c>
       <c r="D34">
         <f>IFERROR(VLOOKUP(A34,MalRout2019!A:B,2,0), )</f>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
@@ -5905,15 +5905,15 @@
       </c>
       <c r="D35">
         <f>IFERROR(VLOOKUP(A35,MalRout2019!A:B,2,0), )</f>
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>-29</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>961</v>
+        <v>841</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5928,15 +5928,15 @@
       </c>
       <c r="D36">
         <f>IFERROR(VLOOKUP(A36,MalRout2019!A:B,2,0), )</f>
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>-28</v>
+        <v>32</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>784</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5951,15 +5951,15 @@
       </c>
       <c r="D37">
         <f>IFERROR(VLOOKUP(A37,MalRout2019!A:B,2,0), )</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -5974,15 +5974,15 @@
       </c>
       <c r="D38">
         <f>IFERROR(VLOOKUP(A38,MalRout2019!A:B,2,0), )</f>
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>-17</v>
+        <v>25</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>289</v>
+        <v>625</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -5997,15 +5997,15 @@
       </c>
       <c r="D39">
         <f>IFERROR(VLOOKUP(A39,MalRout2019!A:B,2,0), )</f>
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>-7</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>289</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -6043,15 +6043,15 @@
       </c>
       <c r="D41">
         <f>IFERROR(VLOOKUP(A41,MalRout2019!A:B,2,0), )</f>
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>900</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -6066,15 +6066,15 @@
       </c>
       <c r="D42">
         <f>IFERROR(VLOOKUP(A42,MalRout2019!A:B,2,0), )</f>
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>21</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>441</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -6089,15 +6089,15 @@
       </c>
       <c r="D43">
         <f>IFERROR(VLOOKUP(A43,MalRout2019!A:B,2,0), )</f>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -6112,15 +6112,15 @@
       </c>
       <c r="D44">
         <f>IFERROR(VLOOKUP(A44,MalRout2019!A:B,2,0), )</f>
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>-17</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
-        <v>1369</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6135,15 +6135,15 @@
       </c>
       <c r="D45">
         <f>IFERROR(VLOOKUP(A45,MalRout2019!A:B,2,0), )</f>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -6158,15 +6158,15 @@
       </c>
       <c r="D46">
         <f>IFERROR(VLOOKUP(A46,MalRout2019!A:B,2,0), )</f>
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -6204,15 +6204,15 @@
       </c>
       <c r="D48">
         <f>IFERROR(VLOOKUP(A48,MalRout2019!A:B,2,0), )</f>
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -6227,15 +6227,15 @@
       </c>
       <c r="D49">
         <f>IFERROR(VLOOKUP(A49,MalRout2019!A:B,2,0), )</f>
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>-17</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
-        <v>2209</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -6250,15 +6250,15 @@
       </c>
       <c r="D50">
         <f>IFERROR(VLOOKUP(A50,MalRout2019!A:B,2,0), )</f>
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>35</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -6273,15 +6273,15 @@
       </c>
       <c r="D51">
         <f>IFERROR(VLOOKUP(A51,MalRout2019!A:B,2,0), )</f>
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>39</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6296,15 +6296,15 @@
       </c>
       <c r="D52">
         <f>IFERROR(VLOOKUP(A52,MalRout2019!A:B,2,0), )</f>
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>900</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -6319,15 +6319,15 @@
       </c>
       <c r="D53">
         <f>IFERROR(VLOOKUP(A53,MalRout2019!A:B,2,0), )</f>
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -6342,15 +6342,15 @@
       </c>
       <c r="D54">
         <f>IFERROR(VLOOKUP(A54,MalRout2019!A:B,2,0), )</f>
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -6365,15 +6365,15 @@
       </c>
       <c r="D55">
         <f>IFERROR(VLOOKUP(A55,MalRout2019!A:B,2,0), )</f>
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>841</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -6388,15 +6388,15 @@
       </c>
       <c r="D56">
         <f>IFERROR(VLOOKUP(A56,MalRout2019!A:B,2,0), )</f>
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -6411,15 +6411,15 @@
       </c>
       <c r="D57">
         <f>IFERROR(VLOOKUP(A57,MalRout2019!A:B,2,0), )</f>
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>1444</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -6434,15 +6434,15 @@
       </c>
       <c r="D58">
         <f>IFERROR(VLOOKUP(A58,MalRout2019!A:B,2,0), )</f>
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>-5</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>2809</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -6457,15 +6457,15 @@
       </c>
       <c r="D59">
         <f>IFERROR(VLOOKUP(A59,MalRout2019!A:B,2,0), )</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>784</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -6480,15 +6480,15 @@
       </c>
       <c r="D60">
         <f>IFERROR(VLOOKUP(A60,MalRout2019!A:B,2,0), )</f>
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>1089</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -6503,15 +6503,15 @@
       </c>
       <c r="D61">
         <f>IFERROR(VLOOKUP(A61,MalRout2019!A:B,2,0), )</f>
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -6526,15 +6526,15 @@
       </c>
       <c r="D62">
         <f>IFERROR(VLOOKUP(A62,MalRout2019!A:B,2,0), )</f>
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
-        <v>1764</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -6546,15 +6546,15 @@
       </c>
       <c r="D63">
         <f>IFERROR(VLOOKUP(A63,MalRout2019!A:B,2,0), )</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>-31</v>
+        <v>-35</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>961</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -6566,15 +6566,15 @@
       </c>
       <c r="D64">
         <f>IFERROR(VLOOKUP(A64,MalRout2019!A:B,2,0), )</f>
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-59</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -6586,15 +6586,15 @@
       </c>
       <c r="D65">
         <f>IFERROR(VLOOKUP(A65,MalRout2019!A:B,2,0), )</f>
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>-42</v>
+        <v>-24</v>
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
-        <v>1764</v>
+        <v>576</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -6606,21 +6606,21 @@
       </c>
       <c r="D66">
         <f>IFERROR(VLOOKUP(A66,MalRout2019!A:B,2,0), )</f>
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>-59</v>
+        <v>-7</v>
       </c>
       <c r="F66">
         <f t="shared" si="1"/>
-        <v>3481</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F67">
         <f>SUM(F2:F66)</f>
-        <v>44224</v>
+        <v>52432</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -6632,7 +6632,7 @@
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F69">
         <f>1-((6*F67)/F68)</f>
-        <v>3.3566433566433518E-2</v>
+        <v>-0.14580419580419579</v>
       </c>
     </row>
   </sheetData>
@@ -6689,15 +6689,15 @@
       </c>
       <c r="D2">
         <f>IFERROR(VLOOKUP(A2,MalRout2019!A:B,2,0), )</f>
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <f>C2-D2</f>
-        <v>-11</v>
+        <v>-53</v>
       </c>
       <c r="F2">
         <f>E2^2</f>
-        <v>121</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6712,15 +6712,15 @@
       </c>
       <c r="D3">
         <f>IFERROR(VLOOKUP(A3,MalRout2019!A:B,2,0), )</f>
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">C3-D3</f>
-        <v>-13</v>
+        <v>-49</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="1">E3^2</f>
-        <v>169</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6735,15 +6735,15 @@
       </c>
       <c r="D4">
         <f>IFERROR(VLOOKUP(A4,MalRout2019!A:B,2,0), )</f>
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>-54</v>
+        <v>-6</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>2916</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6758,15 +6758,15 @@
       </c>
       <c r="D5">
         <f>IFERROR(VLOOKUP(A5,MalRout2019!A:B,2,0), )</f>
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-49</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6781,15 +6781,15 @@
       </c>
       <c r="D6">
         <f>IFERROR(VLOOKUP(A6,MalRout2019!A:B,2,0), )</f>
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>-57</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>3249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6804,15 +6804,15 @@
       </c>
       <c r="D7">
         <f>IFERROR(VLOOKUP(A7,MalRout2019!A:B,2,0), )</f>
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-44</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6827,15 +6827,15 @@
       </c>
       <c r="D8">
         <f>IFERROR(VLOOKUP(A8,MalRout2019!A:B,2,0), )</f>
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>-54</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6850,15 +6850,15 @@
       </c>
       <c r="D9">
         <f>IFERROR(VLOOKUP(A9,MalRout2019!A:B,2,0), )</f>
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>-38</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6873,15 +6873,15 @@
       </c>
       <c r="D10">
         <f>IFERROR(VLOOKUP(A10,MalRout2019!A:B,2,0), )</f>
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>-33</v>
+        <v>-15</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>1089</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6896,15 +6896,15 @@
       </c>
       <c r="D11">
         <f>IFERROR(VLOOKUP(A11,MalRout2019!A:B,2,0), )</f>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>-17</v>
+        <v>-29</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>289</v>
+        <v>841</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -6919,15 +6919,15 @@
       </c>
       <c r="D12">
         <f>IFERROR(VLOOKUP(A12,MalRout2019!A:B,2,0), )</f>
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>-38</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6942,15 +6942,15 @@
       </c>
       <c r="D13">
         <f>IFERROR(VLOOKUP(A13,MalRout2019!A:B,2,0), )</f>
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-40</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6965,15 +6965,15 @@
       </c>
       <c r="D14">
         <f>IFERROR(VLOOKUP(A14,MalRout2019!A:B,2,0), )</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>-21</v>
+        <v>-19</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6988,15 +6988,15 @@
       </c>
       <c r="D15">
         <f>IFERROR(VLOOKUP(A15,MalRout2019!A:B,2,0), )</f>
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>-39</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>1521</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7011,15 +7011,15 @@
       </c>
       <c r="D16">
         <f>IFERROR(VLOOKUP(A16,MalRout2019!A:B,2,0), )</f>
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-26</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>676</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -7034,15 +7034,15 @@
       </c>
       <c r="D17">
         <f>IFERROR(VLOOKUP(A17,MalRout2019!A:B,2,0), )</f>
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>-27</v>
+        <v>-7</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>729</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -7057,15 +7057,15 @@
       </c>
       <c r="D18">
         <f>IFERROR(VLOOKUP(A18,MalRout2019!A:B,2,0), )</f>
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>-47</v>
+        <v>15</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>2209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -7080,15 +7080,15 @@
       </c>
       <c r="D19">
         <f>IFERROR(VLOOKUP(A19,MalRout2019!A:B,2,0), )</f>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-26</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>676</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7103,15 +7103,15 @@
       </c>
       <c r="D20">
         <f>IFERROR(VLOOKUP(A20,MalRout2019!A:B,2,0), )</f>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-18</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -7126,15 +7126,15 @@
       </c>
       <c r="D21">
         <f>IFERROR(VLOOKUP(A21,MalRout2019!A:B,2,0), )</f>
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>-43</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>289</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -7149,15 +7149,15 @@
       </c>
       <c r="D22">
         <f>IFERROR(VLOOKUP(A22,MalRout2019!A:B,2,0), )</f>
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>-37</v>
+        <v>13</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>1369</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -7172,15 +7172,15 @@
       </c>
       <c r="D23">
         <f>IFERROR(VLOOKUP(A23,MalRout2019!A:B,2,0), )</f>
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>-35</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -7195,15 +7195,15 @@
       </c>
       <c r="D24">
         <f>IFERROR(VLOOKUP(A24,MalRout2019!A:B,2,0), )</f>
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -7218,15 +7218,15 @@
       </c>
       <c r="D25">
         <f>IFERROR(VLOOKUP(A25,MalRout2019!A:B,2,0), )</f>
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>-23</v>
+        <v>5</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>529</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -7241,15 +7241,15 @@
       </c>
       <c r="D26">
         <f>IFERROR(VLOOKUP(A26,MalRout2019!A:B,2,0), )</f>
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>-38</v>
+        <v>22</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>1444</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -7264,15 +7264,15 @@
       </c>
       <c r="D27">
         <f>IFERROR(VLOOKUP(A27,MalRout2019!A:B,2,0), )</f>
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>-35</v>
+        <v>21</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>1225</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -7287,15 +7287,15 @@
       </c>
       <c r="D28">
         <f>IFERROR(VLOOKUP(A28,MalRout2019!A:B,2,0), )</f>
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>-27</v>
+        <v>15</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>729</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -7310,15 +7310,15 @@
       </c>
       <c r="D29">
         <f>IFERROR(VLOOKUP(A29,MalRout2019!A:B,2,0), )</f>
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>10</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -7333,15 +7333,15 @@
       </c>
       <c r="D30">
         <f>IFERROR(VLOOKUP(A30,MalRout2019!A:B,2,0), )</f>
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>-26</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>676</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -7356,15 +7356,15 @@
       </c>
       <c r="D31">
         <f>IFERROR(VLOOKUP(A31,MalRout2019!A:B,2,0), )</f>
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>24</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -7379,15 +7379,15 @@
       </c>
       <c r="D32">
         <f>IFERROR(VLOOKUP(A32,MalRout2019!A:B,2,0), )</f>
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>14</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -7402,15 +7402,15 @@
       </c>
       <c r="D33">
         <f>IFERROR(VLOOKUP(A33,MalRout2019!A:B,2,0), )</f>
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>12</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -7425,11 +7425,11 @@
       </c>
       <c r="D34">
         <f>IFERROR(VLOOKUP(A34,MalRout2019!A:B,2,0), )</f>
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>-23</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
@@ -7448,15 +7448,15 @@
       </c>
       <c r="D35">
         <f>IFERROR(VLOOKUP(A35,MalRout2019!A:B,2,0), )</f>
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>-31</v>
+        <v>33</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>961</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -7494,15 +7494,15 @@
       </c>
       <c r="D37">
         <f>IFERROR(VLOOKUP(A37,MalRout2019!A:B,2,0), )</f>
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>-9</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -7517,15 +7517,15 @@
       </c>
       <c r="D38">
         <f>IFERROR(VLOOKUP(A38,MalRout2019!A:B,2,0), )</f>
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -7540,15 +7540,15 @@
       </c>
       <c r="D39">
         <f>IFERROR(VLOOKUP(A39,MalRout2019!A:B,2,0), )</f>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>-4</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -7563,15 +7563,15 @@
       </c>
       <c r="D40">
         <f>IFERROR(VLOOKUP(A40,MalRout2019!A:B,2,0), )</f>
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>-25</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>1369</v>
+        <v>625</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -7586,15 +7586,15 @@
       </c>
       <c r="D41">
         <f>IFERROR(VLOOKUP(A41,MalRout2019!A:B,2,0), )</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -7609,15 +7609,15 @@
       </c>
       <c r="D42">
         <f>IFERROR(VLOOKUP(A42,MalRout2019!A:B,2,0), )</f>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -7632,15 +7632,15 @@
       </c>
       <c r="D43">
         <f>IFERROR(VLOOKUP(A43,MalRout2019!A:B,2,0), )</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -7655,15 +7655,15 @@
       </c>
       <c r="D44">
         <f>IFERROR(VLOOKUP(A44,MalRout2019!A:B,2,0), )</f>
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>29</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>841</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -7678,15 +7678,15 @@
       </c>
       <c r="D45">
         <f>IFERROR(VLOOKUP(A45,MalRout2019!A:B,2,0), )</f>
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>-14</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>1296</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -7701,15 +7701,15 @@
       </c>
       <c r="D46">
         <f>IFERROR(VLOOKUP(A46,MalRout2019!A:B,2,0), )</f>
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>34</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -7724,15 +7724,15 @@
       </c>
       <c r="D47">
         <f>IFERROR(VLOOKUP(A47,MalRout2019!A:B,2,0), )</f>
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>529</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -7747,15 +7747,15 @@
       </c>
       <c r="D48">
         <f>IFERROR(VLOOKUP(A48,MalRout2019!A:B,2,0), )</f>
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>37</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -7770,15 +7770,15 @@
       </c>
       <c r="D49">
         <f>IFERROR(VLOOKUP(A49,MalRout2019!A:B,2,0), )</f>
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -7793,15 +7793,15 @@
       </c>
       <c r="D50">
         <f>IFERROR(VLOOKUP(A50,MalRout2019!A:B,2,0), )</f>
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>576</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -7816,15 +7816,15 @@
       </c>
       <c r="D51">
         <f>IFERROR(VLOOKUP(A51,MalRout2019!A:B,2,0), )</f>
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -7862,15 +7862,15 @@
       </c>
       <c r="D53">
         <f>IFERROR(VLOOKUP(A53,MalRout2019!A:B,2,0), )</f>
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>-8</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>2116</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -7885,15 +7885,15 @@
       </c>
       <c r="D54">
         <f>IFERROR(VLOOKUP(A54,MalRout2019!A:B,2,0), )</f>
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>-12</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>2704</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -7908,15 +7908,15 @@
       </c>
       <c r="D55">
         <f>IFERROR(VLOOKUP(A55,MalRout2019!A:B,2,0), )</f>
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>-8</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -7931,15 +7931,15 @@
       </c>
       <c r="D56">
         <f>IFERROR(VLOOKUP(A56,MalRout2019!A:B,2,0), )</f>
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -7954,15 +7954,15 @@
       </c>
       <c r="D57">
         <f>IFERROR(VLOOKUP(A57,MalRout2019!A:B,2,0), )</f>
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -7977,15 +7977,15 @@
       </c>
       <c r="D58">
         <f>IFERROR(VLOOKUP(A58,MalRout2019!A:B,2,0), )</f>
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>50</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -8000,15 +8000,15 @@
       </c>
       <c r="D59">
         <f>IFERROR(VLOOKUP(A59,MalRout2019!A:B,2,0), )</f>
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -8023,15 +8023,15 @@
       </c>
       <c r="D60">
         <f>IFERROR(VLOOKUP(A60,MalRout2019!A:B,2,0), )</f>
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>1681</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -8046,15 +8046,15 @@
       </c>
       <c r="D61">
         <f>IFERROR(VLOOKUP(A61,MalRout2019!A:B,2,0), )</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
-        <v>576</v>
+        <v>900</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -8069,15 +8069,15 @@
       </c>
       <c r="D62">
         <f>IFERROR(VLOOKUP(A62,MalRout2019!A:B,2,0), )</f>
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
-        <v>1225</v>
+        <v>441</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -8092,15 +8092,15 @@
       </c>
       <c r="D63">
         <f>IFERROR(VLOOKUP(A63,MalRout2019!A:B,2,0), )</f>
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -8115,15 +8115,15 @@
       </c>
       <c r="D64">
         <f>IFERROR(VLOOKUP(A64,MalRout2019!A:B,2,0), )</f>
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>1936</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -8135,15 +8135,15 @@
       </c>
       <c r="D65">
         <f>IFERROR(VLOOKUP(A65,MalRout2019!A:B,2,0), )</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>-31</v>
+        <v>-35</v>
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
-        <v>961</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -8155,21 +8155,21 @@
       </c>
       <c r="D66">
         <f>IFERROR(VLOOKUP(A66,MalRout2019!A:B,2,0), )</f>
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-59</v>
       </c>
       <c r="F66">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F67">
         <f>SUM(F2:F66)</f>
-        <v>44451</v>
+        <v>51991</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -8181,7 +8181,7 @@
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F69">
         <f>1-((6*F67)/F68)</f>
-        <v>2.8605769230769185E-2</v>
+        <v>-0.136166958041958</v>
       </c>
     </row>
   </sheetData>
@@ -8196,7 +8196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A68DFB-8B47-450C-9DB6-0E1F407E96C6}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
@@ -8238,15 +8238,15 @@
       </c>
       <c r="D2">
         <f>IFERROR(VLOOKUP(A2,MalRout2019!A:B,2,0), )</f>
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <f>C2-D2</f>
-        <v>-61</v>
+        <v>-3</v>
       </c>
       <c r="F2">
         <f>E2^2</f>
-        <v>3721</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8261,15 +8261,15 @@
       </c>
       <c r="D3">
         <f>IFERROR(VLOOKUP(A3,MalRout2019!A:B,2,0), )</f>
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">C3-D3</f>
-        <v>-55</v>
+        <v>-7</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="1">E3^2</f>
-        <v>3025</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8284,15 +8284,15 @@
       </c>
       <c r="D4">
         <f>IFERROR(VLOOKUP(A4,MalRout2019!A:B,2,0), )</f>
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>-48</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8307,15 +8307,15 @@
       </c>
       <c r="D5">
         <f>IFERROR(VLOOKUP(A5,MalRout2019!A:B,2,0), )</f>
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>-46</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8330,15 +8330,15 @@
       </c>
       <c r="D6">
         <f>IFERROR(VLOOKUP(A6,MalRout2019!A:B,2,0), )</f>
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-49</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8353,15 +8353,15 @@
       </c>
       <c r="D7">
         <f>IFERROR(VLOOKUP(A7,MalRout2019!A:B,2,0), )</f>
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-55</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8376,15 +8376,15 @@
       </c>
       <c r="D8">
         <f>IFERROR(VLOOKUP(A8,MalRout2019!A:B,2,0), )</f>
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>-46</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8399,15 +8399,15 @@
       </c>
       <c r="D9">
         <f>IFERROR(VLOOKUP(A9,MalRout2019!A:B,2,0), )</f>
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-41</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8422,15 +8422,15 @@
       </c>
       <c r="D10">
         <f>IFERROR(VLOOKUP(A10,MalRout2019!A:B,2,0), )</f>
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>-37</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8445,15 +8445,15 @@
       </c>
       <c r="D11">
         <f>IFERROR(VLOOKUP(A11,MalRout2019!A:B,2,0), )</f>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>-17</v>
+        <v>-29</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>289</v>
+        <v>841</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8468,15 +8468,15 @@
       </c>
       <c r="D12">
         <f>IFERROR(VLOOKUP(A12,MalRout2019!A:B,2,0), )</f>
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>-31</v>
+        <v>-13</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>961</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8491,15 +8491,15 @@
       </c>
       <c r="D13">
         <f>IFERROR(VLOOKUP(A13,MalRout2019!A:B,2,0), )</f>
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>-29</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>841</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8514,15 +8514,15 @@
       </c>
       <c r="D14">
         <f>IFERROR(VLOOKUP(A14,MalRout2019!A:B,2,0), )</f>
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>-50</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8537,15 +8537,15 @@
       </c>
       <c r="D15">
         <f>IFERROR(VLOOKUP(A15,MalRout2019!A:B,2,0), )</f>
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>-39</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>1521</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8560,15 +8560,15 @@
       </c>
       <c r="D16">
         <f>IFERROR(VLOOKUP(A16,MalRout2019!A:B,2,0), )</f>
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>-28</v>
+        <v>-8</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>784</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8583,15 +8583,15 @@
       </c>
       <c r="D17">
         <f>IFERROR(VLOOKUP(A17,MalRout2019!A:B,2,0), )</f>
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>-44</v>
+        <v>10</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>1936</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8606,15 +8606,15 @@
       </c>
       <c r="D18">
         <f>IFERROR(VLOOKUP(A18,MalRout2019!A:B,2,0), )</f>
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>-41</v>
+        <v>9</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>1681</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8629,15 +8629,15 @@
       </c>
       <c r="D19">
         <f>IFERROR(VLOOKUP(A19,MalRout2019!A:B,2,0), )</f>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>-19</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8652,15 +8652,15 @@
       </c>
       <c r="D20">
         <f>IFERROR(VLOOKUP(A20,MalRout2019!A:B,2,0), )</f>
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>-38</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8675,15 +8675,15 @@
       </c>
       <c r="D21">
         <f>IFERROR(VLOOKUP(A21,MalRout2019!A:B,2,0), )</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8698,15 +8698,15 @@
       </c>
       <c r="D22">
         <f>IFERROR(VLOOKUP(A22,MalRout2019!A:B,2,0), )</f>
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>-6</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8744,15 +8744,15 @@
       </c>
       <c r="D24">
         <f>IFERROR(VLOOKUP(A24,MalRout2019!A:B,2,0), )</f>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-21</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -8767,15 +8767,15 @@
       </c>
       <c r="D25">
         <f>IFERROR(VLOOKUP(A25,MalRout2019!A:B,2,0), )</f>
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>-37</v>
+        <v>19</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>1369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8790,15 +8790,15 @@
       </c>
       <c r="D26">
         <f>IFERROR(VLOOKUP(A26,MalRout2019!A:B,2,0), )</f>
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>-22</v>
+        <v>6</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -8813,15 +8813,15 @@
       </c>
       <c r="D27">
         <f>IFERROR(VLOOKUP(A27,MalRout2019!A:B,2,0), )</f>
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>-22</v>
+        <v>8</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8836,15 +8836,15 @@
       </c>
       <c r="D28">
         <f>IFERROR(VLOOKUP(A28,MalRout2019!A:B,2,0), )</f>
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>-22</v>
+        <v>10</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -8859,15 +8859,15 @@
       </c>
       <c r="D29">
         <f>IFERROR(VLOOKUP(A29,MalRout2019!A:B,2,0), )</f>
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>8</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -8882,15 +8882,15 @@
       </c>
       <c r="D30">
         <f>IFERROR(VLOOKUP(A30,MalRout2019!A:B,2,0), )</f>
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>-23</v>
+        <v>15</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>529</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8905,15 +8905,15 @@
       </c>
       <c r="D31">
         <f>IFERROR(VLOOKUP(A31,MalRout2019!A:B,2,0), )</f>
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>-34</v>
+        <v>28</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>1156</v>
+        <v>784</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -8928,15 +8928,15 @@
       </c>
       <c r="D32">
         <f>IFERROR(VLOOKUP(A32,MalRout2019!A:B,2,0), )</f>
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>-23</v>
+        <v>19</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>529</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -8951,15 +8951,15 @@
       </c>
       <c r="D33">
         <f>IFERROR(VLOOKUP(A33,MalRout2019!A:B,2,0), )</f>
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -8974,11 +8974,11 @@
       </c>
       <c r="D34">
         <f>IFERROR(VLOOKUP(A34,MalRout2019!A:B,2,0), )</f>
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>-22</v>
+        <v>22</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
@@ -8997,15 +8997,15 @@
       </c>
       <c r="D35">
         <f>IFERROR(VLOOKUP(A35,MalRout2019!A:B,2,0), )</f>
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>-31</v>
+        <v>33</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>961</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -9020,15 +9020,15 @@
       </c>
       <c r="D36">
         <f>IFERROR(VLOOKUP(A36,MalRout2019!A:B,2,0), )</f>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>-7</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -9043,15 +9043,15 @@
       </c>
       <c r="D37">
         <f>IFERROR(VLOOKUP(A37,MalRout2019!A:B,2,0), )</f>
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>-23</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>841</v>
+        <v>529</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -9066,15 +9066,15 @@
       </c>
       <c r="D38">
         <f>IFERROR(VLOOKUP(A38,MalRout2019!A:B,2,0), )</f>
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>-15</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>529</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -9089,15 +9089,15 @@
       </c>
       <c r="D39">
         <f>IFERROR(VLOOKUP(A39,MalRout2019!A:B,2,0), )</f>
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>-17</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>729</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -9112,15 +9112,15 @@
       </c>
       <c r="D40">
         <f>IFERROR(VLOOKUP(A40,MalRout2019!A:B,2,0), )</f>
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>-24</v>
+        <v>36</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>576</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -9135,15 +9135,15 @@
       </c>
       <c r="D41">
         <f>IFERROR(VLOOKUP(A41,MalRout2019!A:B,2,0), )</f>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -9158,15 +9158,15 @@
       </c>
       <c r="D42">
         <f>IFERROR(VLOOKUP(A42,MalRout2019!A:B,2,0), )</f>
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -9181,15 +9181,15 @@
       </c>
       <c r="D43">
         <f>IFERROR(VLOOKUP(A43,MalRout2019!A:B,2,0), )</f>
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -9204,15 +9204,15 @@
       </c>
       <c r="D44">
         <f>IFERROR(VLOOKUP(A44,MalRout2019!A:B,2,0), )</f>
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>28</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>784</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -9227,15 +9227,15 @@
       </c>
       <c r="D45">
         <f>IFERROR(VLOOKUP(A45,MalRout2019!A:B,2,0), )</f>
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>-14</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>1296</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -9250,15 +9250,15 @@
       </c>
       <c r="D46">
         <f>IFERROR(VLOOKUP(A46,MalRout2019!A:B,2,0), )</f>
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>-17</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>1681</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -9273,15 +9273,15 @@
       </c>
       <c r="D47">
         <f>IFERROR(VLOOKUP(A47,MalRout2019!A:B,2,0), )</f>
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -9296,15 +9296,15 @@
       </c>
       <c r="D48">
         <f>IFERROR(VLOOKUP(A48,MalRout2019!A:B,2,0), )</f>
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>-9</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>1369</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -9319,15 +9319,15 @@
       </c>
       <c r="D49">
         <f>IFERROR(VLOOKUP(A49,MalRout2019!A:B,2,0), )</f>
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
-        <v>729</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -9342,15 +9342,15 @@
       </c>
       <c r="D50">
         <f>IFERROR(VLOOKUP(A50,MalRout2019!A:B,2,0), )</f>
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>-15</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>2209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -9365,15 +9365,15 @@
       </c>
       <c r="D51">
         <f>IFERROR(VLOOKUP(A51,MalRout2019!A:B,2,0), )</f>
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>576</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -9388,15 +9388,15 @@
       </c>
       <c r="D52">
         <f>IFERROR(VLOOKUP(A52,MalRout2019!A:B,2,0), )</f>
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>484</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -9411,15 +9411,15 @@
       </c>
       <c r="D53">
         <f>IFERROR(VLOOKUP(A53,MalRout2019!A:B,2,0), )</f>
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>42</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -9434,15 +9434,15 @@
       </c>
       <c r="D54">
         <f>IFERROR(VLOOKUP(A54,MalRout2019!A:B,2,0), )</f>
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>-7</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>2209</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -9457,15 +9457,15 @@
       </c>
       <c r="D55">
         <f>IFERROR(VLOOKUP(A55,MalRout2019!A:B,2,0), )</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -9480,15 +9480,15 @@
       </c>
       <c r="D56">
         <f>IFERROR(VLOOKUP(A56,MalRout2019!A:B,2,0), )</f>
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -9503,15 +9503,15 @@
       </c>
       <c r="D57">
         <f>IFERROR(VLOOKUP(A57,MalRout2019!A:B,2,0), )</f>
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -9526,15 +9526,15 @@
       </c>
       <c r="D58">
         <f>IFERROR(VLOOKUP(A58,MalRout2019!A:B,2,0), )</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>729</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -9549,15 +9549,15 @@
       </c>
       <c r="D59">
         <f>IFERROR(VLOOKUP(A59,MalRout2019!A:B,2,0), )</f>
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>1225</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -9572,15 +9572,15 @@
       </c>
       <c r="D60">
         <f>IFERROR(VLOOKUP(A60,MalRout2019!A:B,2,0), )</f>
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>-6</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>3364</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -9595,15 +9595,15 @@
       </c>
       <c r="D61">
         <f>IFERROR(VLOOKUP(A61,MalRout2019!A:B,2,0), )</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
-        <v>1024</v>
+        <v>484</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -9641,15 +9641,15 @@
       </c>
       <c r="D63">
         <f>IFERROR(VLOOKUP(A63,MalRout2019!A:B,2,0), )</f>
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>1936</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -9664,15 +9664,15 @@
       </c>
       <c r="D64">
         <f>IFERROR(VLOOKUP(A64,MalRout2019!A:B,2,0), )</f>
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>1936</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -9687,15 +9687,15 @@
       </c>
       <c r="D65">
         <f>IFERROR(VLOOKUP(A65,MalRout2019!A:B,2,0), )</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
-        <v>1089</v>
+        <v>841</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -9710,21 +9710,21 @@
       </c>
       <c r="D66">
         <f>IFERROR(VLOOKUP(A66,MalRout2019!A:B,2,0), )</f>
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="F66">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F67">
         <f>SUM(F2:F66)</f>
-        <v>50986</v>
+        <v>46390</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -9736,7 +9736,7 @@
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F69">
         <f>1-((6*F67)/F68)</f>
-        <v>-0.1142045454545455</v>
+        <v>-1.3767482517482499E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9748,6 +9748,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DocumentType xmlns="c35e2d04-db00-4c32-92ef-5c850c76cd43" xsi:nil="true"/>
+    <DocumentDescription xmlns="bbeb8e2e-daad-4c9b-b304-1c3eab47a3c8" xsi:nil="true"/>
+    <DocumentGroup xmlns="83dd29aa-65c1-4a57-8a59-44e3dbcdc3a0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Project Document" ma:contentTypeID="0x010100B72D5037F2EA664DBFC5187AA8D6B65C00A3340CEDB5DA7E4B9BB96631FD89FF21" ma:contentTypeVersion="7" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="bd1ef9963cf2a2e7e91ecbe90abdc46d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bbeb8e2e-daad-4c9b-b304-1c3eab47a3c8" xmlns:ns3="c35e2d04-db00-4c32-92ef-5c850c76cd43" xmlns:ns4="83dd29aa-65c1-4a57-8a59-44e3dbcdc3a0" xmlns:ns5="34c09e02-ee14-4df8-b4da-da82f6bef5e6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c4316eafdb6baf2714cef7a8594a8608" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="bbeb8e2e-daad-4c9b-b304-1c3eab47a3c8"/>
@@ -9962,26 +9981,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6230D5F0-77D7-4D96-AA50-17E5A7AA5F87}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c35e2d04-db00-4c32-92ef-5c850c76cd43"/>
+    <ds:schemaRef ds:uri="bbeb8e2e-daad-4c9b-b304-1c3eab47a3c8"/>
+    <ds:schemaRef ds:uri="83dd29aa-65c1-4a57-8a59-44e3dbcdc3a0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DocumentType xmlns="c35e2d04-db00-4c32-92ef-5c850c76cd43" xsi:nil="true"/>
-    <DocumentDescription xmlns="bbeb8e2e-daad-4c9b-b304-1c3eab47a3c8" xsi:nil="true"/>
-    <DocumentGroup xmlns="83dd29aa-65c1-4a57-8a59-44e3dbcdc3a0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E44E48-64AF-4C77-9A9D-F8B314961EB6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09F63946-DBCD-497D-A66C-7D2FAB518D56}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10000,24 +10020,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E44E48-64AF-4C77-9A9D-F8B314961EB6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6230D5F0-77D7-4D96-AA50-17E5A7AA5F87}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c35e2d04-db00-4c32-92ef-5c850c76cd43"/>
-    <ds:schemaRef ds:uri="bbeb8e2e-daad-4c9b-b304-1c3eab47a3c8"/>
-    <ds:schemaRef ds:uri="83dd29aa-65c1-4a57-8a59-44e3dbcdc3a0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Index Comp Shortlist.xlsx
+++ b/data/Index Comp Shortlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikna\Desktop\Politics of Routing\indexes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB047EA-52D3-4FC3-B306-B36A5B3E3836}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288CA9A6-18F6-40D2-9AC9-D223250918DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" tabRatio="658" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="1440" windowWidth="24435" windowHeight="12585" tabRatio="658" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MalRout2019" sheetId="11" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="FOTP2017Short" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">HFI2015Short!$A$1:$B$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">HFI2015Short!$A$1:$B$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="82">
   <si>
     <t>Country</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>Colombia</t>
-  </si>
-  <si>
-    <t>Cuba</t>
   </si>
   <si>
     <t>Ecuador</t>
@@ -278,9 +275,6 @@
     <t>Azerbaĳan</t>
   </si>
   <si>
-    <t>Temp Rank</t>
-  </si>
-  <si>
     <t>MalRankTemp</t>
   </si>
   <si>
@@ -288,6 +282,9 @@
   </si>
   <si>
     <t>d^2</t>
+  </si>
+  <si>
+    <t>Malicious Routing</t>
   </si>
 </sst>
 </file>
@@ -668,540 +665,727 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6658616-28D4-44A9-A3DA-9C68A8010E59}">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>0.18596826106008185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>0.16979194261652997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>0.22565271470077011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>0.40112130900943532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>0.31473106380802574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>0.3834995893358305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>0.37655617251930151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>0.26336317721331676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>0.27270214291553119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="C11">
+        <v>0.57782179133632272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>0.39579297497180921</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="C13">
+        <v>0.4733466791076103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>0.21227365431081802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>0.21501494763561757</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="C16">
+        <v>0.74524069100009327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>9.0038402736197981E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <v>0.47185162300674788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>0.39089590878344693</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="C20">
+        <v>0.54628107085808775</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>0.30781682477527383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>0.39628523269096938</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>0.19348630565490987</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>6.8743439096951978E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="C25">
+        <v>0.51431535191506772</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="C26">
+        <v>0.46715266803494326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="C27">
+        <v>0.46616295781214967</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>0.27398504006564184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>0.316644947570629</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="C30">
+        <v>0.53023867501522404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>0.31165107843441275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>0.16799486654671944</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C33">
+        <v>0.42888829748262569</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>0.19686418348602067</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <v>0.30938604053856567</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>0.18018164178462476</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>5.020317186154314E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="C38">
+        <v>0.3239525695339901</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>0.35724606231279021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="C40">
+        <v>0.25816447970376577</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C41">
+        <v>0.32788924175379053</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="C42">
+        <v>0.28352217867391344</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="C43">
+        <v>0.2989445963663685</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>0.23191084629857239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="C45">
+        <v>0.71209711615632054</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="B46">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>0.22286331657142858</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>0.40493505438214794</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="C48">
+        <v>0.51402033656529278</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>0.20880311244750585</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C50">
+        <v>0.23556478314245521</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <v>0.21295344690447038</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="B52">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>0.43412499842220165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
       <c r="B53">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="C53">
+        <v>0.48354674979603463</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="C54">
+        <v>0.42931198523261827</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
       <c r="B55">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="C55">
+        <v>0.54925085004730068</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
       <c r="B56">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>0.1890228435085177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="B57">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="C57">
+        <v>0.34059135783433392</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
       <c r="B58">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="C58">
+        <v>0.42482649871951461</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
       <c r="B59">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="C59">
+        <v>0.39420633677030448</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
       <c r="B60">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="C60">
+        <v>0.37645972656714399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
       <c r="B61">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>0.16883999057172744</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
       <c r="B62">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="C62">
+        <v>0.29084137045699288</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
       <c r="B63">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>0.63712446954483581</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
       <c r="B64">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>0.15380027712575087</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
       <c r="B65">
         <v>12</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66">
-        <v>15</v>
+      <c r="C65">
+        <v>0.19683115926232195</v>
       </c>
     </row>
   </sheetData>
@@ -1211,11 +1395,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,36 +1418,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1285,20 +1469,20 @@
       </c>
       <c r="H2">
         <f>IFERROR(VLOOKUP(A2,MalRout2019!A:B,2,0), )</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <f>G2-H2</f>
-        <v>-8</v>
+        <f t="shared" ref="I2:I33" si="0">G2-H2</f>
+        <v>-2</v>
       </c>
       <c r="J2">
-        <f>I2^2</f>
-        <v>64</v>
+        <f t="shared" ref="J2:J33" si="1">I2^2</f>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1320,15 +1504,15 @@
       </c>
       <c r="H3">
         <f>IFERROR(VLOOKUP(A3,MalRout2019!A:B,2,0), )</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="0">G3-H3</f>
-        <v>-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="1">I3^2</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1355,20 +1539,20 @@
       </c>
       <c r="H4">
         <f>IFERROR(VLOOKUP(A4,MalRout2019!A:B,2,0), )</f>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>-48</v>
+        <v>-40</v>
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>2304</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1390,15 +1574,15 @@
       </c>
       <c r="H5">
         <f>IFERROR(VLOOKUP(A5,MalRout2019!A:B,2,0), )</f>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-40</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>2116</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1425,20 +1609,20 @@
       </c>
       <c r="H6">
         <f>IFERROR(VLOOKUP(A6,MalRout2019!A:B,2,0), )</f>
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>-49</v>
+        <v>-40</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>2401</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1460,20 +1644,20 @@
       </c>
       <c r="H7">
         <f>IFERROR(VLOOKUP(A7,MalRout2019!A:B,2,0), )</f>
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>-55</v>
+        <v>-32</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>3025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1495,20 +1679,20 @@
       </c>
       <c r="H8">
         <f>IFERROR(VLOOKUP(A8,MalRout2019!A:B,2,0), )</f>
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-35</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>2116</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -1530,20 +1714,20 @@
       </c>
       <c r="H9">
         <f>IFERROR(VLOOKUP(A9,MalRout2019!A:B,2,0), )</f>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>-41</v>
+        <v>-33</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>1681</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1565,20 +1749,20 @@
       </c>
       <c r="H10">
         <f>IFERROR(VLOOKUP(A10,MalRout2019!A:B,2,0), )</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>-23</v>
+        <v>-20</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>529</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1600,20 +1784,20 @@
       </c>
       <c r="H11">
         <f>IFERROR(VLOOKUP(A11,MalRout2019!A:B,2,0), )</f>
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>-29</v>
+        <v>-15</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>841</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1635,20 +1819,20 @@
       </c>
       <c r="H12">
         <f>IFERROR(VLOOKUP(A12,MalRout2019!A:B,2,0), )</f>
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>-35</v>
+        <v>-22</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>1225</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1670,15 +1854,15 @@
       </c>
       <c r="H13">
         <f>IFERROR(VLOOKUP(A13,MalRout2019!A:B,2,0), )</f>
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>-29</v>
+        <v>-44</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>841</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1705,15 +1889,15 @@
       </c>
       <c r="H14">
         <f>IFERROR(VLOOKUP(A14,MalRout2019!A:B,2,0), )</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>-6</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1740,20 +1924,20 @@
       </c>
       <c r="H15">
         <f>IFERROR(VLOOKUP(A15,MalRout2019!A:B,2,0), )</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -1775,15 +1959,15 @@
       </c>
       <c r="H16">
         <f>IFERROR(VLOOKUP(A16,MalRout2019!A:B,2,0), )</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1810,15 +1994,15 @@
       </c>
       <c r="H17">
         <f>IFERROR(VLOOKUP(A17,MalRout2019!A:B,2,0), )</f>
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>-21</v>
+        <v>-8</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1845,11 +2029,11 @@
       </c>
       <c r="H18">
         <f>IFERROR(VLOOKUP(A18,MalRout2019!A:B,2,0), )</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
@@ -1858,7 +2042,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -1880,20 +2064,20 @@
       </c>
       <c r="H19">
         <f>IFERROR(VLOOKUP(A19,MalRout2019!A:B,2,0), )</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -1915,20 +2099,20 @@
       </c>
       <c r="H20">
         <f>IFERROR(VLOOKUP(A20,MalRout2019!A:B,2,0), )</f>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -1950,20 +2134,20 @@
       </c>
       <c r="H21">
         <f>IFERROR(VLOOKUP(A21,MalRout2019!A:B,2,0), )</f>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -1985,20 +2169,20 @@
       </c>
       <c r="H22">
         <f>IFERROR(VLOOKUP(A22,MalRout2019!A:B,2,0), )</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>-14</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
@@ -2020,20 +2204,20 @@
       </c>
       <c r="H23">
         <f>IFERROR(VLOOKUP(A23,MalRout2019!A:B,2,0), )</f>
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>-37</v>
+        <v>-26</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>1369</v>
+        <v>676</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
@@ -2055,20 +2239,20 @@
       </c>
       <c r="H24">
         <f>IFERROR(VLOOKUP(A24,MalRout2019!A:B,2,0), )</f>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>-21</v>
+        <v>-26</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>676</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
@@ -2090,15 +2274,15 @@
       </c>
       <c r="H25">
         <f>IFERROR(VLOOKUP(A25,MalRout2019!A:B,2,0), )</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2125,20 +2309,20 @@
       </c>
       <c r="H26">
         <f>IFERROR(VLOOKUP(A26,MalRout2019!A:B,2,0), )</f>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -2160,20 +2344,20 @@
       </c>
       <c r="H27">
         <f>IFERROR(VLOOKUP(A27,MalRout2019!A:B,2,0), )</f>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>625</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -2195,20 +2379,20 @@
       </c>
       <c r="H28">
         <f>IFERROR(VLOOKUP(A28,MalRout2019!A:B,2,0), )</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -2230,20 +2414,20 @@
       </c>
       <c r="H29">
         <f>IFERROR(VLOOKUP(A29,MalRout2019!A:B,2,0), )</f>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>-24</v>
+        <v>-18</v>
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
-        <v>576</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -2265,20 +2449,20 @@
       </c>
       <c r="H30">
         <f>IFERROR(VLOOKUP(A30,MalRout2019!A:B,2,0), )</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -2300,20 +2484,20 @@
       </c>
       <c r="H31">
         <f>IFERROR(VLOOKUP(A31,MalRout2019!A:B,2,0), )</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J31">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>676</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -2335,20 +2519,20 @@
       </c>
       <c r="H32">
         <f>IFERROR(VLOOKUP(A32,MalRout2019!A:B,2,0), )</f>
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>-32</v>
+        <v>-26</v>
       </c>
       <c r="J32">
         <f t="shared" si="1"/>
-        <v>1024</v>
+        <v>676</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
@@ -2370,20 +2554,20 @@
       </c>
       <c r="H33">
         <f>IFERROR(VLOOKUP(A33,MalRout2019!A:B,2,0), )</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J33">
         <f t="shared" si="1"/>
-        <v>841</v>
+        <v>961</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
@@ -2405,20 +2589,20 @@
       </c>
       <c r="H34">
         <f>IFERROR(VLOOKUP(A34,MalRout2019!A:B,2,0), )</f>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
-        <v>-9</v>
+        <f t="shared" ref="I34:I64" si="2">G34-H34</f>
+        <v>-4</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
-        <v>81</v>
+        <f t="shared" ref="J34:J64" si="3">I34^2</f>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -2440,20 +2624,20 @@
       </c>
       <c r="H35">
         <f>IFERROR(VLOOKUP(A35,MalRout2019!A:B,2,0), )</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>-2</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -2475,20 +2659,20 @@
       </c>
       <c r="H36">
         <f>IFERROR(VLOOKUP(A36,MalRout2019!A:B,2,0), )</f>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
-        <v>-22</v>
+        <f t="shared" si="2"/>
+        <v>-17</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
-        <v>484</v>
+        <f t="shared" si="3"/>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
@@ -2510,20 +2694,20 @@
       </c>
       <c r="H37">
         <f>IFERROR(VLOOKUP(A37,MalRout2019!A:B,2,0), )</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I37">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
-        <v>961</v>
+        <f t="shared" si="3"/>
+        <v>529</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
@@ -2545,20 +2729,20 @@
       </c>
       <c r="H38">
         <f>IFERROR(VLOOKUP(A38,MalRout2019!A:B,2,0), )</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I38">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
-        <v>289</v>
+        <f t="shared" si="3"/>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
@@ -2580,15 +2764,15 @@
       </c>
       <c r="H39">
         <f>IFERROR(VLOOKUP(A39,MalRout2019!A:B,2,0), )</f>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I39">
-        <f t="shared" si="0"/>
-        <v>-17</v>
+        <f t="shared" si="2"/>
+        <v>-20</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
-        <v>289</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2615,20 +2799,20 @@
       </c>
       <c r="H40">
         <f>IFERROR(VLOOKUP(A40,MalRout2019!A:B,2,0), )</f>
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
-        <v>625</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
         <v>2</v>
@@ -2650,20 +2834,20 @@
       </c>
       <c r="H41">
         <f>IFERROR(VLOOKUP(A41,MalRout2019!A:B,2,0), )</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I41">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
@@ -2685,15 +2869,15 @@
       </c>
       <c r="H42">
         <f>IFERROR(VLOOKUP(A42,MalRout2019!A:B,2,0), )</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I42">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="J42">
-        <f t="shared" si="1"/>
-        <v>676</v>
+        <f t="shared" si="3"/>
+        <v>841</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2720,20 +2904,20 @@
       </c>
       <c r="H43">
         <f>IFERROR(VLOOKUP(A43,MalRout2019!A:B,2,0), )</f>
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I43">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>-19</v>
       </c>
       <c r="J43">
-        <f t="shared" si="1"/>
-        <v>121</v>
+        <f t="shared" si="3"/>
+        <v>361</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
         <v>2</v>
@@ -2755,20 +2939,20 @@
       </c>
       <c r="H44">
         <f>IFERROR(VLOOKUP(A44,MalRout2019!A:B,2,0), )</f>
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="I44">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>-16</v>
       </c>
       <c r="J44">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
         <v>2</v>
@@ -2790,15 +2974,15 @@
       </c>
       <c r="H45">
         <f>IFERROR(VLOOKUP(A45,MalRout2019!A:B,2,0), )</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I45">
-        <f t="shared" si="0"/>
-        <v>-20</v>
+        <f t="shared" si="2"/>
+        <v>-19</v>
       </c>
       <c r="J45">
-        <f t="shared" si="1"/>
-        <v>400</v>
+        <f t="shared" si="3"/>
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2828,17 +3012,17 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="J46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2025</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
@@ -2860,15 +3044,15 @@
       </c>
       <c r="H47">
         <f>IFERROR(VLOOKUP(A47,MalRout2019!A:B,2,0), )</f>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I47">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="J47">
-        <f t="shared" si="1"/>
-        <v>144</v>
+        <f t="shared" si="3"/>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2895,20 +3079,20 @@
       </c>
       <c r="H48">
         <f>IFERROR(VLOOKUP(A48,MalRout2019!A:B,2,0), )</f>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I48">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="J48">
-        <f t="shared" si="1"/>
-        <v>324</v>
+        <f t="shared" si="3"/>
+        <v>576</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
@@ -2930,20 +3114,20 @@
       </c>
       <c r="H49">
         <f>IFERROR(VLOOKUP(A49,MalRout2019!A:B,2,0), )</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I49">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
       <c r="J49">
-        <f t="shared" si="1"/>
-        <v>529</v>
+        <f t="shared" si="3"/>
+        <v>676</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
@@ -2965,20 +3149,20 @@
       </c>
       <c r="H50">
         <f>IFERROR(VLOOKUP(A50,MalRout2019!A:B,2,0), )</f>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I50">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="J50">
-        <f t="shared" si="1"/>
-        <v>361</v>
+        <f t="shared" si="3"/>
+        <v>1089</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
@@ -3000,20 +3184,20 @@
       </c>
       <c r="H51">
         <f>IFERROR(VLOOKUP(A51,MalRout2019!A:B,2,0), )</f>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I51">
-        <f t="shared" si="0"/>
-        <v>-6</v>
+        <f t="shared" si="2"/>
+        <v>-5</v>
       </c>
       <c r="J51">
-        <f t="shared" si="1"/>
-        <v>36</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
         <v>9</v>
@@ -3035,20 +3219,20 @@
       </c>
       <c r="H52">
         <f>IFERROR(VLOOKUP(A52,MalRout2019!A:B,2,0), )</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I52">
-        <f t="shared" si="0"/>
-        <v>-7</v>
+        <f t="shared" si="2"/>
+        <v>-9</v>
       </c>
       <c r="J52">
-        <f t="shared" si="1"/>
-        <v>49</v>
+        <f t="shared" si="3"/>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53" t="s">
         <v>9</v>
@@ -3070,20 +3254,20 @@
       </c>
       <c r="H53">
         <f>IFERROR(VLOOKUP(A53,MalRout2019!A:B,2,0), )</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I53">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="J53">
-        <f t="shared" si="1"/>
-        <v>676</v>
+        <f t="shared" si="3"/>
+        <v>625</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
@@ -3105,20 +3289,20 @@
       </c>
       <c r="H54">
         <f>IFERROR(VLOOKUP(A54,MalRout2019!A:B,2,0), )</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I54">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="J54">
-        <f t="shared" si="1"/>
-        <v>1849</v>
+        <f t="shared" si="3"/>
+        <v>1089</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
         <v>9</v>
@@ -3140,15 +3324,15 @@
       </c>
       <c r="H55">
         <f>IFERROR(VLOOKUP(A55,MalRout2019!A:B,2,0), )</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I55">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="J55">
-        <f t="shared" si="1"/>
-        <v>81</v>
+        <f t="shared" si="3"/>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3175,20 +3359,20 @@
       </c>
       <c r="H56">
         <f>IFERROR(VLOOKUP(A56,MalRout2019!A:B,2,0), )</f>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I56">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="J56">
-        <f t="shared" si="1"/>
-        <v>144</v>
+        <f t="shared" si="3"/>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
@@ -3210,20 +3394,20 @@
       </c>
       <c r="H57">
         <f>IFERROR(VLOOKUP(A57,MalRout2019!A:B,2,0), )</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I57">
-        <f t="shared" si="0"/>
-        <v>-6</v>
+        <f t="shared" si="2"/>
+        <v>-8</v>
       </c>
       <c r="J57">
-        <f t="shared" si="1"/>
-        <v>36</v>
+        <f t="shared" si="3"/>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
@@ -3245,20 +3429,20 @@
       </c>
       <c r="H58">
         <f>IFERROR(VLOOKUP(A58,MalRout2019!A:B,2,0), )</f>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I58">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <f t="shared" si="2"/>
+        <v>31</v>
       </c>
       <c r="J58">
-        <f t="shared" si="1"/>
-        <v>2116</v>
+        <f t="shared" si="3"/>
+        <v>961</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
@@ -3280,20 +3464,20 @@
       </c>
       <c r="H59">
         <f>IFERROR(VLOOKUP(A59,MalRout2019!A:B,2,0), )</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I59">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="J59">
-        <f t="shared" si="1"/>
-        <v>1764</v>
+        <f t="shared" si="3"/>
+        <v>1600</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
@@ -3315,20 +3499,20 @@
       </c>
       <c r="H60">
         <f>IFERROR(VLOOKUP(A60,MalRout2019!A:B,2,0), )</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I60">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <f t="shared" si="2"/>
+        <v>53</v>
       </c>
       <c r="J60">
-        <f t="shared" si="1"/>
-        <v>2704</v>
+        <f t="shared" si="3"/>
+        <v>2809</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
         <v>9</v>
@@ -3350,67 +3534,67 @@
       </c>
       <c r="H61">
         <f>IFERROR(VLOOKUP(A61,MalRout2019!A:B,2,0), )</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I61">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-2</v>
       </c>
       <c r="J61">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B62" t="s">
         <v>9</v>
       </c>
       <c r="C62">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D62">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E62">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F62">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G62">
         <v>61</v>
       </c>
       <c r="H62">
         <f>IFERROR(VLOOKUP(A62,MalRout2019!A:B,2,0), )</f>
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="I62">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="J62">
-        <f t="shared" si="1"/>
-        <v>676</v>
+        <f t="shared" si="3"/>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
         <v>9</v>
       </c>
       <c r="C63">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D63">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E63">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F63">
         <v>83</v>
@@ -3420,143 +3604,108 @@
       </c>
       <c r="H63">
         <f>IFERROR(VLOOKUP(A63,MalRout2019!A:B,2,0), )</f>
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I63">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="J63">
-        <f t="shared" si="1"/>
-        <v>1600</v>
+        <f t="shared" si="3"/>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B64" t="s">
         <v>9</v>
       </c>
       <c r="C64">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D64">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E64">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F64">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G64">
         <v>63</v>
       </c>
       <c r="H64">
         <f>IFERROR(VLOOKUP(A64,MalRout2019!A:B,2,0), )</f>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I64">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="J64">
-        <f t="shared" si="1"/>
-        <v>256</v>
+        <f t="shared" si="3"/>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B65" t="s">
         <v>9</v>
       </c>
       <c r="C65">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D65">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E65">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F65">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G65">
         <v>64</v>
       </c>
       <c r="H65">
         <f>IFERROR(VLOOKUP(A65,MalRout2019!A:B,2,0), )</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I65">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f t="shared" ref="I65:I96" si="4">G65-H65</f>
+        <v>10</v>
       </c>
       <c r="J65">
-        <f t="shared" si="1"/>
-        <v>256</v>
+        <f t="shared" ref="J65:J96" si="5">I65^2</f>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66">
-        <v>17</v>
-      </c>
-      <c r="D66">
-        <v>31</v>
-      </c>
-      <c r="E66">
-        <v>40</v>
-      </c>
-      <c r="F66">
-        <v>88</v>
-      </c>
-      <c r="G66">
-        <v>65</v>
-      </c>
-      <c r="H66">
-        <f>IFERROR(VLOOKUP(A66,MalRout2019!A:B,2,0), )</f>
-        <v>65</v>
-      </c>
-      <c r="I66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="J66">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(J2:J65)</f>
+        <v>32864</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J67">
-        <f>SUM(J2:J66)</f>
-        <v>43094</v>
+        <f>65*(65^2-1)</f>
+        <v>274560</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J68">
-        <f>65*(65^2-1)</f>
-        <v>274560</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J69">
-        <f>1-((6*J67)/J68)</f>
-        <v>5.8260489510489566E-2</v>
+        <f>1-((6*J66)/J67)</f>
+        <v>0.28181818181818186</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F66">
-    <sortCondition ref="F2:F66"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J69">
+    <sortCondition ref="G1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3565,10 +3714,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36198A2-45F7-4E2D-AF04-87EC7C6E0C80}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3582,19 +3731,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3609,20 +3758,20 @@
       </c>
       <c r="D2">
         <f>IFERROR(VLOOKUP(A2,MalRout2019!A:B,2,0), )</f>
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E2">
-        <f>C2-D2</f>
-        <v>-53</v>
+        <f t="shared" ref="E2:E33" si="0">C2-D2</f>
+        <v>-44</v>
       </c>
       <c r="F2">
-        <f>E2^2</f>
-        <v>2809</v>
+        <f t="shared" ref="F2:F33" si="1">E2^2</f>
+        <v>1936</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <v>8.5499104557518812</v>
@@ -3632,15 +3781,15 @@
       </c>
       <c r="D3">
         <f>IFERROR(VLOOKUP(A3,MalRout2019!A:B,2,0), )</f>
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">C3-D3</f>
-        <v>-51</v>
+        <f t="shared" si="0"/>
+        <v>-40</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="1">E3^2</f>
-        <v>2601</v>
+        <f t="shared" si="1"/>
+        <v>1600</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3655,20 +3804,20 @@
       </c>
       <c r="D4">
         <f>IFERROR(VLOOKUP(A4,MalRout2019!A:B,2,0), )</f>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>-48</v>
+        <v>-40</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>2304</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>8.481425750299648</v>
@@ -3678,20 +3827,20 @@
       </c>
       <c r="D5">
         <f>IFERROR(VLOOKUP(A5,MalRout2019!A:B,2,0), )</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>8.4527018044784992</v>
@@ -3701,20 +3850,20 @@
       </c>
       <c r="D6">
         <f>IFERROR(VLOOKUP(A6,MalRout2019!A:B,2,0), )</f>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>-45</v>
+        <v>-39</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>2025</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>8.3852117809298239</v>
@@ -3724,20 +3873,20 @@
       </c>
       <c r="D7">
         <f>IFERROR(VLOOKUP(A7,MalRout2019!A:B,2,0), )</f>
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>-55</v>
+        <v>-32</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>3025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>8.3364172938398085</v>
@@ -3747,20 +3896,20 @@
       </c>
       <c r="D8">
         <f>IFERROR(VLOOKUP(A8,MalRout2019!A:B,2,0), )</f>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>-45</v>
+        <v>-39</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>2025</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>8.1988569748636682</v>
@@ -3770,20 +3919,20 @@
       </c>
       <c r="D9">
         <f>IFERROR(VLOOKUP(A9,MalRout2019!A:B,2,0), )</f>
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>-38</v>
+        <v>-25</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>1444</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>8.1183087600540667</v>
@@ -3793,20 +3942,20 @@
       </c>
       <c r="D10">
         <f>IFERROR(VLOOKUP(A10,MalRout2019!A:B,2,0), )</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>8.0360066200862796</v>
@@ -3816,20 +3965,20 @@
       </c>
       <c r="D11">
         <f>IFERROR(VLOOKUP(A11,MalRout2019!A:B,2,0), )</f>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>-39</v>
+        <v>-31</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>1521</v>
+        <v>961</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>8.0198554476214774</v>
@@ -3839,20 +3988,20 @@
       </c>
       <c r="D12">
         <f>IFERROR(VLOOKUP(A12,MalRout2019!A:B,2,0), )</f>
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>-28</v>
+        <v>-14</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>784</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>7.8738398349933512</v>
@@ -3862,20 +4011,20 @@
       </c>
       <c r="D13">
         <f>IFERROR(VLOOKUP(A13,MalRout2019!A:B,2,0), )</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-17</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>7.7430087077997527</v>
@@ -3885,15 +4034,15 @@
       </c>
       <c r="D14">
         <f>IFERROR(VLOOKUP(A14,MalRout2019!A:B,2,0), )</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3908,15 +4057,15 @@
       </c>
       <c r="D15">
         <f>IFERROR(VLOOKUP(A15,MalRout2019!A:B,2,0), )</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>-5</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3931,20 +4080,20 @@
       </c>
       <c r="D16">
         <f>IFERROR(VLOOKUP(A16,MalRout2019!A:B,2,0), )</f>
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>-16</v>
+        <v>-46</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17">
         <v>7.1022556588944878</v>
@@ -3954,20 +4103,20 @@
       </c>
       <c r="D17">
         <f>IFERROR(VLOOKUP(A17,MalRout2019!A:B,2,0), )</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>-48</v>
+        <v>-47</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>2304</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>7.0662690324559971</v>
@@ -3977,20 +4126,20 @@
       </c>
       <c r="D18">
         <f>IFERROR(VLOOKUP(A18,MalRout2019!A:B,2,0), )</f>
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>-24</v>
+        <v>-39</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>576</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19">
         <v>6.9655208763468917</v>
@@ -4000,20 +4149,20 @@
       </c>
       <c r="D19">
         <f>IFERROR(VLOOKUP(A19,MalRout2019!A:B,2,0), )</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>6.9331526862856343</v>
@@ -4023,20 +4172,20 @@
       </c>
       <c r="D20">
         <f>IFERROR(VLOOKUP(A20,MalRout2019!A:B,2,0), )</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-15</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>6.8416637497309924</v>
@@ -4046,20 +4195,20 @@
       </c>
       <c r="D21">
         <f>IFERROR(VLOOKUP(A21,MalRout2019!A:B,2,0), )</f>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>-35</v>
+        <v>-38</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>1225</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>6.8365374491742665</v>
@@ -4069,20 +4218,20 @@
       </c>
       <c r="D22">
         <f>IFERROR(VLOOKUP(A22,MalRout2019!A:B,2,0), )</f>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>6.834795951101408</v>
@@ -4092,20 +4241,20 @@
       </c>
       <c r="D23">
         <f>IFERROR(VLOOKUP(A23,MalRout2019!A:B,2,0), )</f>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>-35</v>
+        <v>-30</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>1225</v>
+        <v>900</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>6.7669895160833651</v>
@@ -4115,15 +4264,15 @@
       </c>
       <c r="D24">
         <f>IFERROR(VLOOKUP(A24,MalRout2019!A:B,2,0), )</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>-35</v>
+        <v>-37</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>1225</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4138,20 +4287,20 @@
       </c>
       <c r="D25">
         <f>IFERROR(VLOOKUP(A25,MalRout2019!A:B,2,0), )</f>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>-19</v>
+        <v>-16</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>361</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26">
         <v>6.6801485867568031</v>
@@ -4161,20 +4310,20 @@
       </c>
       <c r="D26">
         <f>IFERROR(VLOOKUP(A26,MalRout2019!A:B,2,0), )</f>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>576</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>6.6751579866771262</v>
@@ -4184,20 +4333,20 @@
       </c>
       <c r="D27">
         <f>IFERROR(VLOOKUP(A27,MalRout2019!A:B,2,0), )</f>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28">
         <v>6.6575354139745908</v>
@@ -4207,15 +4356,15 @@
       </c>
       <c r="D28">
         <f>IFERROR(VLOOKUP(A28,MalRout2019!A:B,2,0), )</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4230,20 +4379,20 @@
       </c>
       <c r="D29">
         <f>IFERROR(VLOOKUP(A29,MalRout2019!A:B,2,0), )</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30">
         <v>6.6375697571892136</v>
@@ -4253,20 +4402,20 @@
       </c>
       <c r="D30">
         <f>IFERROR(VLOOKUP(A30,MalRout2019!A:B,2,0), )</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>6.6056355463733016</v>
@@ -4276,20 +4425,20 @@
       </c>
       <c r="D31">
         <f>IFERROR(VLOOKUP(A31,MalRout2019!A:B,2,0), )</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>729</v>
+        <v>841</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>6.5460925515310304</v>
@@ -4299,20 +4448,20 @@
       </c>
       <c r="D32">
         <f>IFERROR(VLOOKUP(A32,MalRout2019!A:B,2,0), )</f>
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>-32</v>
+        <v>-26</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>1024</v>
+        <v>676</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>6.5216891481766046</v>
@@ -4322,15 +4471,15 @@
       </c>
       <c r="D33">
         <f>IFERROR(VLOOKUP(A33,MalRout2019!A:B,2,0), )</f>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-24</v>
+        <v>-23</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>576</v>
+        <v>529</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -4345,20 +4494,20 @@
       </c>
       <c r="D34">
         <f>IFERROR(VLOOKUP(A34,MalRout2019!A:B,2,0), )</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f t="shared" ref="E34:E64" si="2">C34-D34</f>
+        <v>26</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
-        <v>625</v>
+        <f t="shared" ref="F34:F64" si="3">E34^2</f>
+        <v>676</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>6.4577540405938549</v>
@@ -4368,20 +4517,20 @@
       </c>
       <c r="D35">
         <f>IFERROR(VLOOKUP(A35,MalRout2019!A:B,2,0), )</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
-        <v>841</v>
+        <f t="shared" si="3"/>
+        <v>441</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36">
         <v>6.4352596317708706</v>
@@ -4391,20 +4540,20 @@
       </c>
       <c r="D36">
         <f>IFERROR(VLOOKUP(A36,MalRout2019!A:B,2,0), )</f>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
-        <v>-9</v>
+        <f t="shared" si="2"/>
+        <v>-14</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
-        <v>81</v>
+        <f t="shared" si="3"/>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37">
         <v>6.4251434531012643</v>
@@ -4414,20 +4563,20 @@
       </c>
       <c r="D37">
         <f>IFERROR(VLOOKUP(A37,MalRout2019!A:B,2,0), )</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
-        <v>576</v>
+        <f t="shared" si="3"/>
+        <v>1024</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>6.3942012136490778</v>
@@ -4437,20 +4586,20 @@
       </c>
       <c r="D38">
         <f>IFERROR(VLOOKUP(A38,MalRout2019!A:B,2,0), )</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
-        <v>-8</v>
+        <f t="shared" si="2"/>
+        <v>-10</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
-        <v>64</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39">
         <v>6.3510460251025904</v>
@@ -4460,15 +4609,15 @@
       </c>
       <c r="D39">
         <f>IFERROR(VLOOKUP(A39,MalRout2019!A:B,2,0), )</f>
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-21</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -4483,20 +4632,20 @@
       </c>
       <c r="D40">
         <f>IFERROR(VLOOKUP(A40,MalRout2019!A:B,2,0), )</f>
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>6.2344671722216134</v>
@@ -4506,20 +4655,20 @@
       </c>
       <c r="D41">
         <f>IFERROR(VLOOKUP(A41,MalRout2019!A:B,2,0), )</f>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
-        <v>-2</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42">
         <v>6.1747685258299496</v>
@@ -4529,20 +4678,20 @@
       </c>
       <c r="D42">
         <f>IFERROR(VLOOKUP(A42,MalRout2019!A:B,2,0), )</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
-        <v>-19</v>
+        <f t="shared" si="2"/>
+        <v>-21</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
-        <v>361</v>
+        <f t="shared" si="3"/>
+        <v>441</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43">
         <v>6.1133623041844807</v>
@@ -4552,15 +4701,15 @@
       </c>
       <c r="D43">
         <f>IFERROR(VLOOKUP(A43,MalRout2019!A:B,2,0), )</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
-        <v>1024</v>
+        <f t="shared" si="3"/>
+        <v>484</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -4578,11 +4727,11 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1849</v>
       </c>
     </row>
@@ -4598,20 +4747,20 @@
       </c>
       <c r="D45">
         <f>IFERROR(VLOOKUP(A45,MalRout2019!A:B,2,0), )</f>
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
-        <v>-21</v>
+        <f t="shared" si="2"/>
+        <v>-10</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
-        <v>441</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46">
         <v>5.9541562887663666</v>
@@ -4621,15 +4770,15 @@
       </c>
       <c r="D46">
         <f>IFERROR(VLOOKUP(A46,MalRout2019!A:B,2,0), )</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
-        <v>144</v>
+        <f t="shared" si="3"/>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -4644,20 +4793,20 @@
       </c>
       <c r="D47">
         <f>IFERROR(VLOOKUP(A47,MalRout2019!A:B,2,0), )</f>
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
-        <v>1024</v>
+        <f t="shared" si="3"/>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48">
         <v>5.9159766080046232</v>
@@ -4667,20 +4816,20 @@
       </c>
       <c r="D48">
         <f>IFERROR(VLOOKUP(A48,MalRout2019!A:B,2,0), )</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
-        <v>400</v>
+        <f t="shared" si="3"/>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>5.9116418831862045</v>
@@ -4690,20 +4839,20 @@
       </c>
       <c r="D49">
         <f>IFERROR(VLOOKUP(A49,MalRout2019!A:B,2,0), )</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
-        <v>784</v>
+        <f t="shared" si="3"/>
+        <v>729</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50">
         <v>5.570260521834852</v>
@@ -4713,15 +4862,15 @@
       </c>
       <c r="D50">
         <f>IFERROR(VLOOKUP(A50,MalRout2019!A:B,2,0), )</f>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
-        <v>38</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
-        <v>1444</v>
+        <f t="shared" si="3"/>
+        <v>529</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -4736,20 +4885,20 @@
       </c>
       <c r="D51">
         <f>IFERROR(VLOOKUP(A51,MalRout2019!A:B,2,0), )</f>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v>41</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
-        <v>841</v>
+        <f t="shared" si="3"/>
+        <v>1681</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52">
         <v>5.467322096660939</v>
@@ -4759,20 +4908,20 @@
       </c>
       <c r="D52">
         <f>IFERROR(VLOOKUP(A52,MalRout2019!A:B,2,0), )</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
-        <v>676</v>
+        <f t="shared" si="3"/>
+        <v>841</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53">
         <v>5.3923164599452376</v>
@@ -4782,20 +4931,20 @@
       </c>
       <c r="D53">
         <f>IFERROR(VLOOKUP(A53,MalRout2019!A:B,2,0), )</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
-        <v>1369</v>
+        <f t="shared" si="3"/>
+        <v>1600</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54">
         <v>5.3884991902615003</v>
@@ -4805,20 +4954,20 @@
       </c>
       <c r="D54">
         <f>IFERROR(VLOOKUP(A54,MalRout2019!A:B,2,0), )</f>
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
-        <v>961</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55">
         <v>5.3709153375342904</v>
@@ -4828,20 +4977,20 @@
       </c>
       <c r="D55">
         <f>IFERROR(VLOOKUP(A55,MalRout2019!A:B,2,0), )</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
-        <v>38</v>
+        <f t="shared" si="2"/>
+        <v>36</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
-        <v>1444</v>
+        <f t="shared" si="3"/>
+        <v>1296</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B56">
         <v>4.8290171482585063</v>
@@ -4851,20 +5000,20 @@
       </c>
       <c r="D56">
         <f>IFERROR(VLOOKUP(A56,MalRout2019!A:B,2,0), )</f>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
-        <v>49</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B57">
         <v>4.7925052590255053</v>
@@ -4874,20 +5023,20 @@
       </c>
       <c r="D57">
         <f>IFERROR(VLOOKUP(A57,MalRout2019!A:B,2,0), )</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
-        <v>-6</v>
+        <f t="shared" si="2"/>
+        <v>-8</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
-        <v>36</v>
+        <f t="shared" si="3"/>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B58">
         <v>4.3710794673409792</v>
@@ -4897,20 +5046,20 @@
       </c>
       <c r="D58">
         <f>IFERROR(VLOOKUP(A58,MalRout2019!A:B,2,0), )</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
-        <v>289</v>
+        <f t="shared" si="3"/>
+        <v>729</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59">
         <v>4.3392100630911976</v>
@@ -4920,20 +5069,20 @@
       </c>
       <c r="D59">
         <f>IFERROR(VLOOKUP(A59,MalRout2019!A:B,2,0), )</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>31</v>
       </c>
       <c r="F59">
-        <f t="shared" si="1"/>
-        <v>1024</v>
+        <f t="shared" si="3"/>
+        <v>961</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60">
         <v>4.0409686456833072</v>
@@ -4943,15 +5092,15 @@
       </c>
       <c r="D60">
         <f>IFERROR(VLOOKUP(A60,MalRout2019!A:B,2,0), )</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="F60">
-        <f t="shared" si="1"/>
-        <v>144</v>
+        <f t="shared" si="3"/>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -4963,138 +5112,118 @@
       </c>
       <c r="D61">
         <f>IFERROR(VLOOKUP(A61,MalRout2019!A:B,2,0), )</f>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
-        <v>-29</v>
+        <f t="shared" si="2"/>
+        <v>-23</v>
       </c>
       <c r="F61">
-        <f t="shared" si="1"/>
-        <v>841</v>
+        <f t="shared" si="3"/>
+        <v>529</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="D62">
         <f>IFERROR(VLOOKUP(A62,MalRout2019!A:B,2,0), )</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
-        <v>-35</v>
+        <f t="shared" si="2"/>
+        <v>-48</v>
       </c>
       <c r="F62">
-        <f t="shared" si="1"/>
-        <v>1225</v>
+        <f t="shared" si="3"/>
+        <v>2304</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="D63">
         <f>IFERROR(VLOOKUP(A63,MalRout2019!A:B,2,0), )</f>
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
-        <v>-59</v>
+        <f t="shared" si="2"/>
+        <v>-14</v>
       </c>
       <c r="F63">
-        <f t="shared" si="1"/>
-        <v>3481</v>
+        <f t="shared" si="3"/>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="D64">
         <f>IFERROR(VLOOKUP(A64,MalRout2019!A:B,2,0), )</f>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
-        <v>-24</v>
+        <f t="shared" si="2"/>
+        <v>-16</v>
       </c>
       <c r="F64">
-        <f t="shared" si="1"/>
-        <v>576</v>
+        <f t="shared" si="3"/>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="D65">
         <f>IFERROR(VLOOKUP(A65,MalRout2019!A:B,2,0), )</f>
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
-        <v>-30</v>
+        <f t="shared" ref="E65:E96" si="4">C65-D65</f>
+        <v>-6</v>
       </c>
       <c r="F65">
-        <f t="shared" si="1"/>
-        <v>900</v>
+        <f t="shared" ref="F65:F96" si="5">E65^2</f>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <f>IFERROR(VLOOKUP(A66,MalRout2019!A:B,2,0), )</f>
-        <v>7</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="0"/>
-        <v>-7</v>
-      </c>
       <c r="F66">
-        <f t="shared" si="1"/>
-        <v>49</v>
+        <f>SUM(F2:F65)</f>
+        <v>43142</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F67">
-        <f>SUM(F2:F66)</f>
-        <v>53785</v>
+        <f>65*(65^2-1)</f>
+        <v>274560</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F68">
-        <f>65*(65^2-1)</f>
-        <v>274560</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F69">
-        <f>1-((6*F67)/F68)</f>
-        <v>-0.17537150349650354</v>
+        <f>1-((6*F66)/F67)</f>
+        <v>5.721153846153848E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B67">
-    <sortCondition descending="1" ref="B2:B67"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F68">
+    <sortCondition descending="1" ref="B2:B66"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5102,10 +5231,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF605CC-9EE5-4C48-93E1-3851DF986E29}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5119,19 +5248,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5146,15 +5275,15 @@
       </c>
       <c r="D2">
         <f>IFERROR(VLOOKUP(A2,MalRout2019!A:B,2,0), )</f>
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E2">
         <f>C2-D2</f>
-        <v>-53</v>
+        <v>-44</v>
       </c>
       <c r="F2">
         <f>E2^2</f>
-        <v>2809</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5169,20 +5298,20 @@
       </c>
       <c r="D3">
         <f>IFERROR(VLOOKUP(A3,MalRout2019!A:B,2,0), )</f>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">C3-D3</f>
-        <v>-49</v>
+        <f t="shared" ref="E3:E65" si="0">C3-D3</f>
+        <v>-41</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="1">E3^2</f>
-        <v>2401</v>
+        <f t="shared" ref="F3:F65" si="1">E3^2</f>
+        <v>1681</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <v>8.5</v>
@@ -5192,20 +5321,20 @@
       </c>
       <c r="D4">
         <f>IFERROR(VLOOKUP(A4,MalRout2019!A:B,2,0), )</f>
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>-50</v>
+        <v>-39</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>8.4600000000000009</v>
@@ -5215,20 +5344,20 @@
       </c>
       <c r="D5">
         <f>IFERROR(VLOOKUP(A5,MalRout2019!A:B,2,0), )</f>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-40</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>2116</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>8.44</v>
@@ -5238,20 +5367,20 @@
       </c>
       <c r="D6">
         <f>IFERROR(VLOOKUP(A6,MalRout2019!A:B,2,0), )</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>8.39</v>
@@ -5261,20 +5390,20 @@
       </c>
       <c r="D7">
         <f>IFERROR(VLOOKUP(A7,MalRout2019!A:B,2,0), )</f>
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>-55</v>
+        <v>-32</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>3025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>8.16</v>
@@ -5284,20 +5413,20 @@
       </c>
       <c r="D8">
         <f>IFERROR(VLOOKUP(A8,MalRout2019!A:B,2,0), )</f>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>-45</v>
+        <v>-39</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>2025</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>8.15</v>
@@ -5307,20 +5436,20 @@
       </c>
       <c r="D9">
         <f>IFERROR(VLOOKUP(A9,MalRout2019!A:B,2,0), )</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>8.1</v>
@@ -5330,20 +5459,20 @@
       </c>
       <c r="D10">
         <f>IFERROR(VLOOKUP(A10,MalRout2019!A:B,2,0), )</f>
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>-37</v>
+        <v>-24</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>1369</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>8.01</v>
@@ -5353,20 +5482,20 @@
       </c>
       <c r="D11">
         <f>IFERROR(VLOOKUP(A11,MalRout2019!A:B,2,0), )</f>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>-39</v>
+        <v>-31</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>1521</v>
+        <v>961</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>7.98</v>
@@ -5376,20 +5505,20 @@
       </c>
       <c r="D12">
         <f>IFERROR(VLOOKUP(A12,MalRout2019!A:B,2,0), )</f>
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>-28</v>
+        <v>-14</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>784</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>7.8</v>
@@ -5399,20 +5528,20 @@
       </c>
       <c r="D13">
         <f>IFERROR(VLOOKUP(A13,MalRout2019!A:B,2,0), )</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-17</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>7.74</v>
@@ -5422,15 +5551,15 @@
       </c>
       <c r="D14">
         <f>IFERROR(VLOOKUP(A14,MalRout2019!A:B,2,0), )</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5445,15 +5574,15 @@
       </c>
       <c r="D15">
         <f>IFERROR(VLOOKUP(A15,MalRout2019!A:B,2,0), )</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>-5</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5468,20 +5597,20 @@
       </c>
       <c r="D16">
         <f>IFERROR(VLOOKUP(A16,MalRout2019!A:B,2,0), )</f>
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>-16</v>
+        <v>-46</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>7.17</v>
@@ -5491,20 +5620,20 @@
       </c>
       <c r="D17">
         <f>IFERROR(VLOOKUP(A17,MalRout2019!A:B,2,0), )</f>
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>-40</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>625</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>6.97</v>
@@ -5514,20 +5643,20 @@
       </c>
       <c r="D18">
         <f>IFERROR(VLOOKUP(A18,MalRout2019!A:B,2,0), )</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>-47</v>
+        <v>-46</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>2209</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19">
         <v>6.92</v>
@@ -5537,15 +5666,15 @@
       </c>
       <c r="D19">
         <f>IFERROR(VLOOKUP(A19,MalRout2019!A:B,2,0), )</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5560,20 +5689,20 @@
       </c>
       <c r="D20">
         <f>IFERROR(VLOOKUP(A20,MalRout2019!A:B,2,0), )</f>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>-24</v>
+        <v>-21</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>576</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>6.85</v>
@@ -5583,20 +5712,20 @@
       </c>
       <c r="D21">
         <f>IFERROR(VLOOKUP(A21,MalRout2019!A:B,2,0), )</f>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>-35</v>
+        <v>-38</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>1225</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>6.85</v>
@@ -5606,20 +5735,20 @@
       </c>
       <c r="D22">
         <f>IFERROR(VLOOKUP(A22,MalRout2019!A:B,2,0), )</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>6.82</v>
@@ -5629,20 +5758,20 @@
       </c>
       <c r="D23">
         <f>IFERROR(VLOOKUP(A23,MalRout2019!A:B,2,0), )</f>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>6.81</v>
@@ -5652,20 +5781,20 @@
       </c>
       <c r="D24">
         <f>IFERROR(VLOOKUP(A24,MalRout2019!A:B,2,0), )</f>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>6.77</v>
@@ -5675,20 +5804,20 @@
       </c>
       <c r="D25">
         <f>IFERROR(VLOOKUP(A25,MalRout2019!A:B,2,0), )</f>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>-33</v>
+        <v>-28</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>1089</v>
+        <v>784</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>6.77</v>
@@ -5698,15 +5827,15 @@
       </c>
       <c r="D26">
         <f>IFERROR(VLOOKUP(A26,MalRout2019!A:B,2,0), )</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5721,20 +5850,20 @@
       </c>
       <c r="D27">
         <f>IFERROR(VLOOKUP(A27,MalRout2019!A:B,2,0), )</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>6.74</v>
@@ -5744,20 +5873,20 @@
       </c>
       <c r="D28">
         <f>IFERROR(VLOOKUP(A28,MalRout2019!A:B,2,0), )</f>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>6.71</v>
@@ -5767,20 +5896,20 @@
       </c>
       <c r="D29">
         <f>IFERROR(VLOOKUP(A29,MalRout2019!A:B,2,0), )</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>529</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>6.65</v>
@@ -5790,20 +5919,20 @@
       </c>
       <c r="D30">
         <f>IFERROR(VLOOKUP(A30,MalRout2019!A:B,2,0), )</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>529</v>
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31">
         <v>6.62</v>
@@ -5813,15 +5942,15 @@
       </c>
       <c r="D31">
         <f>IFERROR(VLOOKUP(A31,MalRout2019!A:B,2,0), )</f>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>-26</v>
+        <v>-25</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>676</v>
+        <v>625</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5836,20 +5965,20 @@
       </c>
       <c r="D32">
         <f>IFERROR(VLOOKUP(A32,MalRout2019!A:B,2,0), )</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>529</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33">
         <v>6.47</v>
@@ -5859,20 +5988,20 @@
       </c>
       <c r="D33">
         <f>IFERROR(VLOOKUP(A33,MalRout2019!A:B,2,0), )</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-26</v>
+        <v>-28</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>676</v>
+        <v>784</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>6.43</v>
@@ -5882,20 +6011,20 @@
       </c>
       <c r="D34">
         <f>IFERROR(VLOOKUP(A34,MalRout2019!A:B,2,0), )</f>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>-16</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35">
         <v>6.41</v>
@@ -5905,20 +6034,20 @@
       </c>
       <c r="D35">
         <f>IFERROR(VLOOKUP(A35,MalRout2019!A:B,2,0), )</f>
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>-29</v>
+        <v>-23</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>841</v>
+        <v>529</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>6.41</v>
@@ -5928,20 +6057,20 @@
       </c>
       <c r="D36">
         <f>IFERROR(VLOOKUP(A36,MalRout2019!A:B,2,0), )</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>1024</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37">
         <v>6.32</v>
@@ -5951,20 +6080,20 @@
       </c>
       <c r="D37">
         <f>IFERROR(VLOOKUP(A37,MalRout2019!A:B,2,0), )</f>
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-23</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>529</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B38">
         <v>6.31</v>
@@ -5974,20 +6103,20 @@
       </c>
       <c r="D38">
         <f>IFERROR(VLOOKUP(A38,MalRout2019!A:B,2,0), )</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>625</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39">
         <v>6.29</v>
@@ -5997,20 +6126,20 @@
       </c>
       <c r="D39">
         <f>IFERROR(VLOOKUP(A39,MalRout2019!A:B,2,0), )</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40">
         <v>6.28</v>
@@ -6020,20 +6149,20 @@
       </c>
       <c r="D40">
         <f>IFERROR(VLOOKUP(A40,MalRout2019!A:B,2,0), )</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>6.27</v>
@@ -6043,20 +6172,20 @@
       </c>
       <c r="D41">
         <f>IFERROR(VLOOKUP(A41,MalRout2019!A:B,2,0), )</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>6.27</v>
@@ -6066,15 +6195,15 @@
       </c>
       <c r="D42">
         <f>IFERROR(VLOOKUP(A42,MalRout2019!A:B,2,0), )</f>
+        <v>21</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -6089,20 +6218,20 @@
       </c>
       <c r="D43">
         <f>IFERROR(VLOOKUP(A43,MalRout2019!A:B,2,0), )</f>
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44">
         <v>6.19</v>
@@ -6112,20 +6241,20 @@
       </c>
       <c r="D44">
         <f>IFERROR(VLOOKUP(A44,MalRout2019!A:B,2,0), )</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>-17</v>
+        <v>-19</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
-        <v>289</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45">
         <v>6.18</v>
@@ -6135,15 +6264,15 @@
       </c>
       <c r="D45">
         <f>IFERROR(VLOOKUP(A45,MalRout2019!A:B,2,0), )</f>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -6158,15 +6287,15 @@
       </c>
       <c r="D46">
         <f>IFERROR(VLOOKUP(A46,MalRout2019!A:B,2,0), )</f>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>484</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -6194,7 +6323,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48">
         <v>6.07</v>
@@ -6204,15 +6333,15 @@
       </c>
       <c r="D48">
         <f>IFERROR(VLOOKUP(A48,MalRout2019!A:B,2,0), )</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -6227,15 +6356,15 @@
       </c>
       <c r="D49">
         <f>IFERROR(VLOOKUP(A49,MalRout2019!A:B,2,0), )</f>
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>-17</v>
+        <v>-6</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
-        <v>289</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -6250,20 +6379,20 @@
       </c>
       <c r="D50">
         <f>IFERROR(VLOOKUP(A50,MalRout2019!A:B,2,0), )</f>
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>1225</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51">
         <v>5.66</v>
@@ -6273,15 +6402,15 @@
       </c>
       <c r="D51">
         <f>IFERROR(VLOOKUP(A51,MalRout2019!A:B,2,0), )</f>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>1521</v>
+        <v>576</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6296,20 +6425,20 @@
       </c>
       <c r="D52">
         <f>IFERROR(VLOOKUP(A52,MalRout2019!A:B,2,0), )</f>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53">
         <v>5.62</v>
@@ -6319,20 +6448,20 @@
       </c>
       <c r="D53">
         <f>IFERROR(VLOOKUP(A53,MalRout2019!A:B,2,0), )</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>1369</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54">
         <v>5.48</v>
@@ -6342,20 +6471,20 @@
       </c>
       <c r="D54">
         <f>IFERROR(VLOOKUP(A54,MalRout2019!A:B,2,0), )</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>1369</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B55">
         <v>5.44</v>
@@ -6365,20 +6494,20 @@
       </c>
       <c r="D55">
         <f>IFERROR(VLOOKUP(A55,MalRout2019!A:B,2,0), )</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>841</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B56">
         <v>5.4</v>
@@ -6388,20 +6517,20 @@
       </c>
       <c r="D56">
         <f>IFERROR(VLOOKUP(A56,MalRout2019!A:B,2,0), )</f>
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
-        <v>1089</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B57">
         <v>5.28</v>
@@ -6411,20 +6540,20 @@
       </c>
       <c r="D57">
         <f>IFERROR(VLOOKUP(A57,MalRout2019!A:B,2,0), )</f>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B58">
         <v>4.8099999999999996</v>
@@ -6434,20 +6563,20 @@
       </c>
       <c r="D58">
         <f>IFERROR(VLOOKUP(A58,MalRout2019!A:B,2,0), )</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59">
         <v>4.8</v>
@@ -6457,20 +6586,20 @@
       </c>
       <c r="D59">
         <f>IFERROR(VLOOKUP(A59,MalRout2019!A:B,2,0), )</f>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>784</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B60">
         <v>4.3099999999999996</v>
@@ -6480,20 +6609,20 @@
       </c>
       <c r="D60">
         <f>IFERROR(VLOOKUP(A60,MalRout2019!A:B,2,0), )</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>361</v>
+        <v>841</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>4.2</v>
@@ -6503,20 +6632,20 @@
       </c>
       <c r="D61">
         <f>IFERROR(VLOOKUP(A61,MalRout2019!A:B,2,0), )</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
-        <v>1156</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B62">
         <v>3.77</v>
@@ -6526,118 +6655,98 @@
       </c>
       <c r="D62">
         <f>IFERROR(VLOOKUP(A62,MalRout2019!A:B,2,0), )</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="D63">
         <f>IFERROR(VLOOKUP(A63,MalRout2019!A:B,2,0), )</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>-35</v>
+        <v>-48</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>1225</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="D64">
         <f>IFERROR(VLOOKUP(A64,MalRout2019!A:B,2,0), )</f>
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>-59</v>
+        <v>-14</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>3481</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="D65">
         <f>IFERROR(VLOOKUP(A65,MalRout2019!A:B,2,0), )</f>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>-24</v>
+        <v>-6</v>
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
-        <v>576</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <f>IFERROR(VLOOKUP(A66,MalRout2019!A:B,2,0), )</f>
-        <v>7</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="0"/>
-        <v>-7</v>
-      </c>
       <c r="F66">
-        <f t="shared" si="1"/>
-        <v>49</v>
+        <f>SUM(F2:F65)</f>
+        <v>44163</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F67">
-        <f>SUM(F2:F66)</f>
-        <v>52432</v>
+        <f>65*(65^2-1)</f>
+        <v>274560</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F68">
-        <f>65*(65^2-1)</f>
-        <v>274560</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F69">
-        <f>1-((6*F67)/F68)</f>
-        <v>-0.14580419580419579</v>
+        <f>1-((6*F66)/F67)</f>
+        <v>3.4899475524475476E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B66">
-    <sortCondition descending="1" ref="B2:B66"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B65">
+    <sortCondition descending="1" ref="B2:B65"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6645,10 +6754,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073D67BF-D262-42C5-A66A-4BB41376A9E7}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6662,19 +6771,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -6689,15 +6798,15 @@
       </c>
       <c r="D2">
         <f>IFERROR(VLOOKUP(A2,MalRout2019!A:B,2,0), )</f>
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E2">
         <f>C2-D2</f>
-        <v>-53</v>
+        <v>-44</v>
       </c>
       <c r="F2">
         <f>E2^2</f>
-        <v>2809</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6712,20 +6821,20 @@
       </c>
       <c r="D3">
         <f>IFERROR(VLOOKUP(A3,MalRout2019!A:B,2,0), )</f>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">C3-D3</f>
-        <v>-49</v>
+        <f t="shared" ref="E3:E65" si="0">C3-D3</f>
+        <v>-41</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="1">E3^2</f>
-        <v>2401</v>
+        <f t="shared" ref="F3:F65" si="1">E3^2</f>
+        <v>1681</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>0.89114402845742546</v>
@@ -6735,20 +6844,20 @@
       </c>
       <c r="D4">
         <f>IFERROR(VLOOKUP(A4,MalRout2019!A:B,2,0), )</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <v>0.86911904853371325</v>
@@ -6758,20 +6867,20 @@
       </c>
       <c r="D5">
         <f>IFERROR(VLOOKUP(A5,MalRout2019!A:B,2,0), )</f>
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>-49</v>
+        <v>-38</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>2401</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>0.86853559037264649</v>
@@ -6781,20 +6890,20 @@
       </c>
       <c r="D6">
         <f>IFERROR(VLOOKUP(A6,MalRout2019!A:B,2,0), )</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>0.86014304896157268</v>
@@ -6804,20 +6913,20 @@
       </c>
       <c r="D7">
         <f>IFERROR(VLOOKUP(A7,MalRout2019!A:B,2,0), )</f>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>-44</v>
+        <v>-38</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>1936</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8">
         <v>0.84675328916328274</v>
@@ -6827,20 +6936,20 @@
       </c>
       <c r="D8">
         <f>IFERROR(VLOOKUP(A8,MalRout2019!A:B,2,0), )</f>
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>-54</v>
+        <v>-31</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>2916</v>
+        <v>961</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>0.83413355740130823</v>
@@ -6850,20 +6959,20 @@
       </c>
       <c r="D9">
         <f>IFERROR(VLOOKUP(A9,MalRout2019!A:B,2,0), )</f>
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>-38</v>
+        <v>-25</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>1444</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>0.8144505373517883</v>
@@ -6873,20 +6982,20 @@
       </c>
       <c r="D10">
         <f>IFERROR(VLOOKUP(A10,MalRout2019!A:B,2,0), )</f>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>0.78489408968766805</v>
@@ -6896,20 +7005,20 @@
       </c>
       <c r="D11">
         <f>IFERROR(VLOOKUP(A11,MalRout2019!A:B,2,0), )</f>
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>-29</v>
+        <v>-15</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>841</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>0.78471691684668832</v>
@@ -6919,20 +7028,20 @@
       </c>
       <c r="D12">
         <f>IFERROR(VLOOKUP(A12,MalRout2019!A:B,2,0), )</f>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>-38</v>
+        <v>-30</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>1444</v>
+        <v>900</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>0.75050135768661608</v>
@@ -6942,20 +7051,20 @@
       </c>
       <c r="D13">
         <f>IFERROR(VLOOKUP(A13,MalRout2019!A:B,2,0), )</f>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>-34</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>0.74876660330349021</v>
@@ -6965,20 +7074,20 @@
       </c>
       <c r="D14">
         <f>IFERROR(VLOOKUP(A14,MalRout2019!A:B,2,0), )</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>-19</v>
+        <v>-16</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>361</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>0.73077588687860195</v>
@@ -6988,20 +7097,20 @@
       </c>
       <c r="D15">
         <f>IFERROR(VLOOKUP(A15,MalRout2019!A:B,2,0), )</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>0.71953051624654329</v>
@@ -7011,20 +7120,20 @@
       </c>
       <c r="D16">
         <f>IFERROR(VLOOKUP(A16,MalRout2019!A:B,2,0), )</f>
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>-26</v>
+        <v>-41</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>676</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17">
         <v>0.65582951239744636</v>
@@ -7034,15 +7143,15 @@
       </c>
       <c r="D17">
         <f>IFERROR(VLOOKUP(A17,MalRout2019!A:B,2,0), )</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-12</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -7057,20 +7166,20 @@
       </c>
       <c r="D18">
         <f>IFERROR(VLOOKUP(A18,MalRout2019!A:B,2,0), )</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>-2</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0.6378767630621609</v>
@@ -7080,15 +7189,15 @@
       </c>
       <c r="D19">
         <f>IFERROR(VLOOKUP(A19,MalRout2019!A:B,2,0), )</f>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>-26</v>
+        <v>-31</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>676</v>
+        <v>961</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7103,20 +7212,20 @@
       </c>
       <c r="D20">
         <f>IFERROR(VLOOKUP(A20,MalRout2019!A:B,2,0), )</f>
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>-5</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>0.63705958581048239</v>
@@ -7126,15 +7235,15 @@
       </c>
       <c r="D21">
         <f>IFERROR(VLOOKUP(A21,MalRout2019!A:B,2,0), )</f>
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>-43</v>
+        <v>-37</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>1849</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -7149,20 +7258,20 @@
       </c>
       <c r="D22">
         <f>IFERROR(VLOOKUP(A22,MalRout2019!A:B,2,0), )</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0.6312964806245045</v>
@@ -7172,20 +7281,20 @@
       </c>
       <c r="D23">
         <f>IFERROR(VLOOKUP(A23,MalRout2019!A:B,2,0), )</f>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>-35</v>
+        <v>-30</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>1225</v>
+        <v>900</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <v>0.63006288444757819</v>
@@ -7195,15 +7304,15 @@
       </c>
       <c r="D24">
         <f>IFERROR(VLOOKUP(A24,MalRout2019!A:B,2,0), )</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-11</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -7218,20 +7327,20 @@
       </c>
       <c r="D25">
         <f>IFERROR(VLOOKUP(A25,MalRout2019!A:B,2,0), )</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>0.6122255150673549</v>
@@ -7241,20 +7350,20 @@
       </c>
       <c r="D26">
         <f>IFERROR(VLOOKUP(A26,MalRout2019!A:B,2,0), )</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>576</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0.59299428778727037</v>
@@ -7264,20 +7373,20 @@
       </c>
       <c r="D27">
         <f>IFERROR(VLOOKUP(A27,MalRout2019!A:B,2,0), )</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>0.58862550177701733</v>
@@ -7287,20 +7396,20 @@
       </c>
       <c r="D28">
         <f>IFERROR(VLOOKUP(A28,MalRout2019!A:B,2,0), )</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>529</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>0.58527474906641241</v>
@@ -7310,20 +7419,20 @@
       </c>
       <c r="D29">
         <f>IFERROR(VLOOKUP(A29,MalRout2019!A:B,2,0), )</f>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>0.58362599219751221</v>
@@ -7333,20 +7442,20 @@
       </c>
       <c r="D30">
         <f>IFERROR(VLOOKUP(A30,MalRout2019!A:B,2,0), )</f>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>-26</v>
+        <v>-29</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>676</v>
+        <v>841</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>0.58188038077631887</v>
@@ -7356,20 +7465,20 @@
       </c>
       <c r="D31">
         <f>IFERROR(VLOOKUP(A31,MalRout2019!A:B,2,0), )</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>576</v>
+        <v>484</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32">
         <v>0.58035911744637447</v>
@@ -7379,20 +7488,20 @@
       </c>
       <c r="D32">
         <f>IFERROR(VLOOKUP(A32,MalRout2019!A:B,2,0), )</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>441</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33">
         <v>0.57704606870407349</v>
@@ -7402,20 +7511,20 @@
       </c>
       <c r="D33">
         <f>IFERROR(VLOOKUP(A33,MalRout2019!A:B,2,0), )</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34">
         <v>0.55927345319823485</v>
@@ -7425,20 +7534,20 @@
       </c>
       <c r="D34">
         <f>IFERROR(VLOOKUP(A34,MalRout2019!A:B,2,0), )</f>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>529</v>
+        <v>484</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35">
         <v>0.55390341326493131</v>
@@ -7448,20 +7557,20 @@
       </c>
       <c r="D35">
         <f>IFERROR(VLOOKUP(A35,MalRout2019!A:B,2,0), )</f>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>1089</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36">
         <v>0.55299146051697501</v>
@@ -7471,20 +7580,20 @@
       </c>
       <c r="D36">
         <f>IFERROR(VLOOKUP(A36,MalRout2019!A:B,2,0), )</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37">
         <v>0.54019709431738794</v>
@@ -7494,20 +7603,20 @@
       </c>
       <c r="D37">
         <f>IFERROR(VLOOKUP(A37,MalRout2019!A:B,2,0), )</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>0.53325361637866364</v>
@@ -7517,20 +7626,20 @@
       </c>
       <c r="D38">
         <f>IFERROR(VLOOKUP(A38,MalRout2019!A:B,2,0), )</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>0.52839816492673453</v>
@@ -7540,20 +7649,20 @@
       </c>
       <c r="D39">
         <f>IFERROR(VLOOKUP(A39,MalRout2019!A:B,2,0), )</f>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40">
         <v>0.52184164560876656</v>
@@ -7563,20 +7672,20 @@
       </c>
       <c r="D40">
         <f>IFERROR(VLOOKUP(A40,MalRout2019!A:B,2,0), )</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>625</v>
+        <v>576</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41">
         <v>0.52008983619241922</v>
@@ -7586,15 +7695,15 @@
       </c>
       <c r="D41">
         <f>IFERROR(VLOOKUP(A41,MalRout2019!A:B,2,0), )</f>
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -7609,20 +7718,20 @@
       </c>
       <c r="D42">
         <f>IFERROR(VLOOKUP(A42,MalRout2019!A:B,2,0), )</f>
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>-20</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B43">
         <v>0.5142839194957497</v>
@@ -7632,15 +7741,15 @@
       </c>
       <c r="D43">
         <f>IFERROR(VLOOKUP(A43,MalRout2019!A:B,2,0), )</f>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -7655,20 +7764,20 @@
       </c>
       <c r="D44">
         <f>IFERROR(VLOOKUP(A44,MalRout2019!A:B,2,0), )</f>
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
-        <v>841</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45">
         <v>0.48748497532787638</v>
@@ -7678,20 +7787,20 @@
       </c>
       <c r="D45">
         <f>IFERROR(VLOOKUP(A45,MalRout2019!A:B,2,0), )</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>0.48700442411163258</v>
@@ -7701,15 +7810,15 @@
       </c>
       <c r="D46">
         <f>IFERROR(VLOOKUP(A46,MalRout2019!A:B,2,0), )</f>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>1156</v>
+        <v>361</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -7724,20 +7833,20 @@
       </c>
       <c r="D47">
         <f>IFERROR(VLOOKUP(A47,MalRout2019!A:B,2,0), )</f>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>0.45517451139857373</v>
@@ -7747,15 +7856,15 @@
       </c>
       <c r="D48">
         <f>IFERROR(VLOOKUP(A48,MalRout2019!A:B,2,0), )</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>1369</v>
+        <v>729</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -7770,20 +7879,20 @@
       </c>
       <c r="D49">
         <f>IFERROR(VLOOKUP(A49,MalRout2019!A:B,2,0), )</f>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
-        <v>361</v>
+        <v>625</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50">
         <v>0.42044821390996445</v>
@@ -7793,20 +7902,20 @@
       </c>
       <c r="D50">
         <f>IFERROR(VLOOKUP(A50,MalRout2019!A:B,2,0), )</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>576</v>
+        <v>729</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51">
         <v>0.41714472492009746</v>
@@ -7816,15 +7925,15 @@
       </c>
       <c r="D51">
         <f>IFERROR(VLOOKUP(A51,MalRout2019!A:B,2,0), )</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>1225</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -7852,7 +7961,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B53">
         <v>0.40512071436273073</v>
@@ -7862,15 +7971,15 @@
       </c>
       <c r="D53">
         <f>IFERROR(VLOOKUP(A53,MalRout2019!A:B,2,0), )</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -7885,20 +7994,20 @@
       </c>
       <c r="D54">
         <f>IFERROR(VLOOKUP(A54,MalRout2019!A:B,2,0), )</f>
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B55">
         <v>0.4008517312373806</v>
@@ -7908,15 +8017,15 @@
       </c>
       <c r="D55">
         <f>IFERROR(VLOOKUP(A55,MalRout2019!A:B,2,0), )</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -7931,20 +8040,20 @@
       </c>
       <c r="D56">
         <f>IFERROR(VLOOKUP(A56,MalRout2019!A:B,2,0), )</f>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
-        <v>1156</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57">
         <v>0.37405028747743563</v>
@@ -7954,20 +8063,20 @@
       </c>
       <c r="D57">
         <f>IFERROR(VLOOKUP(A57,MalRout2019!A:B,2,0), )</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58">
         <v>0.34482063851533457</v>
@@ -7977,20 +8086,20 @@
       </c>
       <c r="D58">
         <f>IFERROR(VLOOKUP(A58,MalRout2019!A:B,2,0), )</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B59">
         <v>0.34470588134898072</v>
@@ -8000,20 +8109,20 @@
       </c>
       <c r="D59">
         <f>IFERROR(VLOOKUP(A59,MalRout2019!A:B,2,0), )</f>
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>1296</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B60">
         <v>0.33784643902554545</v>
@@ -8023,20 +8132,20 @@
       </c>
       <c r="D60">
         <f>IFERROR(VLOOKUP(A60,MalRout2019!A:B,2,0), )</f>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61">
         <v>0.30721370592312058</v>
@@ -8046,20 +8155,20 @@
       </c>
       <c r="D61">
         <f>IFERROR(VLOOKUP(A61,MalRout2019!A:B,2,0), )</f>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B62">
         <v>0.2614231986848477</v>
@@ -8069,20 +8178,20 @@
       </c>
       <c r="D62">
         <f>IFERROR(VLOOKUP(A62,MalRout2019!A:B,2,0), )</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>961</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63">
         <v>0.22686376566069522</v>
@@ -8092,20 +8201,20 @@
       </c>
       <c r="D63">
         <f>IFERROR(VLOOKUP(A63,MalRout2019!A:B,2,0), )</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>1296</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B64">
         <v>0.21446102966010308</v>
@@ -8115,78 +8224,58 @@
       </c>
       <c r="D64">
         <f>IFERROR(VLOOKUP(A64,MalRout2019!A:B,2,0), )</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="D65">
         <f>IFERROR(VLOOKUP(A65,MalRout2019!A:B,2,0), )</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>-35</v>
+        <v>-48</v>
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
-        <v>1225</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>36</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <f>IFERROR(VLOOKUP(A66,MalRout2019!A:B,2,0), )</f>
-        <v>59</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="0"/>
-        <v>-59</v>
-      </c>
       <c r="F66">
-        <f t="shared" si="1"/>
-        <v>3481</v>
+        <f>SUM(F2:F65)</f>
+        <v>42044</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F67">
-        <f>SUM(F2:F66)</f>
-        <v>51991</v>
+        <f>65*(65^2-1)</f>
+        <v>274560</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F68">
-        <f>65*(65^2-1)</f>
-        <v>274560</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F69">
-        <f>1-((6*F67)/F68)</f>
-        <v>-0.136166958041958</v>
+        <f>1-((6*F66)/F67)</f>
+        <v>8.1206293706293731E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B66">
-    <sortCondition descending="1" ref="B2:B66"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B65">
+    <sortCondition descending="1" ref="B2:B65"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8194,10 +8283,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A68DFB-8B47-450C-9DB6-0E1F407E96C6}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8211,24 +8300,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
-        <v>77</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -8238,20 +8327,20 @@
       </c>
       <c r="D2">
         <f>IFERROR(VLOOKUP(A2,MalRout2019!A:B,2,0), )</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <f>C2-D2</f>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F2">
         <f>E2^2</f>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>16</v>
@@ -8261,15 +8350,15 @@
       </c>
       <c r="D3">
         <f>IFERROR(VLOOKUP(A3,MalRout2019!A:B,2,0), )</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">C3-D3</f>
-        <v>-7</v>
+        <f t="shared" ref="E3:E65" si="0">C3-D3</f>
+        <v>-1</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="1">E3^2</f>
-        <v>49</v>
+        <f t="shared" ref="F3:F65" si="1">E3^2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8284,20 +8373,20 @@
       </c>
       <c r="D4">
         <f>IFERROR(VLOOKUP(A4,MalRout2019!A:B,2,0), )</f>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>-48</v>
+        <v>-40</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>2304</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -8307,15 +8396,15 @@
       </c>
       <c r="D5">
         <f>IFERROR(VLOOKUP(A5,MalRout2019!A:B,2,0), )</f>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-40</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>2116</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8330,20 +8419,20 @@
       </c>
       <c r="D6">
         <f>IFERROR(VLOOKUP(A6,MalRout2019!A:B,2,0), )</f>
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>-49</v>
+        <v>-40</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>2401</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>23</v>
@@ -8353,20 +8442,20 @@
       </c>
       <c r="D7">
         <f>IFERROR(VLOOKUP(A7,MalRout2019!A:B,2,0), )</f>
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>-55</v>
+        <v>-32</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>3025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>25</v>
@@ -8376,20 +8465,20 @@
       </c>
       <c r="D8">
         <f>IFERROR(VLOOKUP(A8,MalRout2019!A:B,2,0), )</f>
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-35</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>2116</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>26</v>
@@ -8399,20 +8488,20 @@
       </c>
       <c r="D9">
         <f>IFERROR(VLOOKUP(A9,MalRout2019!A:B,2,0), )</f>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>-41</v>
+        <v>-33</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>1681</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>27</v>
@@ -8422,20 +8511,20 @@
       </c>
       <c r="D10">
         <f>IFERROR(VLOOKUP(A10,MalRout2019!A:B,2,0), )</f>
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>-37</v>
+        <v>-24</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>1369</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>31</v>
@@ -8445,20 +8534,20 @@
       </c>
       <c r="D11">
         <f>IFERROR(VLOOKUP(A11,MalRout2019!A:B,2,0), )</f>
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>-29</v>
+        <v>-15</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>841</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>34</v>
@@ -8468,20 +8557,20 @@
       </c>
       <c r="D12">
         <f>IFERROR(VLOOKUP(A12,MalRout2019!A:B,2,0), )</f>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>-3</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>38</v>
@@ -8491,20 +8580,20 @@
       </c>
       <c r="D13">
         <f>IFERROR(VLOOKUP(A13,MalRout2019!A:B,2,0), )</f>
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>-29</v>
+        <v>-44</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>841</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>43</v>
@@ -8514,20 +8603,20 @@
       </c>
       <c r="D14">
         <f>IFERROR(VLOOKUP(A14,MalRout2019!A:B,2,0), )</f>
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>-50</v>
+        <v>-44</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>44</v>
@@ -8537,20 +8626,20 @@
       </c>
       <c r="D15">
         <f>IFERROR(VLOOKUP(A15,MalRout2019!A:B,2,0), )</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <v>44</v>
@@ -8560,20 +8649,20 @@
       </c>
       <c r="D16">
         <f>IFERROR(VLOOKUP(A16,MalRout2019!A:B,2,0), )</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <v>45</v>
@@ -8583,15 +8672,15 @@
       </c>
       <c r="D17">
         <f>IFERROR(VLOOKUP(A17,MalRout2019!A:B,2,0), )</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8606,15 +8695,15 @@
       </c>
       <c r="D18">
         <f>IFERROR(VLOOKUP(A18,MalRout2019!A:B,2,0), )</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8629,20 +8718,20 @@
       </c>
       <c r="D19">
         <f>IFERROR(VLOOKUP(A19,MalRout2019!A:B,2,0), )</f>
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>-19</v>
+        <v>-6</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>361</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>49</v>
@@ -8652,20 +8741,20 @@
       </c>
       <c r="D20">
         <f>IFERROR(VLOOKUP(A20,MalRout2019!A:B,2,0), )</f>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>-38</v>
+        <v>-33</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>1444</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>50</v>
@@ -8675,20 +8764,20 @@
       </c>
       <c r="D21">
         <f>IFERROR(VLOOKUP(A21,MalRout2019!A:B,2,0), )</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22">
         <v>51</v>
@@ -8698,20 +8787,20 @@
       </c>
       <c r="D22">
         <f>IFERROR(VLOOKUP(A22,MalRout2019!A:B,2,0), )</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>-14</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23">
         <v>53</v>
@@ -8721,20 +8810,20 @@
       </c>
       <c r="D23">
         <f>IFERROR(VLOOKUP(A23,MalRout2019!A:B,2,0), )</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>54</v>
@@ -8744,20 +8833,20 @@
       </c>
       <c r="D24">
         <f>IFERROR(VLOOKUP(A24,MalRout2019!A:B,2,0), )</f>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>-21</v>
+        <v>-26</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>676</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25">
         <v>56</v>
@@ -8767,15 +8856,15 @@
       </c>
       <c r="D25">
         <f>IFERROR(VLOOKUP(A25,MalRout2019!A:B,2,0), )</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>361</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8790,20 +8879,20 @@
       </c>
       <c r="D26">
         <f>IFERROR(VLOOKUP(A26,MalRout2019!A:B,2,0), )</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>58</v>
@@ -8813,20 +8902,20 @@
       </c>
       <c r="D27">
         <f>IFERROR(VLOOKUP(A27,MalRout2019!A:B,2,0), )</f>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28">
         <v>58</v>
@@ -8836,20 +8925,20 @@
       </c>
       <c r="D28">
         <f>IFERROR(VLOOKUP(A28,MalRout2019!A:B,2,0), )</f>
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29">
         <v>61</v>
@@ -8859,15 +8948,15 @@
       </c>
       <c r="D29">
         <f>IFERROR(VLOOKUP(A29,MalRout2019!A:B,2,0), )</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -8882,15 +8971,15 @@
       </c>
       <c r="D30">
         <f>IFERROR(VLOOKUP(A30,MalRout2019!A:B,2,0), )</f>
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>-10</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8905,20 +8994,20 @@
       </c>
       <c r="D31">
         <f>IFERROR(VLOOKUP(A31,MalRout2019!A:B,2,0), )</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>784</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32">
         <v>63</v>
@@ -8928,20 +9017,20 @@
       </c>
       <c r="D32">
         <f>IFERROR(VLOOKUP(A32,MalRout2019!A:B,2,0), )</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>361</v>
+        <v>729</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>64</v>
@@ -8951,20 +9040,20 @@
       </c>
       <c r="D33">
         <f>IFERROR(VLOOKUP(A33,MalRout2019!A:B,2,0), )</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
         <v>4</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="1"/>
-        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>65</v>
@@ -8974,20 +9063,20 @@
       </c>
       <c r="D34">
         <f>IFERROR(VLOOKUP(A34,MalRout2019!A:B,2,0), )</f>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35">
         <v>66</v>
@@ -8997,20 +9086,20 @@
       </c>
       <c r="D35">
         <f>IFERROR(VLOOKUP(A35,MalRout2019!A:B,2,0), )</f>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>1089</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>66</v>
@@ -9020,20 +9109,20 @@
       </c>
       <c r="D36">
         <f>IFERROR(VLOOKUP(A36,MalRout2019!A:B,2,0), )</f>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>67</v>
@@ -9043,20 +9132,20 @@
       </c>
       <c r="D37">
         <f>IFERROR(VLOOKUP(A37,MalRout2019!A:B,2,0), )</f>
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>-23</v>
+        <v>-12</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>529</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38">
         <v>67</v>
@@ -9066,20 +9155,20 @@
       </c>
       <c r="D38">
         <f>IFERROR(VLOOKUP(A38,MalRout2019!A:B,2,0), )</f>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-9</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39">
         <v>68</v>
@@ -9089,20 +9178,20 @@
       </c>
       <c r="D39">
         <f>IFERROR(VLOOKUP(A39,MalRout2019!A:B,2,0), )</f>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>289</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>69</v>
@@ -9112,15 +9201,15 @@
       </c>
       <c r="D40">
         <f>IFERROR(VLOOKUP(A40,MalRout2019!A:B,2,0), )</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>1296</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -9135,15 +9224,15 @@
       </c>
       <c r="D41">
         <f>IFERROR(VLOOKUP(A41,MalRout2019!A:B,2,0), )</f>
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>-21</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -9158,20 +9247,20 @@
       </c>
       <c r="D42">
         <f>IFERROR(VLOOKUP(A42,MalRout2019!A:B,2,0), )</f>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>73</v>
@@ -9181,20 +9270,20 @@
       </c>
       <c r="D43">
         <f>IFERROR(VLOOKUP(A43,MalRout2019!A:B,2,0), )</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>289</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44">
         <v>74</v>
@@ -9204,20 +9293,20 @@
       </c>
       <c r="D44">
         <f>IFERROR(VLOOKUP(A44,MalRout2019!A:B,2,0), )</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
-        <v>784</v>
+        <v>961</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45">
         <v>76</v>
@@ -9227,20 +9316,20 @@
       </c>
       <c r="D45">
         <f>IFERROR(VLOOKUP(A45,MalRout2019!A:B,2,0), )</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>77</v>
@@ -9250,20 +9339,20 @@
       </c>
       <c r="D46">
         <f>IFERROR(VLOOKUP(A46,MalRout2019!A:B,2,0), )</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>-17</v>
+        <v>-19</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>289</v>
+        <v>361</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47">
         <v>77</v>
@@ -9273,20 +9362,20 @@
       </c>
       <c r="D47">
         <f>IFERROR(VLOOKUP(A47,MalRout2019!A:B,2,0), )</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48">
         <v>77</v>
@@ -9296,20 +9385,20 @@
       </c>
       <c r="D48">
         <f>IFERROR(VLOOKUP(A48,MalRout2019!A:B,2,0), )</f>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49">
         <v>78</v>
@@ -9319,20 +9408,20 @@
       </c>
       <c r="D49">
         <f>IFERROR(VLOOKUP(A49,MalRout2019!A:B,2,0), )</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <v>79</v>
@@ -9342,20 +9431,20 @@
       </c>
       <c r="D50">
         <f>IFERROR(VLOOKUP(A50,MalRout2019!A:B,2,0), )</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51">
         <v>81</v>
@@ -9365,15 +9454,15 @@
       </c>
       <c r="D51">
         <f>IFERROR(VLOOKUP(A51,MalRout2019!A:B,2,0), )</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>576</v>
+        <v>529</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -9388,20 +9477,20 @@
       </c>
       <c r="D52">
         <f>IFERROR(VLOOKUP(A52,MalRout2019!A:B,2,0), )</f>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>784</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53">
         <v>83</v>
@@ -9411,20 +9500,20 @@
       </c>
       <c r="D53">
         <f>IFERROR(VLOOKUP(A53,MalRout2019!A:B,2,0), )</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>1764</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54">
         <v>84</v>
@@ -9434,20 +9523,20 @@
       </c>
       <c r="D54">
         <f>IFERROR(VLOOKUP(A54,MalRout2019!A:B,2,0), )</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B55">
         <v>85</v>
@@ -9457,20 +9546,20 @@
       </c>
       <c r="D55">
         <f>IFERROR(VLOOKUP(A55,MalRout2019!A:B,2,0), )</f>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>529</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B56">
         <v>86</v>
@@ -9480,20 +9569,20 @@
       </c>
       <c r="D56">
         <f>IFERROR(VLOOKUP(A56,MalRout2019!A:B,2,0), )</f>
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
-        <v>1089</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57">
         <v>86</v>
@@ -9503,20 +9592,20 @@
       </c>
       <c r="D57">
         <f>IFERROR(VLOOKUP(A57,MalRout2019!A:B,2,0), )</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58">
         <v>86</v>
@@ -9526,15 +9615,15 @@
       </c>
       <c r="D58">
         <f>IFERROR(VLOOKUP(A58,MalRout2019!A:B,2,0), )</f>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>729</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -9549,15 +9638,15 @@
       </c>
       <c r="D59">
         <f>IFERROR(VLOOKUP(A59,MalRout2019!A:B,2,0), )</f>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -9572,20 +9661,20 @@
       </c>
       <c r="D60">
         <f>IFERROR(VLOOKUP(A60,MalRout2019!A:B,2,0), )</f>
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B61">
         <v>87</v>
@@ -9595,15 +9684,15 @@
       </c>
       <c r="D61">
         <f>IFERROR(VLOOKUP(A61,MalRout2019!A:B,2,0), )</f>
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -9631,7 +9720,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B63">
         <v>90</v>
@@ -9641,20 +9730,20 @@
       </c>
       <c r="D63">
         <f>IFERROR(VLOOKUP(A63,MalRout2019!A:B,2,0), )</f>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B64">
         <v>90</v>
@@ -9664,100 +9753,67 @@
       </c>
       <c r="D64">
         <f>IFERROR(VLOOKUP(A64,MalRout2019!A:B,2,0), )</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C65">
         <v>64</v>
       </c>
       <c r="D65">
         <f>IFERROR(VLOOKUP(A65,MalRout2019!A:B,2,0), )</f>
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
-        <v>841</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>95</v>
-      </c>
-      <c r="C66">
-        <v>65</v>
-      </c>
-      <c r="D66">
-        <f>IFERROR(VLOOKUP(A66,MalRout2019!A:B,2,0), )</f>
-        <v>7</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
       <c r="F66">
-        <f t="shared" si="1"/>
-        <v>3364</v>
+        <f>SUM(F2:F65)</f>
+        <v>37564</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F67">
-        <f>SUM(F2:F66)</f>
-        <v>46390</v>
+        <f>65*(65^2-1)</f>
+        <v>274560</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F68">
-        <f>65*(65^2-1)</f>
-        <v>274560</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F69">
-        <f>1-((6*F67)/F68)</f>
-        <v>-1.3767482517482499E-2</v>
+        <f>1-((6*F66)/F67)</f>
+        <v>0.17910839160839165</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B66">
-    <sortCondition ref="B2:B66"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B65">
+    <sortCondition ref="B2:B65"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DocumentType xmlns="c35e2d04-db00-4c32-92ef-5c850c76cd43" xsi:nil="true"/>
-    <DocumentDescription xmlns="bbeb8e2e-daad-4c9b-b304-1c3eab47a3c8" xsi:nil="true"/>
-    <DocumentGroup xmlns="83dd29aa-65c1-4a57-8a59-44e3dbcdc3a0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9766,7 +9822,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Project Document" ma:contentTypeID="0x010100B72D5037F2EA664DBFC5187AA8D6B65C00A3340CEDB5DA7E4B9BB96631FD89FF21" ma:contentTypeVersion="7" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="bd1ef9963cf2a2e7e91ecbe90abdc46d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bbeb8e2e-daad-4c9b-b304-1c3eab47a3c8" xmlns:ns3="c35e2d04-db00-4c32-92ef-5c850c76cd43" xmlns:ns4="83dd29aa-65c1-4a57-8a59-44e3dbcdc3a0" xmlns:ns5="34c09e02-ee14-4df8-b4da-da82f6bef5e6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c4316eafdb6baf2714cef7a8594a8608" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="bbeb8e2e-daad-4c9b-b304-1c3eab47a3c8"/>
@@ -9981,19 +10037,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6230D5F0-77D7-4D96-AA50-17E5A7AA5F87}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c35e2d04-db00-4c32-92ef-5c850c76cd43"/>
-    <ds:schemaRef ds:uri="bbeb8e2e-daad-4c9b-b304-1c3eab47a3c8"/>
-    <ds:schemaRef ds:uri="83dd29aa-65c1-4a57-8a59-44e3dbcdc3a0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DocumentType xmlns="c35e2d04-db00-4c32-92ef-5c850c76cd43" xsi:nil="true"/>
+    <DocumentDescription xmlns="bbeb8e2e-daad-4c9b-b304-1c3eab47a3c8" xsi:nil="true"/>
+    <DocumentGroup xmlns="83dd29aa-65c1-4a57-8a59-44e3dbcdc3a0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E44E48-64AF-4C77-9A9D-F8B314961EB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -10001,7 +10055,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09F63946-DBCD-497D-A66C-7D2FAB518D56}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10020,4 +10074,16 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6230D5F0-77D7-4D96-AA50-17E5A7AA5F87}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c35e2d04-db00-4c32-92ef-5c850c76cd43"/>
+    <ds:schemaRef ds:uri="bbeb8e2e-daad-4c9b-b304-1c3eab47a3c8"/>
+    <ds:schemaRef ds:uri="83dd29aa-65c1-4a57-8a59-44e3dbcdc3a0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Index Comp Shortlist.xlsx
+++ b/data/Index Comp Shortlist.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikna\Desktop\Politics of Routing\indexes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288CA9A6-18F6-40D2-9AC9-D223250918DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB0FE25-18C6-4C5B-9E92-A8E43686DD6A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="1440" windowWidth="24435" windowHeight="12585" tabRatio="658" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="1665" windowWidth="24435" windowHeight="12585" tabRatio="658" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MalRout2019" sheetId="11" r:id="rId1"/>
-    <sheet name="FOTN2018" sheetId="1" r:id="rId2"/>
-    <sheet name="HFI2015Short" sheetId="4" r:id="rId3"/>
-    <sheet name="HFI2016Short" sheetId="6" r:id="rId4"/>
-    <sheet name="SoWL2018Short" sheetId="8" r:id="rId5"/>
-    <sheet name="FOTP2017Short" sheetId="10" r:id="rId6"/>
+    <sheet name="GDP2017" sheetId="12" r:id="rId2"/>
+    <sheet name="FOTN2018" sheetId="1" r:id="rId3"/>
+    <sheet name="HFI2015Short" sheetId="4" r:id="rId4"/>
+    <sheet name="HFI2016Short" sheetId="6" r:id="rId5"/>
+    <sheet name="SoWL2018Short" sheetId="8" r:id="rId6"/>
+    <sheet name="FOTP2017Short" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">HFI2015Short!$A$1:$B$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">HFI2015Short!$A$1:$B$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="87">
   <si>
     <t>Country</t>
   </si>
@@ -194,9 +195,6 @@
     <t>South Africa</t>
   </si>
   <si>
-    <t>South Korea</t>
-  </si>
-  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
@@ -285,6 +283,24 @@
   </si>
   <si>
     <t>Malicious Routing</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>Islamic Republic of Iran</t>
+  </si>
+  <si>
+    <t>Korea, Republic of</t>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
   </si>
 </sst>
 </file>
@@ -400,6 +416,1287 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'GDP2017'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Malicious Routing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'GDP2017'!$B$2:$B$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>122123822333.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>637430331479.46899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11536590635.826799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1323421072479.0701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40747792237.973503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35307127659.574501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>249723862487.36099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54456465472.616203</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2055505502224.73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22158209502.639099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1653042795255.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12237700479375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>314457601859.52301</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>104295862000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>235369129337.711</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25921079612.333698</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80561496133.917206</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2582501307216.4199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1489464787.5741501</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15081338092.2875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3677439129776.6001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>139135029758.29001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23909289978.586102</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2600818243559.6499</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1015539017536.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>454012768723.58899</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1934797937411.3301</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4872136945507.5898</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40068308450.704201</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>162886867831.694</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>79263075749.268204</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1530750923148.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7564738836.0412197</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>53576985686.699799</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38107728082.581703</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6303292264.1890497</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>314710259510.74298</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1150887823404.1799</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>109708728848.535</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>67068745521.382301</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>375745486520.65601</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>304951818494.06598</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>313595208736.65997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1577524145962.8501</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9135454442.1401291</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>686738400000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>323907234412.34003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>348871647959.64001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>87357205923.123795</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>117487857142.85699</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45000000000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>455302682985.75702</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>39952095560.882896</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>851549299635.427</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25995031850.165798</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>112154185121.40601</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>382575085091.89899</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2622433959604.1602</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19390604000000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>49677172714.260002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>314000000000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>223779865815.18301</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25868142073.452</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>22040902300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'GDP2017'!$G$2:$G$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>0.18596826106008185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16979194261652997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22565271470077011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40112130900943532</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31473106380802574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3834995893358305</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37655617251930151</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26336317721331676</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27270214291553119</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57782179133632272</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39579297497180921</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4733466791076103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.21227365431081802</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21501494763561757</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.74524069100009327</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0038402736197981E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.47185162300674788</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.39089590878344693</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.54628107085808775</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.30781682477527383</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.39628523269096938</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.19348630565490987</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.8743439096951978E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.51431535191506772</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.46715266803494326</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.46616295781214967</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27398504006564184</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.316644947570629</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.53023867501522404</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.31165107843441275</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.16799486654671944</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.42888829748262569</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.19686418348602067</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.30938604053856567</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.18018164178462476</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.020317186154314E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.3239525695339901</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.35724606231279021</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.25816447970376577</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.32788924175379053</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.28352217867391344</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.2989445963663685</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.23191084629857239</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.71209711615632054</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.22286331657142858</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.40493505438214794</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.51402033656529278</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.20880311244750585</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.23556478314245521</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.21295344690447038</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.43412499842220165</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.48354674979603463</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.42931198523261827</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54925085004730068</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.1890228435085177</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.34059135783433392</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.42482649871951461</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.39420633677030448</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.37645972656714399</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.16883999057172744</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.29084137045699288</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.63712446954483581</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.15380027712575087</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.19683115926232195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E387-4CAA-B7C6-61D9C9834F2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="577638160"/>
+        <c:axId val="577638488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="577638160"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577638488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="577638488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577638160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E9062F-61C1-43F2-98B4-BA708C02F5D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -667,8 +1964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6658616-28D4-44A9-A3DA-9C68A8010E59}">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,10 +1975,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -730,7 +2027,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>32</v>
@@ -961,7 +2258,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="B27">
         <v>51</v>
@@ -1027,7 +2324,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="B33">
         <v>48</v>
@@ -1038,7 +2335,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>13</v>
@@ -1049,7 +2346,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>30</v>
@@ -1060,7 +2357,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -1071,7 +2368,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1082,7 +2379,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -1093,7 +2390,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>37</v>
@@ -1104,7 +2401,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>22</v>
@@ -1115,7 +2412,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>35</v>
@@ -1126,7 +2423,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>26</v>
@@ -1137,7 +2434,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>28</v>
@@ -1148,7 +2445,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>20</v>
@@ -1159,7 +2456,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="B45">
         <v>63</v>
@@ -1170,7 +2467,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>18</v>
@@ -1181,7 +2478,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -1192,7 +2489,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>56</v>
@@ -1203,7 +2500,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>14</v>
@@ -1214,7 +2511,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>21</v>
@@ -1225,7 +2522,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>16</v>
@@ -1236,7 +2533,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B52">
         <v>50</v>
@@ -1247,7 +2544,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>55</v>
@@ -1258,7 +2555,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>49</v>
@@ -1269,7 +2566,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>60</v>
@@ -1280,7 +2577,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -1291,7 +2588,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>36</v>
@@ -1302,7 +2599,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <v>47</v>
@@ -1313,7 +2610,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59">
         <v>42</v>
@@ -1324,7 +2621,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60">
         <v>38</v>
@@ -1335,7 +2632,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -1346,7 +2643,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62">
         <v>27</v>
@@ -1357,7 +2654,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63">
         <v>62</v>
@@ -1368,7 +2665,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64">
         <v>4</v>
@@ -1379,7 +2676,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65">
         <v>12</v>
@@ -1394,12 +2691,1739 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F631CB40-6C1E-4438-826A-63468DB92520}">
+  <dimension ref="A1:G68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>122123822333.73</v>
+      </c>
+      <c r="C2">
+        <v>35</v>
+      </c>
+      <c r="D2">
+        <f>IFERROR(VLOOKUP(A2,MalRout2019!A:B,2,0), )</f>
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E65" si="0">C2-D2</f>
+        <v>26</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F65" si="1">E2^2</f>
+        <v>676</v>
+      </c>
+      <c r="G2">
+        <v>0.18596826106008185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>637430331479.46899</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <f>IFERROR(VLOOKUP(A3,MalRout2019!A:B,2,0), )</f>
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="G3">
+        <v>0.16979194261652997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>11536590635.826799</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <f>IFERROR(VLOOKUP(A4,MalRout2019!A:B,2,0), )</f>
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>1681</v>
+      </c>
+      <c r="G4">
+        <v>0.22565271470077011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1323421072479.0701</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <f>IFERROR(VLOOKUP(A5,MalRout2019!A:B,2,0), )</f>
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>-32</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="G5">
+        <v>0.40112130900943532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6">
+        <v>40747792237.973503</v>
+      </c>
+      <c r="C6">
+        <v>48</v>
+      </c>
+      <c r="D6">
+        <f>IFERROR(VLOOKUP(A6,MalRout2019!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>2304</v>
+      </c>
+      <c r="G6">
+        <v>0.31473106380802574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>35307127659.574501</v>
+      </c>
+      <c r="C7">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <f>IFERROR(VLOOKUP(A7,MalRout2019!A:B,2,0), )</f>
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="G7">
+        <v>0.3834995893358305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>249723862487.36099</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <f>IFERROR(VLOOKUP(A8,MalRout2019!A:B,2,0), )</f>
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="G8">
+        <v>0.37655617251930151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>54456465472.616203</v>
+      </c>
+      <c r="C9">
+        <v>44</v>
+      </c>
+      <c r="D9">
+        <f>IFERROR(VLOOKUP(A9,MalRout2019!A:B,2,0), )</f>
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>441</v>
+      </c>
+      <c r="G9">
+        <v>0.26336317721331676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2055505502224.73</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <f>IFERROR(VLOOKUP(A10,MalRout2019!A:B,2,0), )</f>
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>-16</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="G10">
+        <v>0.27270214291553119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>22158209502.639099</v>
+      </c>
+      <c r="C11">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <f>IFERROR(VLOOKUP(A11,MalRout2019!A:B,2,0), )</f>
+        <v>61</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>0.57782179133632272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>1653042795255.04</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <f>IFERROR(VLOOKUP(A12,MalRout2019!A:B,2,0), )</f>
+        <v>43</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>-33</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>1089</v>
+      </c>
+      <c r="G12">
+        <v>0.39579297497180921</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>12237700479375</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f>IFERROR(VLOOKUP(A13,MalRout2019!A:B,2,0), )</f>
+        <v>54</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>-52</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>2704</v>
+      </c>
+      <c r="G13">
+        <v>0.4733466791076103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>314457601859.52301</v>
+      </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <f>IFERROR(VLOOKUP(A14,MalRout2019!A:B,2,0), )</f>
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="G14">
+        <v>0.21227365431081802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>104295862000</v>
+      </c>
+      <c r="C15">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <f>IFERROR(VLOOKUP(A15,MalRout2019!A:B,2,0), )</f>
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>484</v>
+      </c>
+      <c r="G15">
+        <v>0.21501494763561757</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>235369129337.711</v>
+      </c>
+      <c r="C16">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <f>IFERROR(VLOOKUP(A16,MalRout2019!A:B,2,0), )</f>
+        <v>64</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>-33</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>1089</v>
+      </c>
+      <c r="G16">
+        <v>0.74524069100009327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>25921079612.333698</v>
+      </c>
+      <c r="C17">
+        <v>54</v>
+      </c>
+      <c r="D17">
+        <f>IFERROR(VLOOKUP(A17,MalRout2019!A:B,2,0), )</f>
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>2601</v>
+      </c>
+      <c r="G17">
+        <v>9.0038402736197981E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>80561496133.917206</v>
+      </c>
+      <c r="C18">
+        <v>41</v>
+      </c>
+      <c r="D18">
+        <f>IFERROR(VLOOKUP(A18,MalRout2019!A:B,2,0), )</f>
+        <v>53</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="G18">
+        <v>0.47185162300674788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>2582501307216.4199</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <f>IFERROR(VLOOKUP(A19,MalRout2019!A:B,2,0), )</f>
+        <v>41</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>-34</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>1156</v>
+      </c>
+      <c r="G19">
+        <v>0.39089590878344693</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>1489464787.5741501</v>
+      </c>
+      <c r="C20">
+        <v>64</v>
+      </c>
+      <c r="D20">
+        <f>IFERROR(VLOOKUP(A20,MalRout2019!A:B,2,0), )</f>
+        <v>59</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <v>0.54628107085808775</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>15081338092.2875</v>
+      </c>
+      <c r="C21">
+        <v>59</v>
+      </c>
+      <c r="D21">
+        <f>IFERROR(VLOOKUP(A21,MalRout2019!A:B,2,0), )</f>
+        <v>29</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="G21">
+        <v>0.30781682477527383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>3677439129776.6001</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <f>IFERROR(VLOOKUP(A22,MalRout2019!A:B,2,0), )</f>
+        <v>44</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>-40</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+      <c r="G22">
+        <v>0.39628523269096938</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>139135029758.29001</v>
+      </c>
+      <c r="C23">
+        <v>34</v>
+      </c>
+      <c r="D23">
+        <f>IFERROR(VLOOKUP(A23,MalRout2019!A:B,2,0), )</f>
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>529</v>
+      </c>
+      <c r="G23">
+        <v>0.19348630565490987</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>23909289978.586102</v>
+      </c>
+      <c r="C24">
+        <v>56</v>
+      </c>
+      <c r="D24">
+        <f>IFERROR(VLOOKUP(A24,MalRout2019!A:B,2,0), )</f>
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>2916</v>
+      </c>
+      <c r="G24">
+        <v>6.8743439096951978E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>2600818243559.6499</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <f>IFERROR(VLOOKUP(A25,MalRout2019!A:B,2,0), )</f>
+        <v>57</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>-51</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>2601</v>
+      </c>
+      <c r="G25">
+        <v>0.51431535191506772</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>1015539017536.5</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <f>IFERROR(VLOOKUP(A26,MalRout2019!A:B,2,0), )</f>
+        <v>52</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>-37</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1369</v>
+      </c>
+      <c r="G26">
+        <v>0.46715266803494326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>454012768723.58899</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <f>IFERROR(VLOOKUP(A27,MalRout2019!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="G27">
+        <v>0.46616295781214967</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>1934797937411.3301</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <f>IFERROR(VLOOKUP(A28,MalRout2019!A:B,2,0), )</f>
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>-16</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="G28">
+        <v>0.27398504006564184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>4872136945507.5898</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <f>IFERROR(VLOOKUP(A29,MalRout2019!A:B,2,0), )</f>
+        <v>33</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>-30</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="G29">
+        <v>0.316644947570629</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>40068308450.704201</v>
+      </c>
+      <c r="C30">
+        <v>49</v>
+      </c>
+      <c r="D30">
+        <f>IFERROR(VLOOKUP(A30,MalRout2019!A:B,2,0), )</f>
+        <v>58</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="G30">
+        <v>0.53023867501522404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>162886867831.694</v>
+      </c>
+      <c r="C31">
+        <v>33</v>
+      </c>
+      <c r="D31">
+        <f>IFERROR(VLOOKUP(A31,MalRout2019!A:B,2,0), )</f>
+        <v>31</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>0.31165107843441275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>79263075749.268204</v>
+      </c>
+      <c r="C32">
+        <v>42</v>
+      </c>
+      <c r="D32">
+        <f>IFERROR(VLOOKUP(A32,MalRout2019!A:B,2,0), )</f>
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>1369</v>
+      </c>
+      <c r="G32">
+        <v>0.16799486654671944</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33">
+        <v>1530750923148.7</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <f>IFERROR(VLOOKUP(A33,MalRout2019!A:B,2,0), )</f>
+        <v>48</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>-36</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>1296</v>
+      </c>
+      <c r="G33">
+        <v>0.42888829748262569</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>7564738836.0412197</v>
+      </c>
+      <c r="C34">
+        <v>62</v>
+      </c>
+      <c r="D34">
+        <f>IFERROR(VLOOKUP(A34,MalRout2019!A:B,2,0), )</f>
+        <v>13</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>2401</v>
+      </c>
+      <c r="G34">
+        <v>0.19686418348602067</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>53576985686.699799</v>
+      </c>
+      <c r="C35">
+        <v>45</v>
+      </c>
+      <c r="D35">
+        <f>IFERROR(VLOOKUP(A35,MalRout2019!A:B,2,0), )</f>
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="G35">
+        <v>0.30938604053856567</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>38107728082.581703</v>
+      </c>
+      <c r="C36">
+        <v>51</v>
+      </c>
+      <c r="D36">
+        <f>IFERROR(VLOOKUP(A36,MalRout2019!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>2601</v>
+      </c>
+      <c r="G36">
+        <v>0.18018164178462476</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>6303292264.1890497</v>
+      </c>
+      <c r="C37">
+        <v>63</v>
+      </c>
+      <c r="D37">
+        <f>IFERROR(VLOOKUP(A37,MalRout2019!A:B,2,0), )</f>
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>3844</v>
+      </c>
+      <c r="G37">
+        <v>5.020317186154314E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>314710259510.74298</v>
+      </c>
+      <c r="C38">
+        <v>25</v>
+      </c>
+      <c r="D38">
+        <f>IFERROR(VLOOKUP(A38,MalRout2019!A:B,2,0), )</f>
+        <v>34</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="G38">
+        <v>0.3239525695339901</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>1150887823404.1799</v>
+      </c>
+      <c r="C39">
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <f>IFERROR(VLOOKUP(A39,MalRout2019!A:B,2,0), )</f>
+        <v>37</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>-23</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>529</v>
+      </c>
+      <c r="G39">
+        <v>0.35724606231279021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>109708728848.535</v>
+      </c>
+      <c r="C40">
+        <v>38</v>
+      </c>
+      <c r="D40">
+        <f>IFERROR(VLOOKUP(A40,MalRout2019!A:B,2,0), )</f>
+        <v>22</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="G40">
+        <v>0.25816447970376577</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>67068745521.382301</v>
+      </c>
+      <c r="C41">
+        <v>43</v>
+      </c>
+      <c r="D41">
+        <f>IFERROR(VLOOKUP(A41,MalRout2019!A:B,2,0), )</f>
+        <v>35</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="G41">
+        <v>0.32788924175379053</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>375745486520.65601</v>
+      </c>
+      <c r="C42">
+        <v>22</v>
+      </c>
+      <c r="D42">
+        <f>IFERROR(VLOOKUP(A42,MalRout2019!A:B,2,0), )</f>
+        <v>26</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G42">
+        <v>0.28352217867391344</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>304951818494.06598</v>
+      </c>
+      <c r="C43">
+        <v>29</v>
+      </c>
+      <c r="D43">
+        <f>IFERROR(VLOOKUP(A43,MalRout2019!A:B,2,0), )</f>
+        <v>28</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0.2989445963663685</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>313595208736.65997</v>
+      </c>
+      <c r="C44">
+        <v>28</v>
+      </c>
+      <c r="D44">
+        <f>IFERROR(VLOOKUP(A44,MalRout2019!A:B,2,0), )</f>
+        <v>20</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="G44">
+        <v>0.23191084629857239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>1577524145962.8501</v>
+      </c>
+      <c r="C45">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <f>IFERROR(VLOOKUP(A45,MalRout2019!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="G45">
+        <v>0.71209711615632054</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>9135454442.1401291</v>
+      </c>
+      <c r="C46">
+        <v>61</v>
+      </c>
+      <c r="D46">
+        <f>IFERROR(VLOOKUP(A46,MalRout2019!A:B,2,0), )</f>
+        <v>18</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>1849</v>
+      </c>
+      <c r="G46">
+        <v>0.22286331657142858</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>686738400000</v>
+      </c>
+      <c r="C47">
+        <v>17</v>
+      </c>
+      <c r="D47">
+        <f>IFERROR(VLOOKUP(A47,MalRout2019!A:B,2,0), )</f>
+        <v>46</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>-29</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>841</v>
+      </c>
+      <c r="G47">
+        <v>0.40493505438214794</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>323907234412.34003</v>
+      </c>
+      <c r="C48">
+        <v>24</v>
+      </c>
+      <c r="D48">
+        <f>IFERROR(VLOOKUP(A48,MalRout2019!A:B,2,0), )</f>
+        <v>56</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>-32</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="G48">
+        <v>0.51402033656529278</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>348871647959.64001</v>
+      </c>
+      <c r="C49">
+        <v>23</v>
+      </c>
+      <c r="D49">
+        <f>IFERROR(VLOOKUP(A49,MalRout2019!A:B,2,0), )</f>
+        <v>14</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="G49">
+        <v>0.20880311244750585</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>87357205923.123795</v>
+      </c>
+      <c r="C50">
+        <v>40</v>
+      </c>
+      <c r="D50">
+        <f>IFERROR(VLOOKUP(A50,MalRout2019!A:B,2,0), )</f>
+        <v>21</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>361</v>
+      </c>
+      <c r="G50">
+        <v>0.23556478314245521</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>117487857142.85699</v>
+      </c>
+      <c r="C51">
+        <v>36</v>
+      </c>
+      <c r="D51">
+        <f>IFERROR(VLOOKUP(A51,MalRout2019!A:B,2,0), )</f>
+        <v>16</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="G51">
+        <v>0.21295344690447038</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>45000000000</v>
+      </c>
+      <c r="C52">
+        <v>47</v>
+      </c>
+      <c r="D52">
+        <f>IFERROR(VLOOKUP(A52,MalRout2019!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>2209</v>
+      </c>
+      <c r="G52">
+        <v>0.43412499842220165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>455302682985.75702</v>
+      </c>
+      <c r="C53">
+        <v>19</v>
+      </c>
+      <c r="D53">
+        <f>IFERROR(VLOOKUP(A53,MalRout2019!A:B,2,0), )</f>
+        <v>55</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>-36</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>1296</v>
+      </c>
+      <c r="G53">
+        <v>0.48354674979603463</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>39952095560.882896</v>
+      </c>
+      <c r="C54">
+        <v>50</v>
+      </c>
+      <c r="D54">
+        <f>IFERROR(VLOOKUP(A54,MalRout2019!A:B,2,0), )</f>
+        <v>49</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0.42931198523261827</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>851549299635.427</v>
+      </c>
+      <c r="C55">
+        <v>16</v>
+      </c>
+      <c r="D55">
+        <f>IFERROR(VLOOKUP(A55,MalRout2019!A:B,2,0), )</f>
+        <v>60</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>-44</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>1936</v>
+      </c>
+      <c r="G55">
+        <v>0.54925085004730068</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>25995031850.165798</v>
+      </c>
+      <c r="C56">
+        <v>53</v>
+      </c>
+      <c r="D56">
+        <f>IFERROR(VLOOKUP(A56,MalRout2019!A:B,2,0), )</f>
+        <v>10</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>1849</v>
+      </c>
+      <c r="G56">
+        <v>0.1890228435085177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>112154185121.40601</v>
+      </c>
+      <c r="C57">
+        <v>37</v>
+      </c>
+      <c r="D57">
+        <f>IFERROR(VLOOKUP(A57,MalRout2019!A:B,2,0), )</f>
+        <v>36</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0.34059135783433392</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>382575085091.89899</v>
+      </c>
+      <c r="C58">
+        <v>21</v>
+      </c>
+      <c r="D58">
+        <f>IFERROR(VLOOKUP(A58,MalRout2019!A:B,2,0), )</f>
+        <v>47</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>-26</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>676</v>
+      </c>
+      <c r="G58">
+        <v>0.42482649871951461</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>2622433959604.1602</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <f>IFERROR(VLOOKUP(A59,MalRout2019!A:B,2,0), )</f>
+        <v>42</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>-37</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>1369</v>
+      </c>
+      <c r="G59">
+        <v>0.39420633677030448</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>19390604000000</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <f>IFERROR(VLOOKUP(A60,MalRout2019!A:B,2,0), )</f>
+        <v>38</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>-37</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>1369</v>
+      </c>
+      <c r="G60">
+        <v>0.37645972656714399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>49677172714.260002</v>
+      </c>
+      <c r="C61">
+        <v>46</v>
+      </c>
+      <c r="D61">
+        <f>IFERROR(VLOOKUP(A61,MalRout2019!A:B,2,0), )</f>
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+      <c r="G61">
+        <v>0.16883999057172744</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>314000000000</v>
+      </c>
+      <c r="C62">
+        <v>27</v>
+      </c>
+      <c r="D62">
+        <f>IFERROR(VLOOKUP(A62,MalRout2019!A:B,2,0), )</f>
+        <v>27</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0.29084137045699288</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>223779865815.18301</v>
+      </c>
+      <c r="C63">
+        <v>32</v>
+      </c>
+      <c r="D63">
+        <f>IFERROR(VLOOKUP(A63,MalRout2019!A:B,2,0), )</f>
+        <v>62</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>-30</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="G63">
+        <v>0.63712446954483581</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>25868142073.452</v>
+      </c>
+      <c r="C64">
+        <v>55</v>
+      </c>
+      <c r="D64">
+        <f>IFERROR(VLOOKUP(A64,MalRout2019!A:B,2,0), )</f>
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>2601</v>
+      </c>
+      <c r="G64">
+        <v>0.15380027712575087</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>22040902300</v>
+      </c>
+      <c r="C65">
+        <v>58</v>
+      </c>
+      <c r="D65">
+        <f>IFERROR(VLOOKUP(A65,MalRout2019!A:B,2,0), )</f>
+        <v>12</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>2116</v>
+      </c>
+      <c r="G65">
+        <v>0.19683115926232195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f>SUM(F2:F65)</f>
+        <v>63060</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f>65*(65^2-1)</f>
+        <v>274560</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f>1-((6*F66)/F67)</f>
+        <v>-0.37805944055944063</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C68">
+    <sortCondition ref="A2:A68"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,31 +4442,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1622,7 +4646,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1657,7 +4681,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1854,15 +4878,15 @@
       </c>
       <c r="H13">
         <f>IFERROR(VLOOKUP(A13,MalRout2019!A:B,2,0), )</f>
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>-44</v>
+        <v>-2</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>1936</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2064,15 +5088,15 @@
       </c>
       <c r="H19">
         <f>IFERROR(VLOOKUP(A19,MalRout2019!A:B,2,0), )</f>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2112,7 +5136,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -2134,15 +5158,15 @@
       </c>
       <c r="H21">
         <f>IFERROR(VLOOKUP(A21,MalRout2019!A:B,2,0), )</f>
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>-28</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>784</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2169,15 +5193,15 @@
       </c>
       <c r="H22">
         <f>IFERROR(VLOOKUP(A22,MalRout2019!A:B,2,0), )</f>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>-5</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2204,20 +5228,20 @@
       </c>
       <c r="H23">
         <f>IFERROR(VLOOKUP(A23,MalRout2019!A:B,2,0), )</f>
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>-26</v>
+        <v>9</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>676</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
@@ -2274,15 +5298,15 @@
       </c>
       <c r="H25">
         <f>IFERROR(VLOOKUP(A25,MalRout2019!A:B,2,0), )</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2379,15 +5403,15 @@
       </c>
       <c r="H28">
         <f>IFERROR(VLOOKUP(A28,MalRout2019!A:B,2,0), )</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2414,20 +5438,20 @@
       </c>
       <c r="H29">
         <f>IFERROR(VLOOKUP(A29,MalRout2019!A:B,2,0), )</f>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>-28</v>
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>784</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -2462,7 +5486,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -2554,15 +5578,15 @@
       </c>
       <c r="H33">
         <f>IFERROR(VLOOKUP(A33,MalRout2019!A:B,2,0), )</f>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="J33">
         <f t="shared" si="1"/>
-        <v>961</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2589,20 +5613,20 @@
       </c>
       <c r="H34">
         <f>IFERROR(VLOOKUP(A34,MalRout2019!A:B,2,0), )</f>
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I34">
         <f t="shared" ref="I34:I64" si="2">G34-H34</f>
-        <v>-4</v>
+        <v>11</v>
       </c>
       <c r="J34">
         <f t="shared" ref="J34:J64" si="3">I34^2</f>
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -2694,20 +5718,20 @@
       </c>
       <c r="H37">
         <f>IFERROR(VLOOKUP(A37,MalRout2019!A:B,2,0), )</f>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I37">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J37">
         <f t="shared" si="3"/>
-        <v>529</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
@@ -2834,20 +5858,20 @@
       </c>
       <c r="H41">
         <f>IFERROR(VLOOKUP(A41,MalRout2019!A:B,2,0), )</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J41">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
@@ -2974,15 +5998,15 @@
       </c>
       <c r="H45">
         <f>IFERROR(VLOOKUP(A45,MalRout2019!A:B,2,0), )</f>
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I45">
         <f t="shared" si="2"/>
-        <v>-19</v>
+        <v>26</v>
       </c>
       <c r="J45">
         <f t="shared" si="3"/>
-        <v>361</v>
+        <v>676</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -3009,15 +6033,15 @@
       </c>
       <c r="H46">
         <f>IFERROR(VLOOKUP(A46,MalRout2019!A:B,2,0), )</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I46">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="J46">
         <f t="shared" si="3"/>
-        <v>2025</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -3114,20 +6138,20 @@
       </c>
       <c r="H49">
         <f>IFERROR(VLOOKUP(A49,MalRout2019!A:B,2,0), )</f>
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I49">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J49">
         <f t="shared" si="3"/>
-        <v>676</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
@@ -3162,7 +6186,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
@@ -3197,7 +6221,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
         <v>9</v>
@@ -3232,7 +6256,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
         <v>9</v>
@@ -3289,20 +6313,20 @@
       </c>
       <c r="H54">
         <f>IFERROR(VLOOKUP(A54,MalRout2019!A:B,2,0), )</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="J54">
         <f t="shared" si="3"/>
-        <v>1089</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
         <v>9</v>
@@ -3429,15 +6453,15 @@
       </c>
       <c r="H58">
         <f>IFERROR(VLOOKUP(A58,MalRout2019!A:B,2,0), )</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I58">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J58">
         <f t="shared" si="3"/>
-        <v>961</v>
+        <v>841</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3464,20 +6488,20 @@
       </c>
       <c r="H59">
         <f>IFERROR(VLOOKUP(A59,MalRout2019!A:B,2,0), )</f>
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I59">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="J59">
         <f t="shared" si="3"/>
-        <v>1600</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
@@ -3512,7 +6536,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
         <v>9</v>
@@ -3582,7 +6606,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
         <v>9</v>
@@ -3604,15 +6628,15 @@
       </c>
       <c r="H63">
         <f>IFERROR(VLOOKUP(A63,MalRout2019!A:B,2,0), )</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="J63">
         <f t="shared" si="3"/>
-        <v>144</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3639,15 +6663,15 @@
       </c>
       <c r="H64">
         <f>IFERROR(VLOOKUP(A64,MalRout2019!A:B,2,0), )</f>
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="J64">
         <f t="shared" si="3"/>
-        <v>144</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3677,18 +6701,18 @@
         <v>54</v>
       </c>
       <c r="I65">
-        <f t="shared" ref="I65:I96" si="4">G65-H65</f>
+        <f t="shared" ref="I65" si="4">G65-H65</f>
         <v>10</v>
       </c>
       <c r="J65">
-        <f t="shared" ref="J65:J96" si="5">I65^2</f>
+        <f t="shared" ref="J65" si="5">I65^2</f>
         <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J66">
         <f>SUM(J2:J65)</f>
-        <v>32864</v>
+        <v>37378</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3700,7 +6724,7 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J68">
         <f>1-((6*J66)/J67)</f>
-        <v>0.28181818181818186</v>
+        <v>0.18317307692307694</v>
       </c>
     </row>
   </sheetData>
@@ -3712,12 +6736,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36198A2-45F7-4E2D-AF04-87EC7C6E0C80}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3731,19 +6755,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3771,7 +6795,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>8.5499104557518812</v>
@@ -3863,7 +6887,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>8.3852117809298239</v>
@@ -3896,15 +6920,15 @@
       </c>
       <c r="D8">
         <f>IFERROR(VLOOKUP(A8,MalRout2019!A:B,2,0), )</f>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>-39</v>
+        <v>-49</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>1521</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4103,15 +7127,15 @@
       </c>
       <c r="D17">
         <f>IFERROR(VLOOKUP(A17,MalRout2019!A:B,2,0), )</f>
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>-47</v>
+        <v>-2</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>2209</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4126,15 +7150,15 @@
       </c>
       <c r="D18">
         <f>IFERROR(VLOOKUP(A18,MalRout2019!A:B,2,0), )</f>
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>-39</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>1521</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4149,15 +7173,15 @@
       </c>
       <c r="D19">
         <f>IFERROR(VLOOKUP(A19,MalRout2019!A:B,2,0), )</f>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4172,15 +7196,15 @@
       </c>
       <c r="D20">
         <f>IFERROR(VLOOKUP(A20,MalRout2019!A:B,2,0), )</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4254,7 +7278,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>6.7669895160833651</v>
@@ -4356,15 +7380,15 @@
       </c>
       <c r="D28">
         <f>IFERROR(VLOOKUP(A28,MalRout2019!A:B,2,0), )</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>361</v>
+        <v>676</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4392,7 +7416,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30">
         <v>6.6375697571892136</v>
@@ -4425,15 +7449,15 @@
       </c>
       <c r="D31">
         <f>IFERROR(VLOOKUP(A31,MalRout2019!A:B,2,0), )</f>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>-4</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>841</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -4461,7 +7485,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33">
         <v>6.5216891481766046</v>
@@ -4497,11 +7521,11 @@
         <v>7</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E64" si="2">C34-D34</f>
+        <f t="shared" ref="E34:E60" si="2">C34-D34</f>
         <v>26</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:F64" si="3">E34^2</f>
+        <f t="shared" ref="F34:F60" si="3">E34^2</f>
         <v>676</v>
       </c>
     </row>
@@ -4517,20 +7541,20 @@
       </c>
       <c r="D35">
         <f>IFERROR(VLOOKUP(A35,MalRout2019!A:B,2,0), )</f>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E35">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F35">
         <f t="shared" si="3"/>
-        <v>441</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36">
         <v>6.4352596317708706</v>
@@ -4553,7 +7577,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37">
         <v>6.4251434531012643</v>
@@ -4576,7 +7600,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38">
         <v>6.3942012136490778</v>
@@ -4655,20 +7679,20 @@
       </c>
       <c r="D41">
         <f>IFERROR(VLOOKUP(A41,MalRout2019!A:B,2,0), )</f>
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E41">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F41">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>6.1747685258299496</v>
@@ -4701,15 +7725,15 @@
       </c>
       <c r="D43">
         <f>IFERROR(VLOOKUP(A43,MalRout2019!A:B,2,0), )</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F43">
         <f t="shared" si="3"/>
-        <v>484</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -4724,15 +7748,15 @@
       </c>
       <c r="D44">
         <f>IFERROR(VLOOKUP(A44,MalRout2019!A:B,2,0), )</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E44">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F44">
         <f t="shared" si="3"/>
-        <v>1849</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -4760,7 +7784,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46">
         <v>5.9541562887663666</v>
@@ -4816,20 +7840,20 @@
       </c>
       <c r="D48">
         <f>IFERROR(VLOOKUP(A48,MalRout2019!A:B,2,0), )</f>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F48">
         <f t="shared" si="3"/>
-        <v>144</v>
+        <v>441</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49">
         <v>5.9116418831862045</v>
@@ -4862,15 +7886,15 @@
       </c>
       <c r="D50">
         <f>IFERROR(VLOOKUP(A50,MalRout2019!A:B,2,0), )</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E50">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F50">
         <f t="shared" si="3"/>
-        <v>529</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -4908,20 +7932,20 @@
       </c>
       <c r="D52">
         <f>IFERROR(VLOOKUP(A52,MalRout2019!A:B,2,0), )</f>
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E52">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F52">
         <f t="shared" si="3"/>
-        <v>841</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53">
         <v>5.3923164599452376</v>
@@ -4977,15 +8001,15 @@
       </c>
       <c r="D55">
         <f>IFERROR(VLOOKUP(A55,MalRout2019!A:B,2,0), )</f>
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E55">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F55">
         <f t="shared" si="3"/>
-        <v>1296</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -5000,15 +8024,15 @@
       </c>
       <c r="D56">
         <f>IFERROR(VLOOKUP(A56,MalRout2019!A:B,2,0), )</f>
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="F56">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -5046,20 +8070,20 @@
       </c>
       <c r="D58">
         <f>IFERROR(VLOOKUP(A58,MalRout2019!A:B,2,0), )</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="F58">
         <f t="shared" si="3"/>
-        <v>729</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59">
         <v>4.3392100630911976</v>
@@ -5082,7 +8106,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60">
         <v>4.0409686456833072</v>
@@ -5092,149 +8116,49 @@
       </c>
       <c r="D60">
         <f>IFERROR(VLOOKUP(A60,MalRout2019!A:B,2,0), )</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F60">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <f>IFERROR(VLOOKUP(A61,MalRout2019!A:B,2,0), )</f>
-        <v>23</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="2"/>
-        <v>-23</v>
-      </c>
       <c r="F61">
-        <f t="shared" si="3"/>
-        <v>529</v>
+        <f>SUM(F2:F60)</f>
+        <v>43240</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>35</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <f>IFERROR(VLOOKUP(A62,MalRout2019!A:B,2,0), )</f>
-        <v>48</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="2"/>
-        <v>-48</v>
-      </c>
       <c r="F62">
-        <f t="shared" si="3"/>
-        <v>2304</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <f>IFERROR(VLOOKUP(A63,MalRout2019!A:B,2,0), )</f>
-        <v>14</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="2"/>
-        <v>-14</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="3"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>53</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <f>IFERROR(VLOOKUP(A64,MalRout2019!A:B,2,0), )</f>
-        <v>16</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="2"/>
-        <v>-16</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="3"/>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <f>IFERROR(VLOOKUP(A65,MalRout2019!A:B,2,0), )</f>
-        <v>6</v>
-      </c>
-      <c r="E65">
-        <f t="shared" ref="E65:E96" si="4">C65-D65</f>
-        <v>-6</v>
-      </c>
-      <c r="F65">
-        <f t="shared" ref="F65:F96" si="5">E65^2</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F66">
-        <f>SUM(F2:F65)</f>
-        <v>43142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F67">
         <f>65*(65^2-1)</f>
         <v>274560</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F68">
-        <f>1-((6*F66)/F67)</f>
-        <v>5.721153846153848E-2</v>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f>1-((6*F61)/F62)</f>
+        <v>5.5069930069930106E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F68">
-    <sortCondition descending="1" ref="B2:B66"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F63">
+    <sortCondition descending="1" ref="B2:B61"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF605CC-9EE5-4C48-93E1-3851DF986E29}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD63"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5248,19 +8172,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5301,17 +8225,17 @@
         <v>43</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E65" si="0">C3-D3</f>
+        <f t="shared" ref="E3:E62" si="0">C3-D3</f>
         <v>-41</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F65" si="1">E3^2</f>
+        <f t="shared" ref="F3:F62" si="1">E3^2</f>
         <v>1681</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>8.5</v>
@@ -5380,7 +8304,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>8.39</v>
@@ -5413,15 +8337,15 @@
       </c>
       <c r="D8">
         <f>IFERROR(VLOOKUP(A8,MalRout2019!A:B,2,0), )</f>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>-39</v>
+        <v>-49</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>1521</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5620,15 +8544,15 @@
       </c>
       <c r="D17">
         <f>IFERROR(VLOOKUP(A17,MalRout2019!A:B,2,0), )</f>
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5643,15 +8567,15 @@
       </c>
       <c r="D18">
         <f>IFERROR(VLOOKUP(A18,MalRout2019!A:B,2,0), )</f>
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-1</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>2116</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5666,15 +8590,15 @@
       </c>
       <c r="D19">
         <f>IFERROR(VLOOKUP(A19,MalRout2019!A:B,2,0), )</f>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5735,15 +8659,15 @@
       </c>
       <c r="D22">
         <f>IFERROR(VLOOKUP(A22,MalRout2019!A:B,2,0), )</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>-16</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5817,7 +8741,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26">
         <v>6.77</v>
@@ -5896,15 +8820,15 @@
       </c>
       <c r="D29">
         <f>IFERROR(VLOOKUP(A29,MalRout2019!A:B,2,0), )</f>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>-2</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -5919,20 +8843,20 @@
       </c>
       <c r="D30">
         <f>IFERROR(VLOOKUP(A30,MalRout2019!A:B,2,0), )</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>784</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31">
         <v>6.62</v>
@@ -5978,7 +8902,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33">
         <v>6.47</v>
@@ -6001,7 +8925,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34">
         <v>6.43</v>
@@ -6057,15 +8981,15 @@
       </c>
       <c r="D36">
         <f>IFERROR(VLOOKUP(A36,MalRout2019!A:B,2,0), )</f>
+        <v>34</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>1156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -6093,7 +9017,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B38">
         <v>6.31</v>
@@ -6116,7 +9040,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39">
         <v>6.29</v>
@@ -6139,7 +9063,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40">
         <v>6.28</v>
@@ -6172,20 +9096,20 @@
       </c>
       <c r="D41">
         <f>IFERROR(VLOOKUP(A41,MalRout2019!A:B,2,0), )</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>6.27</v>
@@ -6231,7 +9155,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B44">
         <v>6.19</v>
@@ -6264,15 +9188,15 @@
       </c>
       <c r="D45">
         <f>IFERROR(VLOOKUP(A45,MalRout2019!A:B,2,0), )</f>
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>484</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -6310,15 +9234,15 @@
       </c>
       <c r="D47">
         <f>IFERROR(VLOOKUP(A47,MalRout2019!A:B,2,0), )</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>2116</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -6333,15 +9257,15 @@
       </c>
       <c r="D48">
         <f>IFERROR(VLOOKUP(A48,MalRout2019!A:B,2,0), )</f>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>441</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -6402,15 +9326,15 @@
       </c>
       <c r="D51">
         <f>IFERROR(VLOOKUP(A51,MalRout2019!A:B,2,0), )</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>576</v>
+        <v>484</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6438,7 +9362,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53">
         <v>5.62</v>
@@ -6471,15 +9395,15 @@
       </c>
       <c r="D54">
         <f>IFERROR(VLOOKUP(A54,MalRout2019!A:B,2,0), )</f>
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>1225</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -6494,15 +9418,15 @@
       </c>
       <c r="D55">
         <f>IFERROR(VLOOKUP(A55,MalRout2019!A:B,2,0), )</f>
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>1024</v>
+        <v>361</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -6540,15 +9464,15 @@
       </c>
       <c r="D57">
         <f>IFERROR(VLOOKUP(A57,MalRout2019!A:B,2,0), )</f>
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -6576,7 +9500,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59">
         <v>4.8</v>
@@ -6609,20 +9533,20 @@
       </c>
       <c r="D60">
         <f>IFERROR(VLOOKUP(A60,MalRout2019!A:B,2,0), )</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>841</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>4.2</v>
@@ -6645,7 +9569,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B62">
         <v>3.77</v>
@@ -6655,109 +9579,49 @@
       </c>
       <c r="D62">
         <f>IFERROR(VLOOKUP(A62,MalRout2019!A:B,2,0), )</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <f>IFERROR(VLOOKUP(A63,MalRout2019!A:B,2,0), )</f>
-        <v>48</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="0"/>
-        <v>-48</v>
-      </c>
       <c r="F63">
-        <f t="shared" si="1"/>
-        <v>2304</v>
+        <f>SUM(F2:F62)</f>
+        <v>45186</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <f>IFERROR(VLOOKUP(A64,MalRout2019!A:B,2,0), )</f>
-        <v>14</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="0"/>
-        <v>-14</v>
-      </c>
       <c r="F64">
-        <f t="shared" si="1"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <f>IFERROR(VLOOKUP(A65,MalRout2019!A:B,2,0), )</f>
-        <v>6</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F66">
-        <f>SUM(F2:F65)</f>
-        <v>44163</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F67">
         <f>65*(65^2-1)</f>
         <v>274560</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F68">
-        <f>1-((6*F66)/F67)</f>
-        <v>3.4899475524475476E-2</v>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f>1-((6*F63)/F64)</f>
+        <v>1.2543706293706269E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B65">
-    <sortCondition descending="1" ref="B2:B65"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B62">
+    <sortCondition descending="1" ref="B2:B62"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073D67BF-D262-42C5-A66A-4BB41376A9E7}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:XFD65"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6771,19 +9635,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -6824,11 +9688,11 @@
         <v>43</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E65" si="0">C3-D3</f>
+        <f t="shared" ref="E3:E64" si="0">C3-D3</f>
         <v>-41</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F65" si="1">E3^2</f>
+        <f t="shared" ref="F3:F64" si="1">E3^2</f>
         <v>1681</v>
       </c>
     </row>
@@ -6857,7 +9721,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>0.86911904853371325</v>
@@ -6926,7 +9790,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>0.84675328916328274</v>
@@ -6972,7 +9836,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B10">
         <v>0.8144505373517883</v>
@@ -6982,15 +9846,15 @@
       </c>
       <c r="D10">
         <f>IFERROR(VLOOKUP(A10,MalRout2019!A:B,2,0), )</f>
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-39</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7051,15 +9915,15 @@
       </c>
       <c r="D13">
         <f>IFERROR(VLOOKUP(A13,MalRout2019!A:B,2,0), )</f>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>-34</v>
+        <v>-44</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>1156</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7120,15 +9984,15 @@
       </c>
       <c r="D16">
         <f>IFERROR(VLOOKUP(A16,MalRout2019!A:B,2,0), )</f>
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>-41</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>1681</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -7143,15 +10007,15 @@
       </c>
       <c r="D17">
         <f>IFERROR(VLOOKUP(A17,MalRout2019!A:B,2,0), )</f>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -7179,7 +10043,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>0.6378767630621609</v>
@@ -7304,15 +10168,15 @@
       </c>
       <c r="D24">
         <f>IFERROR(VLOOKUP(A24,MalRout2019!A:B,2,0), )</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -7350,15 +10214,15 @@
       </c>
       <c r="D26">
         <f>IFERROR(VLOOKUP(A26,MalRout2019!A:B,2,0), )</f>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>-9</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>576</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -7373,20 +10237,20 @@
       </c>
       <c r="D27">
         <f>IFERROR(VLOOKUP(A27,MalRout2019!A:B,2,0), )</f>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>-4</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0.58862550177701733</v>
@@ -7465,20 +10329,20 @@
       </c>
       <c r="D31">
         <f>IFERROR(VLOOKUP(A31,MalRout2019!A:B,2,0), )</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>841</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32">
         <v>0.58035911744637447</v>
@@ -7501,7 +10365,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33">
         <v>0.57704606870407349</v>
@@ -7524,7 +10388,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34">
         <v>0.55927345319823485</v>
@@ -7570,7 +10434,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>0.55299146051697501</v>
@@ -7593,7 +10457,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>0.54019709431738794</v>
@@ -7626,15 +10490,15 @@
       </c>
       <c r="D38">
         <f>IFERROR(VLOOKUP(A38,MalRout2019!A:B,2,0), )</f>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -7649,15 +10513,15 @@
       </c>
       <c r="D39">
         <f>IFERROR(VLOOKUP(A39,MalRout2019!A:B,2,0), )</f>
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -7672,15 +10536,15 @@
       </c>
       <c r="D40">
         <f>IFERROR(VLOOKUP(A40,MalRout2019!A:B,2,0), )</f>
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>-24</v>
+        <v>21</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>576</v>
+        <v>441</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -7777,7 +10641,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45">
         <v>0.48748497532787638</v>
@@ -7810,15 +10674,15 @@
       </c>
       <c r="D46">
         <f>IFERROR(VLOOKUP(A46,MalRout2019!A:B,2,0), )</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>361</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -7856,15 +10720,15 @@
       </c>
       <c r="D48">
         <f>IFERROR(VLOOKUP(A48,MalRout2019!A:B,2,0), )</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>729</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -7902,20 +10766,20 @@
       </c>
       <c r="D50">
         <f>IFERROR(VLOOKUP(A50,MalRout2019!A:B,2,0), )</f>
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>729</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51">
         <v>0.41714472492009746</v>
@@ -7948,20 +10812,20 @@
       </c>
       <c r="D52">
         <f>IFERROR(VLOOKUP(A52,MalRout2019!A:B,2,0), )</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
-        <v>2601</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53">
         <v>0.40512071436273073</v>
@@ -8063,20 +10927,20 @@
       </c>
       <c r="D57">
         <f>IFERROR(VLOOKUP(A57,MalRout2019!A:B,2,0), )</f>
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>1444</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58">
         <v>0.34482063851533457</v>
@@ -8132,20 +10996,20 @@
       </c>
       <c r="D60">
         <f>IFERROR(VLOOKUP(A60,MalRout2019!A:B,2,0), )</f>
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B61">
         <v>0.30721370592312058</v>
@@ -8178,20 +11042,20 @@
       </c>
       <c r="D62">
         <f>IFERROR(VLOOKUP(A62,MalRout2019!A:B,2,0), )</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
-        <v>961</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>0.22686376566069522</v>
@@ -8214,7 +11078,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B64">
         <v>0.21446102966010308</v>
@@ -8224,69 +11088,49 @@
       </c>
       <c r="D64">
         <f>IFERROR(VLOOKUP(A64,MalRout2019!A:B,2,0), )</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>35</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <f>IFERROR(VLOOKUP(A65,MalRout2019!A:B,2,0), )</f>
-        <v>48</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="0"/>
-        <v>-48</v>
-      </c>
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F65">
-        <f t="shared" si="1"/>
-        <v>2304</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <f>SUM(F2:F64)</f>
+        <v>47497</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F66">
-        <f>SUM(F2:F65)</f>
-        <v>42044</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F67">
         <f>65*(65^2-1)</f>
         <v>274560</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F68">
-        <f>1-((6*F66)/F67)</f>
-        <v>8.1206293706293731E-2</v>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f>1-((6*F65)/F66)</f>
+        <v>-3.7958916083915994E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B65">
-    <sortCondition descending="1" ref="B2:B65"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B64">
+    <sortCondition descending="1" ref="B2:B64"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A68DFB-8B47-450C-9DB6-0E1F407E96C6}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8300,19 +11144,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
-        <v>76</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -8432,7 +11276,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>23</v>
@@ -8455,7 +11299,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <v>25</v>
@@ -8547,7 +11391,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B12">
         <v>34</v>
@@ -8557,15 +11401,15 @@
       </c>
       <c r="D12">
         <f>IFERROR(VLOOKUP(A12,MalRout2019!A:B,2,0), )</f>
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-37</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8580,15 +11424,15 @@
       </c>
       <c r="D13">
         <f>IFERROR(VLOOKUP(A13,MalRout2019!A:B,2,0), )</f>
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>-44</v>
+        <v>-2</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>1936</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8649,15 +11493,15 @@
       </c>
       <c r="D16">
         <f>IFERROR(VLOOKUP(A16,MalRout2019!A:B,2,0), )</f>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>-5</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8672,15 +11516,15 @@
       </c>
       <c r="D17">
         <f>IFERROR(VLOOKUP(A17,MalRout2019!A:B,2,0), )</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8787,20 +11631,20 @@
       </c>
       <c r="D22">
         <f>IFERROR(VLOOKUP(A22,MalRout2019!A:B,2,0), )</f>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>-5</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>53</v>
@@ -8823,7 +11667,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24">
         <v>54</v>
@@ -8856,15 +11700,15 @@
       </c>
       <c r="D25">
         <f>IFERROR(VLOOKUP(A25,MalRout2019!A:B,2,0), )</f>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>-6</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8915,7 +11759,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28">
         <v>58</v>
@@ -8938,7 +11782,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>61</v>
@@ -9007,7 +11851,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32">
         <v>63</v>
@@ -9040,15 +11884,15 @@
       </c>
       <c r="D33">
         <f>IFERROR(VLOOKUP(A33,MalRout2019!A:B,2,0), )</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -9063,15 +11907,15 @@
       </c>
       <c r="D34">
         <f>IFERROR(VLOOKUP(A34,MalRout2019!A:B,2,0), )</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -9109,15 +11953,15 @@
       </c>
       <c r="D36">
         <f>IFERROR(VLOOKUP(A36,MalRout2019!A:B,2,0), )</f>
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -9132,15 +11976,15 @@
       </c>
       <c r="D37">
         <f>IFERROR(VLOOKUP(A37,MalRout2019!A:B,2,0), )</f>
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>23</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>529</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -9155,15 +11999,15 @@
       </c>
       <c r="D38">
         <f>IFERROR(VLOOKUP(A38,MalRout2019!A:B,2,0), )</f>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-19</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>361</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -9201,15 +12045,15 @@
       </c>
       <c r="D40">
         <f>IFERROR(VLOOKUP(A40,MalRout2019!A:B,2,0), )</f>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>1444</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -9270,20 +12114,20 @@
       </c>
       <c r="D43">
         <f>IFERROR(VLOOKUP(A43,MalRout2019!A:B,2,0), )</f>
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>74</v>
@@ -9306,7 +12150,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45">
         <v>76</v>
@@ -9362,20 +12206,20 @@
       </c>
       <c r="D47">
         <f>IFERROR(VLOOKUP(A47,MalRout2019!A:B,2,0), )</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48">
         <v>77</v>
@@ -9398,7 +12242,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>78</v>
@@ -9431,20 +12275,20 @@
       </c>
       <c r="D50">
         <f>IFERROR(VLOOKUP(A50,MalRout2019!A:B,2,0), )</f>
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>31</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>961</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51">
         <v>81</v>
@@ -9500,20 +12344,20 @@
       </c>
       <c r="D53">
         <f>IFERROR(VLOOKUP(A53,MalRout2019!A:B,2,0), )</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>1024</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54">
         <v>84</v>
@@ -9592,20 +12436,20 @@
       </c>
       <c r="D57">
         <f>IFERROR(VLOOKUP(A57,MalRout2019!A:B,2,0), )</f>
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>1444</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58">
         <v>86</v>
@@ -9707,15 +12551,15 @@
       </c>
       <c r="D62">
         <f>IFERROR(VLOOKUP(A62,MalRout2019!A:B,2,0), )</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
-        <v>3721</v>
+        <v>841</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -9730,20 +12574,20 @@
       </c>
       <c r="D63">
         <f>IFERROR(VLOOKUP(A63,MalRout2019!A:B,2,0), )</f>
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B64">
         <v>90</v>
@@ -9753,20 +12597,20 @@
       </c>
       <c r="D64">
         <f>IFERROR(VLOOKUP(A64,MalRout2019!A:B,2,0), )</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65">
         <v>95</v>
@@ -9790,7 +12634,7 @@
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F66">
         <f>SUM(F2:F65)</f>
-        <v>37564</v>
+        <v>43414</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -9802,7 +12646,7 @@
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F68">
         <f>1-((6*F66)/F67)</f>
-        <v>0.17910839160839165</v>
+        <v>5.1267482517482477E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/Index Comp Shortlist.xlsx
+++ b/data/Index Comp Shortlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikna\Desktop\Politics of Routing\indexes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DE459E-10D8-45F4-87C3-6926ACB0A724}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1476885-8C53-4BB8-9894-5E682C66DAB2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="1410" windowWidth="19125" windowHeight="12585" tabRatio="658" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10020" yWindow="2100" windowWidth="19125" windowHeight="12585" tabRatio="658" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MalRout2019" sheetId="11" r:id="rId1"/>
@@ -687,7 +687,7 @@
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,10 +763,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C7">
-        <v>0.3834995893358305</v>
+        <v>0.40751038374731008</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -818,7 +818,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>0.39579297497180921</v>
@@ -829,7 +829,7 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <v>0.4733466791076103</v>
@@ -884,7 +884,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18">
         <v>0.47185162300674788</v>
@@ -895,7 +895,7 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>0.39089590878344693</v>
@@ -928,7 +928,7 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22">
         <v>0.39628523269096938</v>
@@ -972,7 +972,7 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26">
         <v>0.46715266803494326</v>
@@ -983,7 +983,7 @@
         <v>80</v>
       </c>
       <c r="B27">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27">
         <v>0.46616295781214967</v>
@@ -1049,7 +1049,7 @@
         <v>81</v>
       </c>
       <c r="B33">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>0.42888829748262569</v>
@@ -1214,10 +1214,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C48">
-        <v>0.51402033656529278</v>
+        <v>0.39844220291570442</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1258,7 +1258,7 @@
         <v>78</v>
       </c>
       <c r="B52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C52">
         <v>0.43412499842220165</v>
@@ -1269,7 +1269,7 @@
         <v>50</v>
       </c>
       <c r="B53">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53">
         <v>0.48354674979603463</v>
@@ -1280,7 +1280,7 @@
         <v>51</v>
       </c>
       <c r="B54">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C54">
         <v>0.42931198523261827</v>
@@ -1324,7 +1324,7 @@
         <v>55</v>
       </c>
       <c r="B58">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C58">
         <v>0.42482649871951461</v>
@@ -1335,7 +1335,7 @@
         <v>56</v>
       </c>
       <c r="B59">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C59">
         <v>0.39420633677030448</v>
@@ -1416,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F631CB40-6C1E-4438-826A-63468DB92520}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,7 +1537,7 @@
         <v>0.16979194261652997</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="2">G3-0.336774853036941</f>
+        <f t="shared" ref="H3:H65" si="2">G3-0.336774853036941</f>
         <v>-0.16698291042041102</v>
       </c>
       <c r="I3">
@@ -1707,15 +1707,15 @@
       </c>
       <c r="D7">
         <f>IFERROR(VLOOKUP(A7,MalRout2019!A:B,2,0), )</f>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>0.3834995893358305</v>
@@ -1937,15 +1937,15 @@
       </c>
       <c r="D12">
         <f>IFERROR(VLOOKUP(A12,MalRout2019!A:B,2,0), )</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>-33</v>
+        <v>-32</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>1089</v>
+        <v>1024</v>
       </c>
       <c r="G12">
         <v>0.39579297497180921</v>
@@ -1983,15 +1983,15 @@
       </c>
       <c r="D13">
         <f>IFERROR(VLOOKUP(A13,MalRout2019!A:B,2,0), )</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>-52</v>
+        <v>-53</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>2704</v>
+        <v>2809</v>
       </c>
       <c r="G13">
         <v>0.4733466791076103</v>
@@ -2213,15 +2213,15 @@
       </c>
       <c r="D18">
         <f>IFERROR(VLOOKUP(A18,MalRout2019!A:B,2,0), )</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="G18">
         <v>0.47185162300674788</v>
@@ -2259,15 +2259,15 @@
       </c>
       <c r="D19">
         <f>IFERROR(VLOOKUP(A19,MalRout2019!A:B,2,0), )</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>-34</v>
+        <v>-33</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>1156</v>
+        <v>1089</v>
       </c>
       <c r="G19">
         <v>0.39089590878344693</v>
@@ -2397,15 +2397,15 @@
       </c>
       <c r="D22">
         <f>IFERROR(VLOOKUP(A22,MalRout2019!A:B,2,0), )</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>-39</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>1521</v>
       </c>
       <c r="G22">
         <v>0.39628523269096938</v>
@@ -2581,15 +2581,15 @@
       </c>
       <c r="D26">
         <f>IFERROR(VLOOKUP(A26,MalRout2019!A:B,2,0), )</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>-37</v>
+        <v>-38</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>1369</v>
+        <v>1444</v>
       </c>
       <c r="G26">
         <v>0.46715266803494326</v>
@@ -2627,15 +2627,15 @@
       </c>
       <c r="D27">
         <f>IFERROR(VLOOKUP(A27,MalRout2019!A:B,2,0), )</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>-31</v>
+        <v>-32</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>961</v>
+        <v>1024</v>
       </c>
       <c r="G27">
         <v>0.46616295781214967</v>
@@ -2903,15 +2903,15 @@
       </c>
       <c r="D33">
         <f>IFERROR(VLOOKUP(A33,MalRout2019!A:B,2,0), )</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-36</v>
+        <v>-37</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>1296</v>
+        <v>1369</v>
       </c>
       <c r="G33">
         <v>0.42888829748262569</v>
@@ -3593,15 +3593,15 @@
       </c>
       <c r="D48">
         <f>IFERROR(VLOOKUP(A48,MalRout2019!A:B,2,0), )</f>
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>-32</v>
+        <v>-20</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>1024</v>
+        <v>400</v>
       </c>
       <c r="G48">
         <v>0.51402033656529278</v>
@@ -3777,15 +3777,15 @@
       </c>
       <c r="D52">
         <f>IFERROR(VLOOKUP(A52,MalRout2019!A:B,2,0), )</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G52">
         <v>0.43412499842220165</v>
@@ -3823,15 +3823,15 @@
       </c>
       <c r="D53">
         <f>IFERROR(VLOOKUP(A53,MalRout2019!A:B,2,0), )</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>-36</v>
+        <v>-37</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>1296</v>
+        <v>1369</v>
       </c>
       <c r="G53">
         <v>0.48354674979603463</v>
@@ -3869,15 +3869,15 @@
       </c>
       <c r="D54">
         <f>IFERROR(VLOOKUP(A54,MalRout2019!A:B,2,0), )</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>0.42931198523261827</v>
@@ -4053,15 +4053,15 @@
       </c>
       <c r="D58">
         <f>IFERROR(VLOOKUP(A58,MalRout2019!A:B,2,0), )</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>-26</v>
+        <v>-27</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>676</v>
+        <v>729</v>
       </c>
       <c r="G58">
         <v>0.42482649871951461</v>
@@ -4099,15 +4099,15 @@
       </c>
       <c r="D59">
         <f>IFERROR(VLOOKUP(A59,MalRout2019!A:B,2,0), )</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>-37</v>
+        <v>-36</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>1369</v>
+        <v>1296</v>
       </c>
       <c r="G59">
         <v>0.39420633677030448</v>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="F66">
         <f>SUM(F2:F65)</f>
-        <v>63252</v>
+        <v>62698</v>
       </c>
       <c r="G66">
         <f>SUM(G2:G65)/64</f>
@@ -4454,7 +4454,7 @@
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F68">
         <f>1-((6*F66)/F67)</f>
-        <v>-0.38225524475524475</v>
+        <v>-0.37014860139860151</v>
       </c>
       <c r="L68">
         <f>SQRT(L67)</f>
@@ -4486,8 +4486,8 @@
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L68" sqref="L68"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4635,15 +4635,15 @@
       </c>
       <c r="H4">
         <f>IFERROR(VLOOKUP(A4,MalRout2019!A:B,2,0), )</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>-39</v>
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>1521</v>
       </c>
       <c r="L4">
         <f>IFERROR(VLOOKUP(A4,MalRout2019!A:C,3,0), )</f>
@@ -4674,15 +4674,15 @@
       </c>
       <c r="H5">
         <f>IFERROR(VLOOKUP(A5,MalRout2019!A:B,2,0), )</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>-39</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>1521</v>
       </c>
       <c r="L5">
         <f>IFERROR(VLOOKUP(A5,MalRout2019!A:C,3,0), )</f>
@@ -4791,15 +4791,15 @@
       </c>
       <c r="H8">
         <f>IFERROR(VLOOKUP(A8,MalRout2019!A:B,2,0), )</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>-35</v>
+        <v>-34</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>1225</v>
+        <v>1156</v>
       </c>
       <c r="L8">
         <f>IFERROR(VLOOKUP(A8,MalRout2019!A:C,3,0), )</f>
@@ -4830,15 +4830,15 @@
       </c>
       <c r="H9">
         <f>IFERROR(VLOOKUP(A9,MalRout2019!A:B,2,0), )</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>-33</v>
+        <v>-32</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>1089</v>
+        <v>1024</v>
       </c>
       <c r="L9">
         <f>IFERROR(VLOOKUP(A9,MalRout2019!A:C,3,0), )</f>
@@ -5298,15 +5298,15 @@
       </c>
       <c r="H21">
         <f>IFERROR(VLOOKUP(A21,MalRout2019!A:B,2,0), )</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>-28</v>
+        <v>-29</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>784</v>
+        <v>841</v>
       </c>
       <c r="L21">
         <f>IFERROR(VLOOKUP(A21,MalRout2019!A:C,3,0), )</f>
@@ -5415,15 +5415,15 @@
       </c>
       <c r="H24">
         <f>IFERROR(VLOOKUP(A24,MalRout2019!A:B,2,0), )</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>-26</v>
+        <v>-27</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>676</v>
+        <v>729</v>
       </c>
       <c r="L24">
         <f>IFERROR(VLOOKUP(A24,MalRout2019!A:C,3,0), )</f>
@@ -5610,19 +5610,19 @@
       </c>
       <c r="H29">
         <f>IFERROR(VLOOKUP(A29,MalRout2019!A:B,2,0), )</f>
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>-28</v>
+        <v>-16</v>
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
-        <v>784</v>
+        <v>256</v>
       </c>
       <c r="L29">
         <f>IFERROR(VLOOKUP(A29,MalRout2019!A:C,3,0), )</f>
-        <v>0.51402033656529278</v>
+        <v>0.39844220291570442</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -5883,15 +5883,15 @@
       </c>
       <c r="H36">
         <f>IFERROR(VLOOKUP(A36,MalRout2019!A:B,2,0), )</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="J36">
         <f t="shared" si="3"/>
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="L36">
         <f>IFERROR(VLOOKUP(A36,MalRout2019!A:C,3,0), )</f>
@@ -6468,15 +6468,15 @@
       </c>
       <c r="H51">
         <f>IFERROR(VLOOKUP(A51,MalRout2019!A:B,2,0), )</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I51">
         <f t="shared" si="2"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="J51">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L51">
         <f>IFERROR(VLOOKUP(A51,MalRout2019!A:C,3,0), )</f>
@@ -6624,15 +6624,15 @@
       </c>
       <c r="H55">
         <f>IFERROR(VLOOKUP(A55,MalRout2019!A:B,2,0), )</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J55">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="L55">
         <f>IFERROR(VLOOKUP(A55,MalRout2019!A:C,3,0), )</f>
@@ -6663,19 +6663,19 @@
       </c>
       <c r="H56">
         <f>IFERROR(VLOOKUP(A56,MalRout2019!A:B,2,0), )</f>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I56">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J56">
         <f t="shared" si="3"/>
-        <v>225</v>
+        <v>64</v>
       </c>
       <c r="L56">
         <f>IFERROR(VLOOKUP(A56,MalRout2019!A:C,3,0), )</f>
-        <v>0.3834995893358305</v>
+        <v>0.40751038374731008</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -6897,15 +6897,15 @@
       </c>
       <c r="H62">
         <f>IFERROR(VLOOKUP(A62,MalRout2019!A:B,2,0), )</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I62">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J62">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="L62">
         <f>IFERROR(VLOOKUP(A62,MalRout2019!A:C,3,0), )</f>
@@ -6936,15 +6936,15 @@
       </c>
       <c r="H63">
         <f>IFERROR(VLOOKUP(A63,MalRout2019!A:B,2,0), )</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I63">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J63">
         <f t="shared" si="3"/>
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="L63">
         <f>IFERROR(VLOOKUP(A63,MalRout2019!A:C,3,0), )</f>
@@ -6975,15 +6975,15 @@
       </c>
       <c r="H64">
         <f>IFERROR(VLOOKUP(A64,MalRout2019!A:B,2,0), )</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I64">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J64">
         <f t="shared" si="3"/>
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="L64">
         <f>IFERROR(VLOOKUP(A64,MalRout2019!A:C,3,0), )</f>
@@ -7014,15 +7014,15 @@
       </c>
       <c r="H65">
         <f>IFERROR(VLOOKUP(A65,MalRout2019!A:B,2,0), )</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I65">
         <f t="shared" ref="I65" si="4">G65-H65</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J65">
         <f t="shared" ref="J65" si="5">I65^2</f>
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="L65">
         <f>IFERROR(VLOOKUP(A65,MalRout2019!A:C,3,0), )</f>
@@ -7032,7 +7032,7 @@
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J66">
         <f>SUM(J2:J65)</f>
-        <v>26568</v>
+        <v>25650</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -7044,11 +7044,11 @@
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J68">
         <f>1-((6*J66)/J67)</f>
-        <v>0.41940559440559444</v>
+        <v>0.43946678321678323</v>
       </c>
       <c r="L68">
         <f>CORREL(F2:F65, L2:L65)</f>
-        <v>0.44665835959289285</v>
+        <v>0.45733122072409632</v>
       </c>
     </row>
   </sheetData>
@@ -7133,15 +7133,15 @@
       </c>
       <c r="D3">
         <f>IFERROR(VLOOKUP(A3,MalRout2019!A:B,2,0), )</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>-39</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>1521</v>
       </c>
       <c r="H3">
         <f>IFERROR(VLOOKUP(A3,MalRout2019!A:C,3,0), )</f>
@@ -7160,15 +7160,15 @@
       </c>
       <c r="D4">
         <f>IFERROR(VLOOKUP(A4,MalRout2019!A:B,2,0), )</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>-39</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>1521</v>
       </c>
       <c r="H4">
         <f>IFERROR(VLOOKUP(A4,MalRout2019!A:C,3,0), )</f>
@@ -7214,15 +7214,15 @@
       </c>
       <c r="D6">
         <f>IFERROR(VLOOKUP(A6,MalRout2019!A:B,2,0), )</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>-39</v>
+        <v>-38</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>1521</v>
+        <v>1444</v>
       </c>
       <c r="H6">
         <f>IFERROR(VLOOKUP(A6,MalRout2019!A:C,3,0), )</f>
@@ -7268,19 +7268,19 @@
       </c>
       <c r="D8">
         <f>IFERROR(VLOOKUP(A8,MalRout2019!A:B,2,0), )</f>
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>-49</v>
+        <v>-37</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>2401</v>
+        <v>1369</v>
       </c>
       <c r="H8">
         <f>IFERROR(VLOOKUP(A8,MalRout2019!A:C,3,0), )</f>
-        <v>0.51402033656529278</v>
+        <v>0.39844220291570442</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -7349,15 +7349,15 @@
       </c>
       <c r="D11">
         <f>IFERROR(VLOOKUP(A11,MalRout2019!A:B,2,0), )</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>-31</v>
+        <v>-30</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>961</v>
+        <v>900</v>
       </c>
       <c r="H11">
         <f>IFERROR(VLOOKUP(A11,MalRout2019!A:C,3,0), )</f>
@@ -7673,15 +7673,15 @@
       </c>
       <c r="D23">
         <f>IFERROR(VLOOKUP(A23,MalRout2019!A:B,2,0), )</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>-31</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>961</v>
       </c>
       <c r="H23">
         <f>IFERROR(VLOOKUP(A23,MalRout2019!A:C,3,0), )</f>
@@ -7727,19 +7727,19 @@
       </c>
       <c r="D25">
         <f>IFERROR(VLOOKUP(A25,MalRout2019!A:B,2,0), )</f>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>-16</v>
+        <v>-23</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>529</v>
       </c>
       <c r="H25">
         <f>IFERROR(VLOOKUP(A25,MalRout2019!A:C,3,0), )</f>
-        <v>0.3834995893358305</v>
+        <v>0.40751038374731008</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -7943,15 +7943,15 @@
       </c>
       <c r="D33">
         <f>IFERROR(VLOOKUP(A33,MalRout2019!A:B,2,0), )</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-23</v>
+        <v>-24</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>529</v>
+        <v>576</v>
       </c>
       <c r="H33">
         <f>IFERROR(VLOOKUP(A33,MalRout2019!A:C,3,0), )</f>
@@ -8024,15 +8024,15 @@
       </c>
       <c r="D36">
         <f>IFERROR(VLOOKUP(A36,MalRout2019!A:B,2,0), )</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E36">
         <f t="shared" si="2"/>
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="F36">
         <f t="shared" si="3"/>
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="H36">
         <f>IFERROR(VLOOKUP(A36,MalRout2019!A:C,3,0), )</f>
@@ -8078,15 +8078,15 @@
       </c>
       <c r="D38">
         <f>IFERROR(VLOOKUP(A38,MalRout2019!A:B,2,0), )</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E38">
         <f t="shared" si="2"/>
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="F38">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="H38">
         <f>IFERROR(VLOOKUP(A38,MalRout2019!A:C,3,0), )</f>
@@ -8267,15 +8267,15 @@
       </c>
       <c r="D45">
         <f>IFERROR(VLOOKUP(A45,MalRout2019!A:B,2,0), )</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E45">
         <f t="shared" si="2"/>
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="F45">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="H45">
         <f>IFERROR(VLOOKUP(A45,MalRout2019!A:C,3,0), )</f>
@@ -8510,15 +8510,15 @@
       </c>
       <c r="D54">
         <f>IFERROR(VLOOKUP(A54,MalRout2019!A:B,2,0), )</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E54">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F54">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <f>IFERROR(VLOOKUP(A54,MalRout2019!A:C,3,0), )</f>
@@ -8564,15 +8564,15 @@
       </c>
       <c r="D56">
         <f>IFERROR(VLOOKUP(A56,MalRout2019!A:B,2,0), )</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E56">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H56">
         <f>IFERROR(VLOOKUP(A56,MalRout2019!A:C,3,0), )</f>
@@ -8672,15 +8672,15 @@
       </c>
       <c r="D60">
         <f>IFERROR(VLOOKUP(A60,MalRout2019!A:B,2,0), )</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E60">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F60">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="H60">
         <f>IFERROR(VLOOKUP(A60,MalRout2019!A:C,3,0), )</f>
@@ -8690,7 +8690,7 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F61">
         <f>SUM(F2:F60)</f>
-        <v>34660</v>
+        <v>33761</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -8702,11 +8702,11 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F63">
         <f>1-((6*F61)/F62)</f>
-        <v>0.24256993006993011</v>
+        <v>0.26221590909090908</v>
       </c>
       <c r="H63">
         <f>CORREL(B2:B60, H2:H60)</f>
-        <v>-0.12714551635451324</v>
+        <v>-0.14847174307212704</v>
       </c>
     </row>
   </sheetData>
@@ -8790,15 +8790,15 @@
       </c>
       <c r="D3">
         <f>IFERROR(VLOOKUP(A3,MalRout2019!A:B,2,0), )</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E62" si="0">C3-D3</f>
-        <v>-41</v>
+        <v>-40</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F62" si="1">E3^2</f>
-        <v>1681</v>
+        <v>1600</v>
       </c>
       <c r="H3">
         <f>IFERROR(VLOOKUP(A3,MalRout2019!A:C,3,0), )</f>
@@ -8817,15 +8817,15 @@
       </c>
       <c r="D4">
         <f>IFERROR(VLOOKUP(A4,MalRout2019!A:B,2,0), )</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>-39</v>
+        <v>-38</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>1521</v>
+        <v>1444</v>
       </c>
       <c r="H4">
         <f>IFERROR(VLOOKUP(A4,MalRout2019!A:C,3,0), )</f>
@@ -8844,15 +8844,15 @@
       </c>
       <c r="D5">
         <f>IFERROR(VLOOKUP(A5,MalRout2019!A:B,2,0), )</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>-39</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>1521</v>
       </c>
       <c r="H5">
         <f>IFERROR(VLOOKUP(A5,MalRout2019!A:C,3,0), )</f>
@@ -8925,19 +8925,19 @@
       </c>
       <c r="D8">
         <f>IFERROR(VLOOKUP(A8,MalRout2019!A:B,2,0), )</f>
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>-49</v>
+        <v>-37</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>2401</v>
+        <v>1369</v>
       </c>
       <c r="H8">
         <f>IFERROR(VLOOKUP(A8,MalRout2019!A:C,3,0), )</f>
-        <v>0.51402033656529278</v>
+        <v>0.39844220291570442</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -9006,15 +9006,15 @@
       </c>
       <c r="D11">
         <f>IFERROR(VLOOKUP(A11,MalRout2019!A:B,2,0), )</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>-31</v>
+        <v>-30</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>961</v>
+        <v>900</v>
       </c>
       <c r="H11">
         <f>IFERROR(VLOOKUP(A11,MalRout2019!A:C,3,0), )</f>
@@ -9249,19 +9249,19 @@
       </c>
       <c r="D20">
         <f>IFERROR(VLOOKUP(A20,MalRout2019!A:B,2,0), )</f>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>-21</v>
+        <v>-28</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>784</v>
       </c>
       <c r="H20">
         <f>IFERROR(VLOOKUP(A20,MalRout2019!A:C,3,0), )</f>
-        <v>0.3834995893358305</v>
+        <v>0.40751038374731008</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -9384,15 +9384,15 @@
       </c>
       <c r="D25">
         <f>IFERROR(VLOOKUP(A25,MalRout2019!A:B,2,0), )</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>-28</v>
+        <v>-29</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>784</v>
+        <v>841</v>
       </c>
       <c r="H25">
         <f>IFERROR(VLOOKUP(A25,MalRout2019!A:C,3,0), )</f>
@@ -9546,15 +9546,15 @@
       </c>
       <c r="D31">
         <f>IFERROR(VLOOKUP(A31,MalRout2019!A:B,2,0), )</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>-26</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>625</v>
+        <v>676</v>
       </c>
       <c r="H31">
         <f>IFERROR(VLOOKUP(A31,MalRout2019!A:C,3,0), )</f>
@@ -9627,15 +9627,15 @@
       </c>
       <c r="D34">
         <f>IFERROR(VLOOKUP(A34,MalRout2019!A:B,2,0), )</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="H34">
         <f>IFERROR(VLOOKUP(A34,MalRout2019!A:C,3,0), )</f>
@@ -9762,15 +9762,15 @@
       </c>
       <c r="D39">
         <f>IFERROR(VLOOKUP(A39,MalRout2019!A:B,2,0), )</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="H39">
         <f>IFERROR(VLOOKUP(A39,MalRout2019!A:C,3,0), )</f>
@@ -10032,15 +10032,15 @@
       </c>
       <c r="D49">
         <f>IFERROR(VLOOKUP(A49,MalRout2019!A:B,2,0), )</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H49">
         <f>IFERROR(VLOOKUP(A49,MalRout2019!A:C,3,0), )</f>
@@ -10221,15 +10221,15 @@
       </c>
       <c r="D56">
         <f>IFERROR(VLOOKUP(A56,MalRout2019!A:B,2,0), )</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H56">
         <f>IFERROR(VLOOKUP(A56,MalRout2019!A:C,3,0), )</f>
@@ -10248,15 +10248,15 @@
       </c>
       <c r="D57">
         <f>IFERROR(VLOOKUP(A57,MalRout2019!A:B,2,0), )</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H57">
         <f>IFERROR(VLOOKUP(A57,MalRout2019!A:C,3,0), )</f>
@@ -10383,15 +10383,15 @@
       </c>
       <c r="D62">
         <f>IFERROR(VLOOKUP(A62,MalRout2019!A:B,2,0), )</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="H62">
         <f>IFERROR(VLOOKUP(A62,MalRout2019!A:C,3,0), )</f>
@@ -10401,7 +10401,7 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F63">
         <f>SUM(F2:F62)</f>
-        <v>36524</v>
+        <v>35677</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -10413,11 +10413,11 @@
     <row r="65" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F65">
         <f>1-((6*F63)/F64)</f>
-        <v>0.20183566433566436</v>
+        <v>0.22034527972027973</v>
       </c>
       <c r="H65">
         <f>CORREL(B2:B62,H2:H62)</f>
-        <v>-0.11054782197870928</v>
+        <v>-0.12922508850075687</v>
       </c>
     </row>
   </sheetData>
@@ -10501,15 +10501,15 @@
       </c>
       <c r="D3">
         <f>IFERROR(VLOOKUP(A3,MalRout2019!A:B,2,0), )</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E64" si="0">C3-D3</f>
-        <v>-41</v>
+        <v>-40</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F64" si="1">E3^2</f>
-        <v>1681</v>
+        <v>1600</v>
       </c>
       <c r="H3">
         <f>IFERROR(VLOOKUP(A3,MalRout2019!A:C,3,0), )</f>
@@ -10555,15 +10555,15 @@
       </c>
       <c r="D5">
         <f>IFERROR(VLOOKUP(A5,MalRout2019!A:B,2,0), )</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>-38</v>
+        <v>-37</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>1444</v>
+        <v>1369</v>
       </c>
       <c r="H5">
         <f>IFERROR(VLOOKUP(A5,MalRout2019!A:C,3,0), )</f>
@@ -10609,15 +10609,15 @@
       </c>
       <c r="D7">
         <f>IFERROR(VLOOKUP(A7,MalRout2019!A:B,2,0), )</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>-38</v>
+        <v>-37</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>1444</v>
+        <v>1369</v>
       </c>
       <c r="H7">
         <f>IFERROR(VLOOKUP(A7,MalRout2019!A:C,3,0), )</f>
@@ -10690,15 +10690,15 @@
       </c>
       <c r="D10">
         <f>IFERROR(VLOOKUP(A10,MalRout2019!A:B,2,0), )</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>-39</v>
+        <v>-40</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>1521</v>
+        <v>1600</v>
       </c>
       <c r="H10">
         <f>IFERROR(VLOOKUP(A10,MalRout2019!A:C,3,0), )</f>
@@ -10744,15 +10744,15 @@
       </c>
       <c r="D12">
         <f>IFERROR(VLOOKUP(A12,MalRout2019!A:B,2,0), )</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>-29</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="H12">
         <f>IFERROR(VLOOKUP(A12,MalRout2019!A:C,3,0), )</f>
@@ -10771,19 +10771,19 @@
       </c>
       <c r="D13">
         <f>IFERROR(VLOOKUP(A13,MalRout2019!A:B,2,0), )</f>
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>-44</v>
+        <v>-32</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>1936</v>
+        <v>1024</v>
       </c>
       <c r="H13">
         <f>IFERROR(VLOOKUP(A13,MalRout2019!A:C,3,0), )</f>
-        <v>0.51402033656529278</v>
+        <v>0.39844220291570442</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -10933,15 +10933,15 @@
       </c>
       <c r="D19">
         <f>IFERROR(VLOOKUP(A19,MalRout2019!A:B,2,0), )</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>-31</v>
+        <v>-32</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>961</v>
+        <v>1024</v>
       </c>
       <c r="H19">
         <f>IFERROR(VLOOKUP(A19,MalRout2019!A:C,3,0), )</f>
@@ -11041,15 +11041,15 @@
       </c>
       <c r="D23">
         <f>IFERROR(VLOOKUP(A23,MalRout2019!A:B,2,0), )</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>-31</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>961</v>
       </c>
       <c r="H23">
         <f>IFERROR(VLOOKUP(A23,MalRout2019!A:C,3,0), )</f>
@@ -11338,15 +11338,15 @@
       </c>
       <c r="D34">
         <f>IFERROR(VLOOKUP(A34,MalRout2019!A:B,2,0), )</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>-22</v>
+        <v>-23</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>529</v>
       </c>
       <c r="H34">
         <f>IFERROR(VLOOKUP(A34,MalRout2019!A:C,3,0), )</f>
@@ -11419,15 +11419,15 @@
       </c>
       <c r="D37">
         <f>IFERROR(VLOOKUP(A37,MalRout2019!A:B,2,0), )</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="H37">
         <f>IFERROR(VLOOKUP(A37,MalRout2019!A:C,3,0), )</f>
@@ -11689,19 +11689,19 @@
       </c>
       <c r="D47">
         <f>IFERROR(VLOOKUP(A47,MalRout2019!A:B,2,0), )</f>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="H47">
         <f>IFERROR(VLOOKUP(A47,MalRout2019!A:C,3,0), )</f>
-        <v>0.3834995893358305</v>
+        <v>0.40751038374731008</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -11878,15 +11878,15 @@
       </c>
       <c r="D54">
         <f>IFERROR(VLOOKUP(A54,MalRout2019!A:B,2,0), )</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H54">
         <f>IFERROR(VLOOKUP(A54,MalRout2019!A:C,3,0), )</f>
@@ -12013,15 +12013,15 @@
       </c>
       <c r="D59">
         <f>IFERROR(VLOOKUP(A59,MalRout2019!A:B,2,0), )</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H59">
         <f>IFERROR(VLOOKUP(A59,MalRout2019!A:C,3,0), )</f>
@@ -12040,15 +12040,15 @@
       </c>
       <c r="D60">
         <f>IFERROR(VLOOKUP(A60,MalRout2019!A:B,2,0), )</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H60">
         <f>IFERROR(VLOOKUP(A60,MalRout2019!A:C,3,0), )</f>
@@ -12148,15 +12148,15 @@
       </c>
       <c r="D64">
         <f>IFERROR(VLOOKUP(A64,MalRout2019!A:B,2,0), )</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="H64">
         <f>IFERROR(VLOOKUP(A64,MalRout2019!A:C,3,0), )</f>
@@ -12166,7 +12166,7 @@
     <row r="65" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F65">
         <f>SUM(F2:F64)</f>
-        <v>37415</v>
+        <v>36403</v>
       </c>
     </row>
     <row r="66" spans="6:8" x14ac:dyDescent="0.25">
@@ -12178,11 +12178,11 @@
     <row r="67" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F67">
         <f>1-((6*F65)/F66)</f>
-        <v>0.18236451048951052</v>
+        <v>0.20447989510489506</v>
       </c>
       <c r="H67">
         <f>CORREL(B2:B64,H2:H64)</f>
-        <v>-0.14047212270409692</v>
+        <v>-0.15598053937041875</v>
       </c>
     </row>
   </sheetData>
@@ -12197,7 +12197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A68DFB-8B47-450C-9DB6-0E1F407E96C6}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
@@ -12293,15 +12293,15 @@
       </c>
       <c r="D4">
         <f>IFERROR(VLOOKUP(A4,MalRout2019!A:B,2,0), )</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>-39</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>1521</v>
       </c>
       <c r="H4">
         <f>IFERROR(VLOOKUP(A4,MalRout2019!A:C,3,0), )</f>
@@ -12320,15 +12320,15 @@
       </c>
       <c r="D5">
         <f>IFERROR(VLOOKUP(A5,MalRout2019!A:B,2,0), )</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>-39</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>1521</v>
       </c>
       <c r="H5">
         <f>IFERROR(VLOOKUP(A5,MalRout2019!A:C,3,0), )</f>
@@ -12401,15 +12401,15 @@
       </c>
       <c r="D8">
         <f>IFERROR(VLOOKUP(A8,MalRout2019!A:B,2,0), )</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>-35</v>
+        <v>-34</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>1225</v>
+        <v>1156</v>
       </c>
       <c r="H8">
         <f>IFERROR(VLOOKUP(A8,MalRout2019!A:C,3,0), )</f>
@@ -12428,15 +12428,15 @@
       </c>
       <c r="D9">
         <f>IFERROR(VLOOKUP(A9,MalRout2019!A:B,2,0), )</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>-33</v>
+        <v>-32</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>1089</v>
+        <v>1024</v>
       </c>
       <c r="H9">
         <f>IFERROR(VLOOKUP(A9,MalRout2019!A:C,3,0), )</f>
@@ -12509,15 +12509,15 @@
       </c>
       <c r="D12">
         <f>IFERROR(VLOOKUP(A12,MalRout2019!A:B,2,0), )</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>-37</v>
+        <v>-38</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>1369</v>
+        <v>1444</v>
       </c>
       <c r="H12">
         <f>IFERROR(VLOOKUP(A12,MalRout2019!A:C,3,0), )</f>
@@ -12725,15 +12725,15 @@
       </c>
       <c r="D20">
         <f>IFERROR(VLOOKUP(A20,MalRout2019!A:B,2,0), )</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>-33</v>
+        <v>-34</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>1089</v>
+        <v>1156</v>
       </c>
       <c r="H20">
         <f>IFERROR(VLOOKUP(A20,MalRout2019!A:C,3,0), )</f>
@@ -12833,15 +12833,15 @@
       </c>
       <c r="D24">
         <f>IFERROR(VLOOKUP(A24,MalRout2019!A:B,2,0), )</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>-26</v>
+        <v>-27</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>676</v>
+        <v>729</v>
       </c>
       <c r="H24">
         <f>IFERROR(VLOOKUP(A24,MalRout2019!A:C,3,0), )</f>
@@ -13211,19 +13211,19 @@
       </c>
       <c r="D38">
         <f>IFERROR(VLOOKUP(A38,MalRout2019!A:B,2,0), )</f>
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>-19</v>
+        <v>-7</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>361</v>
+        <v>49</v>
       </c>
       <c r="H38">
         <f>IFERROR(VLOOKUP(A38,MalRout2019!A:C,3,0), )</f>
-        <v>0.51402033656529278</v>
+        <v>0.39844220291570442</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -13481,15 +13481,15 @@
       </c>
       <c r="D48">
         <f>IFERROR(VLOOKUP(A48,MalRout2019!A:B,2,0), )</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="H48">
         <f>IFERROR(VLOOKUP(A48,MalRout2019!A:C,3,0), )</f>
@@ -13508,15 +13508,15 @@
       </c>
       <c r="D49">
         <f>IFERROR(VLOOKUP(A49,MalRout2019!A:B,2,0), )</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <f>IFERROR(VLOOKUP(A49,MalRout2019!A:C,3,0), )</f>
@@ -13697,15 +13697,15 @@
       </c>
       <c r="D56">
         <f>IFERROR(VLOOKUP(A56,MalRout2019!A:B,2,0), )</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H56">
         <f>IFERROR(VLOOKUP(A56,MalRout2019!A:C,3,0), )</f>
@@ -13778,19 +13778,19 @@
       </c>
       <c r="D59">
         <f>IFERROR(VLOOKUP(A59,MalRout2019!A:B,2,0), )</f>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>121</v>
       </c>
       <c r="H59">
         <f>IFERROR(VLOOKUP(A59,MalRout2019!A:C,3,0), )</f>
-        <v>0.3834995893358305</v>
+        <v>0.40751038374731008</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -13805,15 +13805,15 @@
       </c>
       <c r="D60">
         <f>IFERROR(VLOOKUP(A60,MalRout2019!A:B,2,0), )</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H60">
         <f>IFERROR(VLOOKUP(A60,MalRout2019!A:C,3,0), )</f>
@@ -13886,15 +13886,15 @@
       </c>
       <c r="D63">
         <f>IFERROR(VLOOKUP(A63,MalRout2019!A:B,2,0), )</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="H63">
         <f>IFERROR(VLOOKUP(A63,MalRout2019!A:C,3,0), )</f>
@@ -13913,15 +13913,15 @@
       </c>
       <c r="D64">
         <f>IFERROR(VLOOKUP(A64,MalRout2019!A:B,2,0), )</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="H64">
         <f>IFERROR(VLOOKUP(A64,MalRout2019!A:C,3,0), )</f>
@@ -13958,7 +13958,7 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F66">
         <f>SUM(F2:F65)</f>
-        <v>32636</v>
+        <v>31982</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -13970,11 +13970,11 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F68">
         <f>1-((6*F66)/F67)</f>
-        <v>0.28680069930069929</v>
+        <v>0.30109265734265733</v>
       </c>
       <c r="H68">
         <f>CORREL(B2:B65,H2:H65)</f>
-        <v>0.26116042140867129</v>
+        <v>0.26305124327575624</v>
       </c>
     </row>
   </sheetData>
@@ -13996,6 +13996,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Project Document" ma:contentTypeID="0x010100B72D5037F2EA664DBFC5187AA8D6B65C00A3340CEDB5DA7E4B9BB96631FD89FF21" ma:contentTypeVersion="7" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="bd1ef9963cf2a2e7e91ecbe90abdc46d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bbeb8e2e-daad-4c9b-b304-1c3eab47a3c8" xmlns:ns3="c35e2d04-db00-4c32-92ef-5c850c76cd43" xmlns:ns4="83dd29aa-65c1-4a57-8a59-44e3dbcdc3a0" xmlns:ns5="34c09e02-ee14-4df8-b4da-da82f6bef5e6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c4316eafdb6baf2714cef7a8594a8608" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="bbeb8e2e-daad-4c9b-b304-1c3eab47a3c8"/>
@@ -14210,15 +14219,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6230D5F0-77D7-4D96-AA50-17E5A7AA5F87}">
   <ds:schemaRefs>
@@ -14232,6 +14232,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E44E48-64AF-4C77-9A9D-F8B314961EB6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09F63946-DBCD-497D-A66C-7D2FAB518D56}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14250,12 +14258,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E44E48-64AF-4C77-9A9D-F8B314961EB6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Index Comp Shortlist.xlsx
+++ b/data/Index Comp Shortlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikna\Desktop\Politics of Routing\indexes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1476885-8C53-4BB8-9894-5E682C66DAB2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAC101D-B7DC-4EB8-914F-3C60C7C9D0D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="2100" windowWidth="19125" windowHeight="12585" tabRatio="658" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="1005" windowWidth="19125" windowHeight="12585" tabRatio="658" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MalRout2019" sheetId="11" r:id="rId1"/>
@@ -1416,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F631CB40-6C1E-4438-826A-63468DB92520}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4440,8 +4440,8 @@
         <v>1074808813314.3199</v>
       </c>
       <c r="F67">
-        <f>65*(65^2-1)</f>
-        <v>274560</v>
+        <f>64*(64^2-1)</f>
+        <v>262080</v>
       </c>
       <c r="G67">
         <v>0.33677485303694099</v>
@@ -4454,7 +4454,7 @@
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F68">
         <f>1-((6*F66)/F67)</f>
-        <v>-0.37014860139860151</v>
+        <v>-0.4353937728937729</v>
       </c>
       <c r="L68">
         <f>SQRT(L67)</f>
@@ -4485,9 +4485,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7037,14 +7037,14 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J67">
-        <f>65*(65^2-1)</f>
-        <v>274560</v>
+        <f>64*(64^2-1)</f>
+        <v>262080</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J68">
         <f>1-((6*J66)/J67)</f>
-        <v>0.43946678321678323</v>
+        <v>0.41277472527472525</v>
       </c>
       <c r="L68">
         <f>CORREL(F2:F65, L2:L65)</f>
@@ -7064,8 +7064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36198A2-45F7-4E2D-AF04-87EC7C6E0C80}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8695,14 +8695,14 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F62">
-        <f>65*(65^2-1)</f>
-        <v>274560</v>
+        <f>59*(59^2-1)</f>
+        <v>205320</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F63">
         <f>1-((6*F61)/F62)</f>
-        <v>0.26221590909090908</v>
+        <v>1.3413208649912356E-2</v>
       </c>
       <c r="H63">
         <f>CORREL(B2:B60, H2:H60)</f>
@@ -8722,7 +8722,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10406,14 +10406,14 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F64">
-        <f>65*(65^2-1)</f>
-        <v>274560</v>
+        <f>61*(61^2-1)</f>
+        <v>226920</v>
       </c>
     </row>
     <row r="65" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F65">
         <f>1-((6*F63)/F64)</f>
-        <v>0.22034527972027973</v>
+        <v>5.6663141195134825E-2</v>
       </c>
       <c r="H65">
         <f>CORREL(B2:B62,H2:H62)</f>
@@ -10432,8 +10432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073D67BF-D262-42C5-A66A-4BB41376A9E7}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12171,14 +12171,14 @@
     </row>
     <row r="66" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F66">
-        <f>65*(65^2-1)</f>
-        <v>274560</v>
+        <f>63*(63^2-1)</f>
+        <v>249984</v>
       </c>
     </row>
     <row r="67" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F67">
         <f>1-((6*F65)/F66)</f>
-        <v>0.20447989510489506</v>
+        <v>0.12627208141321045</v>
       </c>
       <c r="H67">
         <f>CORREL(B2:B64,H2:H64)</f>
@@ -12197,8 +12197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A68DFB-8B47-450C-9DB6-0E1F407E96C6}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13963,14 +13963,14 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F67">
-        <f>65*(65^2-1)</f>
-        <v>274560</v>
+        <f>64*(64^2-1)</f>
+        <v>262080</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F68">
         <f>1-((6*F66)/F67)</f>
-        <v>0.30109265734265733</v>
+        <v>0.26781135531135536</v>
       </c>
       <c r="H68">
         <f>CORREL(B2:B65,H2:H65)</f>
@@ -13996,15 +13996,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Project Document" ma:contentTypeID="0x010100B72D5037F2EA664DBFC5187AA8D6B65C00A3340CEDB5DA7E4B9BB96631FD89FF21" ma:contentTypeVersion="7" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="bd1ef9963cf2a2e7e91ecbe90abdc46d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bbeb8e2e-daad-4c9b-b304-1c3eab47a3c8" xmlns:ns3="c35e2d04-db00-4c32-92ef-5c850c76cd43" xmlns:ns4="83dd29aa-65c1-4a57-8a59-44e3dbcdc3a0" xmlns:ns5="34c09e02-ee14-4df8-b4da-da82f6bef5e6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c4316eafdb6baf2714cef7a8594a8608" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="bbeb8e2e-daad-4c9b-b304-1c3eab47a3c8"/>
@@ -14219,6 +14210,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6230D5F0-77D7-4D96-AA50-17E5A7AA5F87}">
   <ds:schemaRefs>
@@ -14232,14 +14232,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E44E48-64AF-4C77-9A9D-F8B314961EB6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09F63946-DBCD-497D-A66C-7D2FAB518D56}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14258,4 +14250,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E44E48-64AF-4C77-9A9D-F8B314961EB6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>